--- a/Ind-major preferencing.xlsx
+++ b/Ind-major preferencing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git repositories\Polling Analyser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\source\repos\Polling Analyser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4BFB40A-5614-41D9-B5A8-5501312E1D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{351A80D0-8BC0-47BA-8951-9335E177F441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11670" yWindow="1275" windowWidth="16320" windowHeight="14835" activeTab="1" xr2:uid="{A68543AE-A11D-4AA7-B656-18DD4E512950}"/>
+    <workbookView xWindow="2850" yWindow="5310" windowWidth="24255" windowHeight="15300" activeTab="2" xr2:uid="{A68543AE-A11D-4AA7-B656-18DD4E512950}"/>
   </bookViews>
   <sheets>
     <sheet name="LNP seat regression" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -637,12 +638,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,6 +645,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7638,48 +7639,48 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>0.72572178186591341</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>0.52667210467463632</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>0.5114034628899472</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>0.1037442841983575</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>65</v>
       </c>
     </row>
@@ -7689,185 +7690,185 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>0.74250308580941193</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>0.37125154290470597</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>34.493710187291462</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>8.5118723921168976E-11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>62</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>0.66729834323743331</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>1.0762876503829569E-2</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>64</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>1.4098014290468452</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>4.5032830972013493E-2</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>6.6306515255003654E-2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>0.67916147906167046</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>0.49956319481473421</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>-8.7512004416478079E-2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>0.17757766636050507</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="2">
         <v>-8.7512004416478079E-2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="2">
         <v>0.17757766636050507</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>-2.6752646019232501E-3</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>1.0659848862840538E-3</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>-2.5096646644297453</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>1.4710217586629444E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>-4.8061380271931398E-3</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <v>-5.4439117665336075E-4</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="2">
         <v>-4.8061380271931398E-3</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="2">
         <v>-5.4439117665336075E-4</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>1.3442256496584351E-2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>1.6295240935262939E-3</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>8.2491916198031028</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>1.4637272868167185E-11</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>1.0184884247305653E-2</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>1.6699628745863049E-2</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>1.0184884247305653E-2</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>1.6699628745863049E-2</v>
       </c>
     </row>
@@ -7880,7 +7881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FAE203-CCF8-4F54-A5B6-DEF1D61C77A5}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -7896,48 +7897,48 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>0.39785415004805991</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>0.15828792471046416</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>9.0950958687301298E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>0.18587043066934741</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>28</v>
       </c>
     </row>
@@ -7947,185 +7948,185 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>0.16242199726919626</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>8.1210998634598131E-2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>2.3506839416556953</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>0.11602310148593233</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>25</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>0.86369542493021689</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>3.4547816997208679E-2</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>27</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>1.0261174221994132</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>-0.67420351633781839</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>0.25347330944477814</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>-2.6598599979407331</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>1.3448234886622352E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>-1.1962415692333055</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>-0.15216546344233128</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="2">
         <v>-1.1962415692333055</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="2">
         <v>-0.15216546344233128</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>-4.7012398127806903E-3</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>4.1409214796341116E-3</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>-1.1353124747480332</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>0.26701215779266668</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>-1.3229627244011371E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <v>3.8271476184499912E-3</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="2">
         <v>-1.3229627244011371E-2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="2">
         <v>3.8271476184499912E-3</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>1.6701354817676855E-2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>7.7233284523503783E-3</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>2.1624555942061829</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>4.0349838981965772E-2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>7.9486211448479005E-4</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>3.260784752086892E-2</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>7.9486211448479005E-4</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>3.260784752086892E-2</v>
       </c>
     </row>
@@ -8138,8 +8139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC942FC-F408-4DDC-937A-94949179FD9D}">
   <dimension ref="A1:DH66"/>
   <sheetViews>
-    <sheetView topLeftCell="CZ1" workbookViewId="0">
-      <selection activeCell="DB1" sqref="DB1:DE1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8157,24 +8158,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:112" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="1"/>
-      <c r="BO1" s="3" t="s">
+      <c r="BO1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
       <c r="BU1" s="1"/>
       <c r="CL1" s="1"/>
-      <c r="CM1" s="2" t="s">
+      <c r="CM1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="CN1" s="2"/>
-      <c r="CO1" s="2"/>
+      <c r="CN1" s="6"/>
+      <c r="CO1" s="6"/>
       <c r="DC1" t="s">
         <v>150</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="DC2">
-        <f ca="1">OFFSET($B$5,0,DB2,1,1)</f>
+        <f t="shared" ref="DC2:DC33" ca="1" si="0">OFFSET($B$5,0,DB2,1,1)</f>
         <v>32.35</v>
       </c>
       <c r="DD2">
@@ -8526,15 +8527,15 @@
         <v>1</v>
       </c>
       <c r="DC3">
-        <f ca="1">OFFSET($B$5,0,DB3,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>31.18</v>
       </c>
       <c r="DD3">
-        <f t="shared" ref="DD3:DD66" ca="1" si="0">OFFSET($B$11,0,DB3,1,1)</f>
+        <f t="shared" ref="DD3:DD66" ca="1" si="1">OFFSET($B$11,0,DB3,1,1)</f>
         <v>40.9</v>
       </c>
       <c r="DE3">
-        <f t="shared" ref="DE3:DE66" ca="1" si="1">OFFSET($B$15,0,DB3,1,1)</f>
+        <f t="shared" ref="DE3:DE66" ca="1" si="2">OFFSET($B$15,0,DB3,1,1)</f>
         <v>0.70490699166132154</v>
       </c>
       <c r="DG3" t="s">
@@ -8856,19 +8857,19 @@
         <v>27.48</v>
       </c>
       <c r="DB4">
-        <f t="shared" ref="DB4:DB43" si="2">DB3+1</f>
+        <f t="shared" ref="DB4:DB43" si="3">DB3+1</f>
         <v>2</v>
       </c>
       <c r="DC4">
-        <f ca="1">OFFSET($B$5,0,DB4,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>32.74</v>
       </c>
       <c r="DD4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44.39</v>
       </c>
       <c r="DE4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.64172266340867434</v>
       </c>
     </row>
@@ -9183,19 +9184,19 @@
         <v>40.96</v>
       </c>
       <c r="DB5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="DC5">
-        <f ca="1">OFFSET($B$5,0,DB5,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>43.46</v>
       </c>
       <c r="DD5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>47.88</v>
       </c>
       <c r="DE5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.781661297745053</v>
       </c>
     </row>
@@ -9510,19 +9511,19 @@
         <v>16.98</v>
       </c>
       <c r="DB6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="DC6">
-        <f ca="1">OFFSET($B$5,0,DB6,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>32.43</v>
       </c>
       <c r="DD6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>40.15</v>
       </c>
       <c r="DE6">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.68920752389762574</v>
       </c>
     </row>
@@ -9837,19 +9838,19 @@
         <v>5.17</v>
       </c>
       <c r="DB7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="DC7">
-        <f ca="1">OFFSET($B$5,0,DB7,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>34.19</v>
       </c>
       <c r="DD7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>47.46</v>
       </c>
       <c r="DE7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.695291020766306</v>
       </c>
     </row>
@@ -9858,351 +9859,351 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <f>100-SUM(B4:B7)</f>
+        <f t="shared" ref="B8:AG8" si="4">100-SUM(B4:B7)</f>
         <v>6.8100000000000023</v>
       </c>
       <c r="C8">
-        <f>100-SUM(C4:C7)</f>
+        <f t="shared" si="4"/>
         <v>9.0699999999999932</v>
       </c>
       <c r="D8">
-        <f>100-SUM(D4:D7)</f>
+        <f t="shared" si="4"/>
         <v>7.8599999999999994</v>
       </c>
       <c r="E8">
-        <f>100-SUM(E4:E7)</f>
+        <f t="shared" si="4"/>
         <v>4.7900000000000063</v>
       </c>
       <c r="F8">
-        <f>100-SUM(F4:F7)</f>
+        <f t="shared" si="4"/>
         <v>1.6499999999999915</v>
       </c>
       <c r="G8">
-        <f>100-SUM(G4:G7)</f>
+        <f t="shared" si="4"/>
         <v>5.2399999999999949</v>
       </c>
       <c r="H8">
-        <f>100-SUM(H4:H7)</f>
+        <f t="shared" si="4"/>
         <v>5.8100000000000023</v>
       </c>
       <c r="I8">
-        <f>100-SUM(I4:I7)</f>
+        <f t="shared" si="4"/>
         <v>8.5900000000000034</v>
       </c>
       <c r="J8">
-        <f>100-SUM(J4:J7)</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000171</v>
       </c>
       <c r="K8">
-        <f>100-SUM(K4:K7)</f>
+        <f t="shared" si="4"/>
         <v>1.519999999999996</v>
       </c>
       <c r="L8">
-        <f>100-SUM(L4:L7)</f>
+        <f t="shared" si="4"/>
         <v>0.68000000000000682</v>
       </c>
       <c r="M8">
-        <f>100-SUM(M4:M7)</f>
+        <f t="shared" si="4"/>
         <v>10.599999999999994</v>
       </c>
       <c r="N8">
-        <f>100-SUM(N4:N7)</f>
+        <f t="shared" si="4"/>
         <v>9.9999999999994316E-2</v>
       </c>
       <c r="O8">
-        <f>100-SUM(O4:O7)</f>
+        <f t="shared" si="4"/>
         <v>1.1999999999999886</v>
       </c>
       <c r="P8">
-        <f>100-SUM(P4:P7)</f>
+        <f t="shared" si="4"/>
         <v>1.9899999999999949</v>
       </c>
       <c r="Q8">
-        <f>100-SUM(Q4:Q7)</f>
+        <f t="shared" si="4"/>
         <v>5.8399999999999892</v>
       </c>
       <c r="R8">
-        <f>100-SUM(R4:R7)</f>
+        <f t="shared" si="4"/>
         <v>5.3999999999999915</v>
       </c>
       <c r="S8">
-        <f>100-SUM(S4:S7)</f>
+        <f t="shared" si="4"/>
         <v>12.719999999999999</v>
       </c>
       <c r="T8">
-        <f>100-SUM(T4:T7)</f>
+        <f t="shared" si="4"/>
         <v>15.749999999999986</v>
       </c>
       <c r="U8">
-        <f>100-SUM(U4:U7)</f>
+        <f t="shared" si="4"/>
         <v>14.659999999999997</v>
       </c>
       <c r="V8">
-        <f>100-SUM(V4:V7)</f>
+        <f t="shared" si="4"/>
         <v>9.64</v>
       </c>
       <c r="W8">
-        <f>100-SUM(W4:W7)</f>
+        <f t="shared" si="4"/>
         <v>3.9500000000000028</v>
       </c>
       <c r="X8">
-        <f>100-SUM(X4:X7)</f>
+        <f t="shared" si="4"/>
         <v>11.89</v>
       </c>
       <c r="Y8">
-        <f>100-SUM(Y4:Y7)</f>
+        <f t="shared" si="4"/>
         <v>3.1999999999999886</v>
       </c>
       <c r="Z8">
-        <f>100-SUM(Z4:Z7)</f>
+        <f t="shared" si="4"/>
         <v>2.6000000000000085</v>
       </c>
       <c r="AA8">
-        <f>100-SUM(AA4:AA7)</f>
+        <f t="shared" si="4"/>
         <v>1.9700000000000131</v>
       </c>
       <c r="AB8">
-        <f>100-SUM(AB4:AB7)</f>
+        <f t="shared" si="4"/>
         <v>-0.10000000000000853</v>
       </c>
       <c r="AC8">
-        <f>100-SUM(AC4:AC7)</f>
+        <f t="shared" si="4"/>
         <v>2.6999999999999886</v>
       </c>
       <c r="AD8">
-        <f>100-SUM(AD4:AD7)</f>
+        <f t="shared" si="4"/>
         <v>1.5999999999999943</v>
       </c>
       <c r="AE8">
-        <f>100-SUM(AE4:AE7)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AF8">
-        <f>100-SUM(AF4:AF7)</f>
+        <f t="shared" si="4"/>
         <v>3.4000000000000057</v>
       </c>
       <c r="AG8">
-        <f>100-SUM(AG4:AG7)</f>
+        <f t="shared" si="4"/>
         <v>1.1000000000000085</v>
       </c>
       <c r="AH8">
-        <f>100-SUM(AH4:AH7)</f>
+        <f t="shared" ref="AH8:BM8" si="5">100-SUM(AH4:AH7)</f>
         <v>2.4000000000000057</v>
       </c>
       <c r="AI8">
-        <f>100-SUM(AI4:AI7)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AJ8">
-        <f>100-SUM(AJ4:AJ7)</f>
+        <f t="shared" si="5"/>
         <v>2.1999999999999886</v>
       </c>
       <c r="AK8">
-        <f>100-SUM(AK4:AK7)</f>
+        <f t="shared" si="5"/>
         <v>4.7999999999999972</v>
       </c>
       <c r="AL8">
-        <f>100-SUM(AL4:AL7)</f>
+        <f t="shared" si="5"/>
         <v>4.2000000000000028</v>
       </c>
       <c r="AM8">
-        <f>100-SUM(AM4:AM7)</f>
+        <f t="shared" si="5"/>
         <v>2.0999999999999943</v>
       </c>
       <c r="AN8">
-        <f>100-SUM(AN4:AN7)</f>
+        <f t="shared" si="5"/>
         <v>5.6000000000000085</v>
       </c>
       <c r="AO8">
-        <f>100-SUM(AO4:AO7)</f>
+        <f t="shared" si="5"/>
         <v>1.6000000000000085</v>
       </c>
       <c r="AP8">
-        <f>100-SUM(AP4:AP7)</f>
+        <f t="shared" si="5"/>
         <v>3.7000000000000028</v>
       </c>
       <c r="AQ8">
-        <f>100-SUM(AQ4:AQ7)</f>
+        <f t="shared" si="5"/>
         <v>2.7000000000000028</v>
       </c>
       <c r="AR8">
-        <f>100-SUM(AR4:AR7)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AS8">
-        <f>100-SUM(AS4:AS7)</f>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="AT8">
-        <f>100-SUM(AT4:AT7)</f>
+        <f t="shared" si="5"/>
         <v>3.6000000000000085</v>
       </c>
       <c r="AU8">
-        <f>100-SUM(AU4:AU7)</f>
+        <f t="shared" si="5"/>
         <v>7.0999999999999943</v>
       </c>
       <c r="AV8">
-        <f>100-SUM(AV4:AV7)</f>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="AW8">
-        <f>100-SUM(AW4:AW7)</f>
+        <f t="shared" si="5"/>
         <v>9.0999999999999943</v>
       </c>
       <c r="AX8">
-        <f>100-SUM(AX4:AX7)</f>
+        <f t="shared" si="5"/>
         <v>10.699999999999989</v>
       </c>
       <c r="AY8">
-        <f>100-SUM(AY4:AY7)</f>
+        <f t="shared" si="5"/>
         <v>6.5999999999999943</v>
       </c>
       <c r="AZ8">
-        <f>100-SUM(AZ4:AZ7)</f>
+        <f t="shared" si="5"/>
         <v>5.7000000000000028</v>
       </c>
       <c r="BA8">
-        <f>100-SUM(BA4:BA7)</f>
+        <f t="shared" si="5"/>
         <v>24.299999999999997</v>
       </c>
       <c r="BB8">
-        <f>100-SUM(BB4:BB7)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BC8">
-        <f>100-SUM(BC4:BC7)</f>
+        <f t="shared" si="5"/>
         <v>5.1000000000000085</v>
       </c>
       <c r="BD8">
-        <f>100-SUM(BD4:BD7)</f>
+        <f t="shared" si="5"/>
         <v>5.1000000000000085</v>
       </c>
       <c r="BE8">
-        <f>100-SUM(BE4:BE7)</f>
+        <f t="shared" si="5"/>
         <v>4.5999999999999943</v>
       </c>
       <c r="BF8">
-        <f>100-SUM(BF4:BF7)</f>
+        <f t="shared" si="5"/>
         <v>6.6000000000000085</v>
       </c>
       <c r="BG8">
-        <f>100-SUM(BG4:BG7)</f>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="BH8">
-        <f>100-SUM(BH4:BH7)</f>
+        <f t="shared" si="5"/>
         <v>13.099999999999994</v>
       </c>
       <c r="BI8">
-        <f>100-SUM(BI4:BI7)</f>
+        <f t="shared" si="5"/>
         <v>9.7999999999999972</v>
       </c>
       <c r="BJ8">
-        <f>100-SUM(BJ4:BJ7)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="BK8">
-        <f>100-SUM(BK4:BK7)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BL8">
-        <f>100-SUM(BL4:BL7)</f>
+        <f t="shared" si="5"/>
         <v>20.199999999999989</v>
       </c>
       <c r="BM8">
-        <f>100-SUM(BM4:BM7)</f>
+        <f t="shared" si="5"/>
         <v>3.2999999999999972</v>
       </c>
       <c r="BN8">
-        <f>100-SUM(BN4:BN7)</f>
+        <f t="shared" ref="BN8:CJ8" si="6">100-SUM(BN4:BN7)</f>
         <v>7.460000000000008</v>
       </c>
       <c r="BO8">
-        <f>100-SUM(BO4:BO7)</f>
+        <f t="shared" si="6"/>
         <v>21.199999999999989</v>
       </c>
       <c r="BP8">
-        <f>100-SUM(BP4:BP7)</f>
+        <f t="shared" si="6"/>
         <v>5.8999999999999915</v>
       </c>
       <c r="BQ8">
-        <f>100-SUM(BQ4:BQ7)</f>
+        <f t="shared" si="6"/>
         <v>8.710000000000008</v>
       </c>
       <c r="BR8">
-        <f>100-SUM(BR4:BR7)</f>
+        <f t="shared" si="6"/>
         <v>12.099999999999994</v>
       </c>
       <c r="BS8">
-        <f>100-SUM(BS4:BS7)</f>
+        <f t="shared" si="6"/>
         <v>9.5</v>
       </c>
       <c r="BT8">
-        <f>100-SUM(BT4:BT7)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="BU8">
-        <f>100-SUM(BU4:BU7)</f>
+        <f t="shared" si="6"/>
         <v>19.200000000000003</v>
       </c>
       <c r="BV8">
-        <f>100-SUM(BV4:BV7)</f>
+        <f t="shared" si="6"/>
         <v>6.2000000000000171</v>
       </c>
       <c r="BW8">
-        <f>100-SUM(BW4:BW7)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BX8">
-        <f>100-SUM(BX4:BX7)</f>
+        <f t="shared" si="6"/>
         <v>18.199999999999989</v>
       </c>
       <c r="BY8">
-        <f>100-SUM(BY4:BY7)</f>
+        <f t="shared" si="6"/>
         <v>7.2000000000000171</v>
       </c>
       <c r="BZ8">
-        <f>100-SUM(BZ4:BZ7)</f>
+        <f t="shared" si="6"/>
         <v>23.900000000000006</v>
       </c>
       <c r="CA8">
-        <f>100-SUM(CA4:CA7)</f>
+        <f t="shared" si="6"/>
         <v>7.7000000000000028</v>
       </c>
       <c r="CB8">
-        <f>100-SUM(CB4:CB7)</f>
+        <f t="shared" si="6"/>
         <v>4.3999999999999915</v>
       </c>
       <c r="CC8">
-        <f>100-SUM(CC4:CC7)</f>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
       <c r="CD8">
-        <f>100-SUM(CD4:CD7)</f>
+        <f t="shared" si="6"/>
         <v>7.2999999999999972</v>
       </c>
       <c r="CE8">
-        <f>100-SUM(CE4:CE7)</f>
+        <f t="shared" si="6"/>
         <v>9.1000000000000085</v>
       </c>
       <c r="CF8">
-        <f>100-SUM(CF4:CF7)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CG8">
-        <f>100-SUM(CG4:CG7)</f>
+        <f t="shared" si="6"/>
         <v>14.400000000000006</v>
       </c>
       <c r="CH8">
-        <f>100-SUM(CH4:CH7)</f>
+        <f t="shared" si="6"/>
         <v>4.5999999999999943</v>
       </c>
       <c r="CI8">
-        <f>100-SUM(CI4:CI7)</f>
+        <f t="shared" si="6"/>
         <v>6.9000000000000057</v>
       </c>
       <c r="CJ8">
-        <f>100-SUM(CJ4:CJ7)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CL8">
@@ -10222,81 +10223,81 @@
         <v>1.9899999999999949</v>
       </c>
       <c r="CP8">
-        <f t="shared" ref="CP8:CZ8" si="3">100-SUM(CP4:CP7)</f>
+        <f t="shared" ref="CP8:CZ8" si="7">100-SUM(CP4:CP7)</f>
         <v>8.0299999999999869</v>
       </c>
       <c r="CQ8">
+        <f t="shared" si="7"/>
+        <v>2.5700000000000074</v>
+      </c>
+      <c r="CR8">
+        <f t="shared" si="7"/>
+        <v>4.3999999999999915</v>
+      </c>
+      <c r="CS8">
+        <f t="shared" si="7"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="CT8">
+        <f t="shared" si="7"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="CU8">
+        <f t="shared" si="7"/>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="CV8">
+        <f t="shared" si="7"/>
+        <v>1.2999999999999972</v>
+      </c>
+      <c r="CW8">
+        <f t="shared" si="7"/>
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="CX8">
+        <f t="shared" si="7"/>
+        <v>10.180000000000007</v>
+      </c>
+      <c r="CY8">
+        <f t="shared" si="7"/>
+        <v>3.7599999999999909</v>
+      </c>
+      <c r="CZ8">
+        <f t="shared" si="7"/>
+        <v>9.4099999999999966</v>
+      </c>
+      <c r="DB8">
         <f t="shared" si="3"/>
-        <v>2.5700000000000074</v>
-      </c>
-      <c r="CR8">
-        <f t="shared" si="3"/>
-        <v>4.3999999999999915</v>
-      </c>
-      <c r="CS8">
-        <f t="shared" si="3"/>
-        <v>2.7000000000000028</v>
-      </c>
-      <c r="CT8">
-        <f t="shared" si="3"/>
-        <v>5.4000000000000057</v>
-      </c>
-      <c r="CU8">
-        <f t="shared" si="3"/>
-        <v>1.5999999999999943</v>
-      </c>
-      <c r="CV8">
-        <f t="shared" si="3"/>
-        <v>1.2999999999999972</v>
-      </c>
-      <c r="CW8">
-        <f t="shared" si="3"/>
-        <v>1.6999999999999886</v>
-      </c>
-      <c r="CX8">
-        <f t="shared" si="3"/>
-        <v>10.180000000000007</v>
-      </c>
-      <c r="CY8">
-        <f t="shared" si="3"/>
-        <v>3.7599999999999909</v>
-      </c>
-      <c r="CZ8">
-        <f t="shared" si="3"/>
-        <v>9.4099999999999966</v>
-      </c>
-      <c r="DB8">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="DC8">
-        <f ca="1">OFFSET($B$5,0,DB8,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>34.86</v>
       </c>
       <c r="DD8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44.65</v>
       </c>
       <c r="DE8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.62492828456683858</v>
       </c>
     </row>
     <row r="9" spans="1:112" x14ac:dyDescent="0.25">
       <c r="DB9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="DC9">
-        <f ca="1">OFFSET($B$5,0,DB9,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>29.22</v>
       </c>
       <c r="DD9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>33.58</v>
       </c>
       <c r="DE9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.6823750855578371</v>
       </c>
     </row>
@@ -10611,19 +10612,19 @@
         <v>63.33</v>
       </c>
       <c r="DB10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="DC10">
-        <f ca="1">OFFSET($B$5,0,DB10,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>61.88</v>
       </c>
       <c r="DD10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>33.200000000000003</v>
       </c>
       <c r="DE10">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.34928894634776969</v>
       </c>
     </row>
@@ -10938,37 +10939,37 @@
         <v>35.49</v>
       </c>
       <c r="DB11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="DC11">
-        <f ca="1">OFFSET($B$5,0,DB11,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>61.94</v>
       </c>
       <c r="DD11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>35.200000000000003</v>
       </c>
       <c r="DE11">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35340652244107212</v>
       </c>
     </row>
     <row r="12" spans="1:112" x14ac:dyDescent="0.25">
       <c r="DB12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="DC12">
-        <f ca="1">OFFSET($B$5,0,DB12,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>47.15</v>
       </c>
       <c r="DD12">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>37.549999999999997</v>
       </c>
       <c r="DE12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.43028632025450669</v>
       </c>
     </row>
@@ -10977,427 +10978,427 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <f>(B10-B5)/SUM(B6:B8)</f>
+        <f t="shared" ref="B13:AG13" si="8">(B10-B5)/SUM(B6:B8)</f>
         <v>0.82388576373864109</v>
       </c>
       <c r="C13">
-        <f>(C10-C5)/SUM(C6:C8)</f>
+        <f t="shared" si="8"/>
         <v>0.78997514498757271</v>
       </c>
       <c r="D13">
-        <f>(D10-D5)/SUM(D6:D8)</f>
+        <f t="shared" si="8"/>
         <v>0.6315034086831719</v>
       </c>
       <c r="E13">
-        <f>(E10-E5)/SUM(E6:E8)</f>
+        <f t="shared" si="8"/>
         <v>0.78608100399315428</v>
       </c>
       <c r="F13">
-        <f>(F10-F5)/SUM(F6:F8)</f>
+        <f t="shared" si="8"/>
         <v>0.80774962742175882</v>
       </c>
       <c r="G13">
-        <f>(G10-G5)/SUM(G6:G8)</f>
+        <f t="shared" si="8"/>
         <v>0.74396306818181834</v>
       </c>
       <c r="H13">
-        <f>(H10-H5)/SUM(H6:H8)</f>
+        <f t="shared" si="8"/>
         <v>0.73447772096420738</v>
       </c>
       <c r="I13">
-        <f>(I10-I5)/SUM(I6:I8)</f>
+        <f t="shared" si="8"/>
         <v>0.66198704103671679</v>
       </c>
       <c r="J13">
-        <f>(J10-J5)/SUM(J6:J8)</f>
+        <f t="shared" si="8"/>
         <v>0.74728682170542482</v>
       </c>
       <c r="K13">
-        <f>(K10-K5)/SUM(K6:K8)</f>
+        <f t="shared" si="8"/>
         <v>0.84000000000000019</v>
       </c>
       <c r="L13">
-        <f>(L10-L5)/SUM(L6:L8)</f>
+        <f t="shared" si="8"/>
         <v>0.84398699891657591</v>
       </c>
       <c r="M13">
-        <f>(M10-M5)/SUM(M6:M8)</f>
+        <f t="shared" si="8"/>
         <v>0.62382445141065845</v>
       </c>
       <c r="N13">
-        <f>(N10-N5)/SUM(N6:N8)</f>
+        <f t="shared" si="8"/>
         <v>0.42510121457489886</v>
       </c>
       <c r="O13">
-        <f>(O10-O5)/SUM(O6:O8)</f>
+        <f t="shared" si="8"/>
         <v>0.82198952879581189</v>
       </c>
       <c r="P13">
-        <f>(P10-P5)/SUM(P6:P8)</f>
+        <f t="shared" si="8"/>
         <v>0.81041588609966297</v>
       </c>
       <c r="Q13">
-        <f>(Q10-Q5)/SUM(Q6:Q8)</f>
+        <f t="shared" si="8"/>
         <v>0.66325276526013943</v>
       </c>
       <c r="R13">
-        <f>(R10-R5)/SUM(R6:R8)</f>
+        <f t="shared" si="8"/>
         <v>0.68800813008130102</v>
       </c>
       <c r="S13">
-        <f>(S10-S5)/SUM(S6:S8)</f>
+        <f t="shared" si="8"/>
         <v>0.64484451718494284</v>
       </c>
       <c r="T13">
-        <f>(T10-T5)/SUM(T6:T8)</f>
+        <f t="shared" si="8"/>
         <v>0.57259953161592525</v>
       </c>
       <c r="U13">
-        <f>(U10-U5)/SUM(U6:U8)</f>
+        <f t="shared" si="8"/>
         <v>0.56819054936611602</v>
       </c>
       <c r="V13">
-        <f>(V10-V5)/SUM(V6:V8)</f>
+        <f t="shared" si="8"/>
         <v>0.64043148222133472</v>
       </c>
       <c r="W13">
-        <f>(W10-W5)/SUM(W6:W8)</f>
+        <f t="shared" si="8"/>
         <v>0.71929203539823006</v>
       </c>
       <c r="X13">
-        <f>(X10-X5)/SUM(X6:X8)</f>
+        <f t="shared" si="8"/>
         <v>0.70980926430517699</v>
       </c>
       <c r="Y13">
-        <f>(Y10-Y5)/SUM(Y6:Y8)</f>
+        <f t="shared" si="8"/>
         <v>0.67028985507246408</v>
       </c>
       <c r="Z13">
-        <f>(Z10-Z5)/SUM(Z6:Z8)</f>
+        <f t="shared" si="8"/>
         <v>0.53333333333333299</v>
       </c>
       <c r="AA13">
-        <f>(AA10-AA5)/SUM(AA6:AA8)</f>
+        <f t="shared" si="8"/>
         <v>1.0105820105820098</v>
       </c>
       <c r="AB13">
-        <f>(AB10-AB5)/SUM(AB6:AB8)</f>
+        <f t="shared" si="8"/>
         <v>0.59090909090909138</v>
       </c>
       <c r="AC13">
-        <f>(AC10-AC5)/SUM(AC6:AC8)</f>
+        <f t="shared" si="8"/>
         <v>0.75177304964539049</v>
       </c>
       <c r="AD13">
-        <f>(AD10-AD5)/SUM(AD6:AD8)</f>
+        <f t="shared" si="8"/>
         <v>0.72289156626506168</v>
       </c>
       <c r="AE13">
-        <f>(AE10-AE5)/SUM(AE6:AE8)</f>
+        <f t="shared" si="8"/>
         <v>0.61946902654867253</v>
       </c>
       <c r="AF13">
-        <f>(AF10-AF5)/SUM(AF6:AF8)</f>
+        <f t="shared" si="8"/>
         <v>0.61090909090909096</v>
       </c>
       <c r="AG13">
-        <f>(AG10-AG5)/SUM(AG6:AG8)</f>
+        <f t="shared" si="8"/>
         <v>0.62162162162162105</v>
       </c>
       <c r="AH13">
-        <f>(AH10-AH5)/SUM(AH6:AH8)</f>
+        <f t="shared" ref="AH13:BM13" si="9">(AH10-AH5)/SUM(AH6:AH8)</f>
         <v>0.57232704402515711</v>
       </c>
       <c r="AI13">
-        <f>(AI10-AI5)/SUM(AI6:AI8)</f>
+        <f t="shared" si="9"/>
         <v>0.55849056603773584</v>
       </c>
       <c r="AJ13">
-        <f>(AJ10-AJ5)/SUM(AJ6:AJ8)</f>
+        <f t="shared" si="9"/>
         <v>0.52866242038216582</v>
       </c>
       <c r="AK13">
-        <f>(AK10-AK5)/SUM(AK6:AK8)</f>
+        <f t="shared" si="9"/>
         <v>0.61904761904761907</v>
       </c>
       <c r="AL13">
-        <f>(AL10-AL5)/SUM(AL6:AL8)</f>
+        <f t="shared" si="9"/>
         <v>0.64978902953586504</v>
       </c>
       <c r="AM13">
-        <f>(AM10-AM5)/SUM(AM6:AM8)</f>
+        <f t="shared" si="9"/>
         <v>0.79166666666666652</v>
       </c>
       <c r="AN13">
-        <f>(AN10-AN5)/SUM(AN6:AN8)</f>
+        <f t="shared" si="9"/>
         <v>0.60087719298245601</v>
       </c>
       <c r="AO13">
-        <f>(AO10-AO5)/SUM(AO6:AO8)</f>
+        <f t="shared" si="9"/>
         <v>0.82222222222222241</v>
       </c>
       <c r="AP13">
-        <f>(AP10-AP5)/SUM(AP6:AP8)</f>
+        <f t="shared" si="9"/>
         <v>0.63703703703703651</v>
       </c>
       <c r="AQ13">
-        <f>(AQ10-AQ5)/SUM(AQ6:AQ8)</f>
+        <f t="shared" si="9"/>
         <v>0.66829268292682931</v>
       </c>
       <c r="AR13">
-        <f>(AR10-AR5)/SUM(AR6:AR8)</f>
+        <f t="shared" si="9"/>
         <v>0.69921874999999989</v>
       </c>
       <c r="AS13">
-        <f>(AS10-AS5)/SUM(AS6:AS8)</f>
+        <f t="shared" si="9"/>
         <v>0.8345864661654141</v>
       </c>
       <c r="AT13">
-        <f>(AT10-AT5)/SUM(AT6:AT8)</f>
+        <f t="shared" si="9"/>
         <v>0.83333333333333293</v>
       </c>
       <c r="AU13">
-        <f>(AU10-AU5)/SUM(AU6:AU8)</f>
+        <f t="shared" si="9"/>
         <v>0.598086124401914</v>
       </c>
       <c r="AV13">
-        <f>(AV10-AV5)/SUM(AV6:AV8)</f>
+        <f t="shared" si="9"/>
         <v>0.63800904977375572</v>
       </c>
       <c r="AW13">
-        <f>(AW10-AW5)/SUM(AW6:AW8)</f>
+        <f t="shared" si="9"/>
         <v>0.67845659163987149</v>
       </c>
       <c r="AX13">
-        <f>(AX10-AX5)/SUM(AX6:AX8)</f>
+        <f t="shared" si="9"/>
         <v>0.70046082949308774</v>
       </c>
       <c r="AY13">
-        <f>(AY10-AY5)/SUM(AY6:AY8)</f>
+        <f t="shared" si="9"/>
         <v>0.8315789473684212</v>
       </c>
       <c r="AZ13">
-        <f>(AZ10-AZ5)/SUM(AZ6:AZ8)</f>
+        <f t="shared" si="9"/>
         <v>0.6405228758169933</v>
       </c>
       <c r="BA13">
-        <f>(BA10-BA5)/SUM(BA6:BA8)</f>
+        <f t="shared" si="9"/>
         <v>0.57908847184986589</v>
       </c>
       <c r="BB13">
-        <f>(BB10-BB5)/SUM(BB6:BB8)</f>
+        <f t="shared" si="9"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="BC13">
-        <f>(BC10-BC5)/SUM(BC6:BC8)</f>
+        <f t="shared" si="9"/>
         <v>0.71957671957671887</v>
       </c>
       <c r="BD13">
-        <f>(BD10-BD5)/SUM(BD6:BD8)</f>
+        <f t="shared" si="9"/>
         <v>0.74038461538461509</v>
       </c>
       <c r="BE13">
-        <f>(BE10-BE5)/SUM(BE6:BE8)</f>
+        <f t="shared" si="9"/>
         <v>0.79629629629629639</v>
       </c>
       <c r="BF13">
-        <f>(BF10-BF5)/SUM(BF6:BF8)</f>
+        <f t="shared" si="9"/>
         <v>0.67289719626168187</v>
       </c>
       <c r="BG13">
-        <f>(BG10-BG5)/SUM(BG6:BG8)</f>
+        <f t="shared" si="9"/>
         <v>0.67540983606557381</v>
       </c>
       <c r="BH13">
-        <f>(BH10-BH5)/SUM(BH6:BH8)</f>
+        <f t="shared" si="9"/>
         <v>0.81250000000000011</v>
       </c>
       <c r="BI13">
-        <f>(BI10-BI5)/SUM(BI6:BI8)</f>
+        <f t="shared" si="9"/>
         <v>0.75185185185185199</v>
       </c>
       <c r="BJ13">
-        <f>(BJ10-BJ5)/SUM(BJ6:BJ8)</f>
+        <f t="shared" si="9"/>
         <v>0.8544600938967134</v>
       </c>
       <c r="BK13">
-        <f>(BK10-BK5)/SUM(BK6:BK8)</f>
+        <f t="shared" si="9"/>
         <v>0.91666666666666674</v>
       </c>
       <c r="BL13">
-        <f>(BL10-BL5)/SUM(BL6:BL8)</f>
+        <f t="shared" si="9"/>
         <v>0.81460674157303403</v>
       </c>
       <c r="BM13">
-        <f>(BM10-BM5)/SUM(BM6:BM8)</f>
+        <f t="shared" si="9"/>
         <v>0.85806451612903223</v>
       </c>
       <c r="BN13">
-        <f>(BN10-BN5)/SUM(BN6:BN8)</f>
+        <f t="shared" ref="BN13:CJ13" si="10">(BN10-BN5)/SUM(BN6:BN8)</f>
         <v>0.6903388608507568</v>
       </c>
       <c r="BO13">
-        <f>(BO10-BO5)/SUM(BO6:BO8)</f>
+        <f t="shared" si="10"/>
         <v>0.5814452659193895</v>
       </c>
       <c r="BP13">
-        <f>(BP10-BP5)/SUM(BP6:BP8)</f>
+        <f t="shared" si="10"/>
         <v>0.72556390977443619</v>
       </c>
       <c r="BQ13">
-        <f>(BQ10-BQ5)/SUM(BQ6:BQ8)</f>
+        <f t="shared" si="10"/>
         <v>0.65822784810126567</v>
       </c>
       <c r="BR13">
-        <f>(BR10-BR5)/SUM(BR6:BR8)</f>
+        <f t="shared" si="10"/>
         <v>0.76397515527950322</v>
       </c>
       <c r="BS13">
-        <f>(BS10-BS5)/SUM(BS6:BS8)</f>
+        <f t="shared" si="10"/>
         <v>0.64479166666666676</v>
       </c>
       <c r="BT13">
-        <f>(BT10-BT5)/SUM(BT6:BT8)</f>
+        <f t="shared" si="10"/>
         <v>0.83715012722646331</v>
       </c>
       <c r="BU13">
-        <f>(BU10-BU5)/SUM(BU6:BU8)</f>
+        <f t="shared" si="10"/>
         <v>0.63496932515337423</v>
       </c>
       <c r="BV13">
-        <f>(BV10-BV5)/SUM(BV6:BV8)</f>
+        <f t="shared" si="10"/>
         <v>0.677966101694915</v>
       </c>
       <c r="BW13">
-        <f>(BW10-BW5)/SUM(BW6:BW8)</f>
+        <f t="shared" si="10"/>
         <v>0.56976744186046491</v>
       </c>
       <c r="BX13">
-        <f>(BX10-BX5)/SUM(BX6:BX8)</f>
+        <f t="shared" si="10"/>
         <v>0.14925373134328365</v>
       </c>
       <c r="BY13">
-        <f>(BY10-BY5)/SUM(BY6:BY8)</f>
+        <f t="shared" si="10"/>
         <v>0.64267352185089932</v>
       </c>
       <c r="BZ13">
-        <f>(BZ10-BZ5)/SUM(BZ6:BZ8)</f>
+        <f t="shared" si="10"/>
         <v>0.60043956043956048</v>
       </c>
       <c r="CA13">
-        <f>(CA10-CA5)/SUM(CA6:CA8)</f>
+        <f t="shared" si="10"/>
         <v>0.57241379310344831</v>
       </c>
       <c r="CB13">
-        <f>(CB10-CB5)/SUM(CB6:CB8)</f>
+        <f t="shared" si="10"/>
         <v>0.60079051383399218</v>
       </c>
       <c r="CC13">
-        <f>(CC10-CC5)/SUM(CC6:CC8)</f>
+        <f t="shared" si="10"/>
         <v>0.68285714285714294</v>
       </c>
       <c r="CD13">
-        <f>(CD10-CD5)/SUM(CD6:CD8)</f>
+        <f t="shared" si="10"/>
         <v>0.64086687306501544</v>
       </c>
       <c r="CE13">
-        <f>(CE10-CE5)/SUM(CE6:CE8)</f>
+        <f t="shared" si="10"/>
         <v>0.5479452054794518</v>
       </c>
       <c r="CF13">
-        <f>(CF10-CF5)/SUM(CF6:CF8)</f>
+        <f t="shared" si="10"/>
         <v>0.90995260663507116</v>
       </c>
       <c r="CG13">
-        <f>(CG10-CG5)/SUM(CG6:CG8)</f>
+        <f t="shared" si="10"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="CH13">
-        <f>(CH10-CH5)/SUM(CH6:CH8)</f>
+        <f t="shared" si="10"/>
         <v>0.83673469387755139</v>
       </c>
       <c r="CI13">
-        <f>(CI10-CI5)/SUM(CI6:CI8)</f>
+        <f t="shared" si="10"/>
         <v>0.76356589147286791</v>
       </c>
       <c r="CJ13">
-        <f>(CJ10-CJ5)/SUM(CJ6:CJ8)</f>
+        <f t="shared" si="10"/>
         <v>0.84978540772532185</v>
       </c>
       <c r="CL13">
-        <f>(CL10-CL5)/SUM(CL6:CL8)</f>
+        <f t="shared" ref="CL13:CX13" si="11">(CL10-CL5)/SUM(CL6:CL8)</f>
         <v>0.55438596491228043</v>
       </c>
       <c r="CM13">
-        <f>(CM10-CM5)/SUM(CM6:CM8)</f>
+        <f t="shared" si="11"/>
         <v>0.7312830071450761</v>
       </c>
       <c r="CN13">
-        <f>(CN10-CN5)/SUM(CN6:CN8)</f>
+        <f t="shared" si="11"/>
         <v>0.98334149926506564</v>
       </c>
       <c r="CO13">
-        <f>(CO10-CO5)/SUM(CO6:CO8)</f>
+        <f t="shared" si="11"/>
         <v>0.98001427551748765</v>
       </c>
       <c r="CP13">
-        <f>(CP10-CP5)/SUM(CP6:CP8)</f>
+        <f t="shared" si="11"/>
         <v>0.7678328032712407</v>
       </c>
       <c r="CQ13">
-        <f>(CQ10-CQ5)/SUM(CQ6:CQ8)</f>
+        <f t="shared" si="11"/>
         <v>0.82495101241018898</v>
       </c>
       <c r="CR13">
-        <f>(CR10-CR5)/SUM(CR6:CR8)</f>
+        <f t="shared" si="11"/>
         <v>0.98571428571428621</v>
       </c>
       <c r="CS13">
-        <f>(CS10-CS5)/SUM(CS6:CS8)</f>
+        <f t="shared" si="11"/>
         <v>0.92307692307692324</v>
       </c>
       <c r="CT13">
-        <f>(CT10-CT5)/SUM(CT6:CT8)</f>
+        <f t="shared" si="11"/>
         <v>0.69718309859154892</v>
       </c>
       <c r="CU13">
-        <f>(CU10-CU5)/SUM(CU6:CU8)</f>
+        <f t="shared" si="11"/>
         <v>1.3046875000000009</v>
       </c>
       <c r="CV13">
-        <f>(CV10-CV5)/SUM(CV6:CV8)</f>
+        <f t="shared" si="11"/>
         <v>1.2577319587628872</v>
       </c>
       <c r="CW13">
-        <f>(CW10-CW5)/SUM(CW6:CW8)</f>
+        <f t="shared" si="11"/>
         <v>0.92424242424242453</v>
       </c>
       <c r="CX13">
-        <f>(CX10-CX5)/SUM(CX6:CX8)</f>
+        <f t="shared" si="11"/>
         <v>0.76610738255033539</v>
       </c>
       <c r="CY13">
-        <f t="shared" ref="CY13:CZ13" si="4">(CY10-CY5)/SUM(CY6:CY8)</f>
+        <f>(CY10-CY5)/SUM(CY6:CY8)</f>
         <v>0.76455787203450765</v>
       </c>
       <c r="CZ13">
-        <f t="shared" si="4"/>
+        <f>(CZ10-CZ5)/SUM(CZ6:CZ8)</f>
         <v>0.70880861850443599</v>
       </c>
       <c r="DB13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="DC13">
-        <f ca="1">OFFSET($B$5,0,DB13,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>32.700000000000003</v>
       </c>
       <c r="DD13">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>36.700000000000003</v>
       </c>
       <c r="DE13">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.32966360856269133</v>
       </c>
     </row>
@@ -11406,427 +11407,427 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <f>B7*0.8+B8*0.5</f>
+        <f t="shared" ref="B14:AG14" si="12">B7*0.8+B8*0.5</f>
         <v>6.7730000000000015</v>
       </c>
       <c r="C14">
-        <f>C7*0.8+C8*0.5</f>
+        <f t="shared" si="12"/>
         <v>7.2709999999999972</v>
       </c>
       <c r="D14">
-        <f>D7*0.8+D8*0.5</f>
+        <f t="shared" si="12"/>
         <v>6.17</v>
       </c>
       <c r="E14">
-        <f>E7*0.8+E8*0.5</f>
+        <f t="shared" si="12"/>
         <v>7.299000000000003</v>
       </c>
       <c r="F14">
-        <f>F7*0.8+F8*0.5</f>
+        <f t="shared" si="12"/>
         <v>6.8489999999999966</v>
       </c>
       <c r="G14">
-        <f>G7*0.8+G8*0.5</f>
+        <f t="shared" si="12"/>
         <v>10.027999999999999</v>
       </c>
       <c r="H14">
-        <f>H7*0.8+H8*0.5</f>
+        <f t="shared" si="12"/>
         <v>9.3450000000000024</v>
       </c>
       <c r="I14">
-        <f>I7*0.8+I8*0.5</f>
+        <f t="shared" si="12"/>
         <v>6.631000000000002</v>
       </c>
       <c r="J14">
-        <f>J7*0.8+J8*0.5</f>
+        <f t="shared" si="12"/>
         <v>3.4560000000000084</v>
       </c>
       <c r="K14">
-        <f>K7*0.8+K8*0.5</f>
+        <f t="shared" si="12"/>
         <v>3.4799999999999982</v>
       </c>
       <c r="L14">
-        <f>L7*0.8+L8*0.5</f>
+        <f t="shared" si="12"/>
         <v>3.7720000000000038</v>
       </c>
       <c r="M14">
-        <f>M7*0.8+M8*0.5</f>
+        <f t="shared" si="12"/>
         <v>8.0199999999999978</v>
       </c>
       <c r="N14">
-        <f>N7*0.8+N8*0.5</f>
+        <f t="shared" si="12"/>
         <v>4.9999999999997158E-2</v>
       </c>
       <c r="O14">
-        <f>O7*0.8+O8*0.5</f>
+        <f t="shared" si="12"/>
         <v>0.59999999999999432</v>
       </c>
       <c r="P14">
-        <f>P7*0.8+P8*0.5</f>
+        <f t="shared" si="12"/>
         <v>4.586999999999998</v>
       </c>
       <c r="Q14">
-        <f>Q7*0.8+Q8*0.5</f>
+        <f t="shared" si="12"/>
         <v>5.6079999999999952</v>
       </c>
       <c r="R14">
-        <f>R7*0.8+R8*0.5</f>
+        <f t="shared" si="12"/>
         <v>4.7479999999999958</v>
       </c>
       <c r="S14">
-        <f>S7*0.8+S8*0.5</f>
+        <f t="shared" si="12"/>
         <v>8.7759999999999998</v>
       </c>
       <c r="T14">
-        <f>T7*0.8+T8*0.5</f>
+        <f t="shared" si="12"/>
         <v>10.794999999999993</v>
       </c>
       <c r="U14">
-        <f>U7*0.8+U8*0.5</f>
+        <f t="shared" si="12"/>
         <v>9.4259999999999984</v>
       </c>
       <c r="V14">
-        <f>V7*0.8+V8*0.5</f>
+        <f t="shared" si="12"/>
         <v>8.98</v>
       </c>
       <c r="W14">
-        <f>W7*0.8+W8*0.5</f>
+        <f t="shared" si="12"/>
         <v>9.615000000000002</v>
       </c>
       <c r="X14">
-        <f>X7*0.8+X8*0.5</f>
+        <f t="shared" si="12"/>
         <v>8.1610000000000014</v>
       </c>
       <c r="Y14">
-        <f>Y7*0.8+Y8*0.5</f>
+        <f t="shared" si="12"/>
         <v>9.3599999999999941</v>
       </c>
       <c r="Z14">
-        <f>Z7*0.8+Z8*0.5</f>
+        <f t="shared" si="12"/>
         <v>2.9800000000000044</v>
       </c>
       <c r="AA14">
-        <f>AA7*0.8+AA8*0.5</f>
+        <f t="shared" si="12"/>
         <v>2.8250000000000064</v>
       </c>
       <c r="AB14">
-        <f>AB7*0.8+AB8*0.5</f>
+        <f t="shared" si="12"/>
         <v>1.9499999999999957</v>
       </c>
       <c r="AC14">
-        <f>AC7*0.8+AC8*0.5</f>
+        <f t="shared" si="12"/>
         <v>6.8699999999999948</v>
       </c>
       <c r="AD14">
-        <f>AD7*0.8+AD8*0.5</f>
+        <f t="shared" si="12"/>
         <v>3.4399999999999973</v>
       </c>
       <c r="AE14">
-        <f>AE7*0.8+AE8*0.5</f>
+        <f t="shared" si="12"/>
         <v>3.8800000000000003</v>
       </c>
       <c r="AF14">
-        <f>AF7*0.8+AF8*0.5</f>
+        <f t="shared" si="12"/>
         <v>11.940000000000005</v>
       </c>
       <c r="AG14">
-        <f>AG7*0.8+AG8*0.5</f>
+        <f t="shared" si="12"/>
         <v>1.8300000000000045</v>
       </c>
       <c r="AH14">
-        <f>AH7*0.8+AH8*0.5</f>
+        <f t="shared" ref="AH14:BM14" si="13">AH7*0.8+AH8*0.5</f>
         <v>3.920000000000003</v>
       </c>
       <c r="AI14">
-        <f>AI7*0.8+AI8*0.5</f>
+        <f t="shared" si="13"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="AJ14">
-        <f>AJ7*0.8+AJ8*0.5</f>
+        <f t="shared" si="13"/>
         <v>3.0199999999999942</v>
       </c>
       <c r="AK14">
-        <f>AK7*0.8+AK8*0.5</f>
+        <f t="shared" si="13"/>
         <v>7.5999999999999988</v>
       </c>
       <c r="AL14">
-        <f>AL7*0.8+AL8*0.5</f>
+        <f t="shared" si="13"/>
         <v>9.8600000000000012</v>
       </c>
       <c r="AM14">
-        <f>AM7*0.8+AM8*0.5</f>
+        <f t="shared" si="13"/>
         <v>3.6099999999999977</v>
       </c>
       <c r="AN14">
-        <f>AN7*0.8+AN8*0.5</f>
+        <f t="shared" si="13"/>
         <v>10.640000000000004</v>
       </c>
       <c r="AO14">
-        <f>AO7*0.8+AO8*0.5</f>
+        <f t="shared" si="13"/>
         <v>3.040000000000004</v>
       </c>
       <c r="AP14">
-        <f>AP7*0.8+AP8*0.5</f>
+        <f t="shared" si="13"/>
         <v>2.8100000000000014</v>
       </c>
       <c r="AQ14">
-        <f>AQ7*0.8+AQ8*0.5</f>
+        <f t="shared" si="13"/>
         <v>3.5100000000000016</v>
       </c>
       <c r="AR14">
-        <f>AR7*0.8+AR8*0.5</f>
+        <f t="shared" si="13"/>
         <v>9.14</v>
       </c>
       <c r="AS14">
-        <f>AS7*0.8+AS8*0.5</f>
+        <f t="shared" si="13"/>
         <v>5.5299999999999994</v>
       </c>
       <c r="AT14">
-        <f>AT7*0.8+AT8*0.5</f>
+        <f t="shared" si="13"/>
         <v>4.680000000000005</v>
       </c>
       <c r="AU14">
-        <f>AU7*0.8+AU8*0.5</f>
+        <f t="shared" si="13"/>
         <v>5.0699999999999967</v>
       </c>
       <c r="AV14">
-        <f>AV7*0.8+AV8*0.5</f>
+        <f t="shared" si="13"/>
         <v>2.25</v>
       </c>
       <c r="AW14">
-        <f>AW7*0.8+AW8*0.5</f>
+        <f t="shared" si="13"/>
         <v>8.7099999999999973</v>
       </c>
       <c r="AX14">
-        <f>AX7*0.8+AX8*0.5</f>
+        <f t="shared" si="13"/>
         <v>6.7899999999999947</v>
       </c>
       <c r="AY14">
-        <f>AY7*0.8+AY8*0.5</f>
+        <f t="shared" si="13"/>
         <v>3.2999999999999972</v>
       </c>
       <c r="AZ14">
-        <f>AZ7*0.8+AZ8*0.5</f>
+        <f t="shared" si="13"/>
         <v>9.0900000000000016</v>
       </c>
       <c r="BA14">
-        <f>BA7*0.8+BA8*0.5</f>
+        <f t="shared" si="13"/>
         <v>14.629999999999999</v>
       </c>
       <c r="BB14">
-        <f>BB7*0.8+BB8*0.5</f>
+        <f t="shared" si="13"/>
         <v>5.76</v>
       </c>
       <c r="BC14">
-        <f>BC7*0.8+BC8*0.5</f>
+        <f t="shared" si="13"/>
         <v>4.5500000000000043</v>
       </c>
       <c r="BD14">
-        <f>BD7*0.8+BD8*0.5</f>
+        <f t="shared" si="13"/>
         <v>6.3900000000000041</v>
       </c>
       <c r="BE14">
-        <f>BE7*0.8+BE8*0.5</f>
+        <f t="shared" si="13"/>
         <v>6.6199999999999974</v>
       </c>
       <c r="BF14">
-        <f>BF7*0.8+BF8*0.5</f>
+        <f t="shared" si="13"/>
         <v>5.1400000000000041</v>
       </c>
       <c r="BG14">
-        <f>BG7*0.8+BG8*0.5</f>
+        <f t="shared" si="13"/>
         <v>4.6900000000000004</v>
       </c>
       <c r="BH14">
-        <f>BH7*0.8+BH8*0.5</f>
+        <f t="shared" si="13"/>
         <v>6.5499999999999972</v>
       </c>
       <c r="BI14">
-        <f>BI7*0.8+BI8*0.5</f>
+        <f t="shared" si="13"/>
         <v>4.8999999999999986</v>
       </c>
       <c r="BJ14">
-        <f>BJ7*0.8+BJ8*0.5</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="BK14">
-        <f>BK7*0.8+BK8*0.5</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BL14">
-        <f>BL7*0.8+BL8*0.5</f>
+        <f t="shared" si="13"/>
         <v>10.099999999999994</v>
       </c>
       <c r="BM14">
-        <f>BM7*0.8+BM8*0.5</f>
+        <f t="shared" si="13"/>
         <v>1.6499999999999986</v>
       </c>
       <c r="BN14">
-        <f>BN7*0.8+BN8*0.5</f>
+        <f t="shared" ref="BN14:CJ14" si="14">BN7*0.8+BN8*0.5</f>
         <v>9.0660000000000043</v>
       </c>
       <c r="BO14">
-        <f>BO7*0.8+BO8*0.5</f>
+        <f t="shared" si="14"/>
         <v>15.063999999999995</v>
       </c>
       <c r="BP14">
-        <f>BP7*0.8+BP8*0.5</f>
+        <f t="shared" si="14"/>
         <v>6.8699999999999957</v>
       </c>
       <c r="BQ14">
-        <f>BQ7*0.8+BQ8*0.5</f>
+        <f t="shared" si="14"/>
         <v>9.1070000000000046</v>
       </c>
       <c r="BR14">
-        <f>BR7*0.8+BR8*0.5</f>
+        <f t="shared" si="14"/>
         <v>6.0499999999999972</v>
       </c>
       <c r="BS14">
-        <f>BS7*0.8+BS8*0.5</f>
+        <f t="shared" si="14"/>
         <v>8.4779999999999998</v>
       </c>
       <c r="BT14">
-        <f>BT7*0.8+BT8*0.5</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="BU14">
-        <f>BU7*0.8+BU8*0.5</f>
+        <f t="shared" si="14"/>
         <v>11.040000000000001</v>
       </c>
       <c r="BV14">
-        <f>BV7*0.8+BV8*0.5</f>
+        <f t="shared" si="14"/>
         <v>8.3800000000000097</v>
       </c>
       <c r="BW14">
-        <f>BW7*0.8+BW8*0.5</f>
+        <f t="shared" si="14"/>
         <v>4.24</v>
       </c>
       <c r="BX14">
-        <f>BX7*0.8+BX8*0.5</f>
+        <f t="shared" si="14"/>
         <v>11.419999999999995</v>
       </c>
       <c r="BY14">
-        <f>BY7*0.8+BY8*0.5</f>
+        <f t="shared" si="14"/>
         <v>12.080000000000009</v>
       </c>
       <c r="BZ14">
-        <f>BZ7*0.8+BZ8*0.5</f>
+        <f t="shared" si="14"/>
         <v>12.990000000000002</v>
       </c>
       <c r="CA14">
-        <f>CA7*0.8+CA8*0.5</f>
+        <f t="shared" si="14"/>
         <v>5.4500000000000011</v>
       </c>
       <c r="CB14">
-        <f>CB7*0.8+CB8*0.5</f>
+        <f t="shared" si="14"/>
         <v>6.0399999999999956</v>
       </c>
       <c r="CC14">
-        <f>CC7*0.8+CC8*0.5</f>
+        <f t="shared" si="14"/>
         <v>11.790000000000001</v>
       </c>
       <c r="CD14">
-        <f>CD7*0.8+CD8*0.5</f>
+        <f t="shared" si="14"/>
         <v>10.93</v>
       </c>
       <c r="CE14">
-        <f>CE7*0.8+CE8*0.5</f>
+        <f t="shared" si="14"/>
         <v>7.1100000000000048</v>
       </c>
       <c r="CF14">
-        <f>CF7*0.8+CF8*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CG14">
-        <f>CG7*0.8+CG8*0.5</f>
+        <f t="shared" si="14"/>
         <v>7.2000000000000028</v>
       </c>
       <c r="CH14">
-        <f>CH7*0.8+CH8*0.5</f>
+        <f t="shared" si="14"/>
         <v>2.2999999999999972</v>
       </c>
       <c r="CI14">
-        <f>CI7*0.8+CI8*0.5</f>
+        <f t="shared" si="14"/>
         <v>3.4500000000000028</v>
       </c>
       <c r="CJ14">
-        <f>CJ7*0.8+CJ8*0.5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="CL14">
-        <f>CL7*0.8+CL8*0.5</f>
+        <f t="shared" ref="CL14:CX14" si="15">CL7*0.8+CL8*0.5</f>
         <v>12.430000000000005</v>
       </c>
       <c r="CM14">
-        <f>CM7*0.8+CM8*0.5</f>
+        <f t="shared" si="15"/>
         <v>9.4740000000000038</v>
       </c>
       <c r="CN14">
-        <f>CN7*0.8+CN8*0.5</f>
+        <f t="shared" si="15"/>
         <v>6.4560000000000057</v>
       </c>
       <c r="CO14">
-        <f>CO7*0.8+CO8*0.5</f>
+        <f t="shared" si="15"/>
         <v>3.6589999999999976</v>
       </c>
       <c r="CP14">
-        <f>CP7*0.8+CP8*0.5</f>
+        <f t="shared" si="15"/>
         <v>5.9509999999999934</v>
       </c>
       <c r="CQ14">
-        <f>CQ7*0.8+CQ8*0.5</f>
+        <f t="shared" si="15"/>
         <v>5.4850000000000039</v>
       </c>
       <c r="CR14">
-        <f>CR7*0.8+CR8*0.5</f>
+        <f t="shared" si="15"/>
         <v>6.1199999999999957</v>
       </c>
       <c r="CS14">
-        <f>CS7*0.8+CS8*0.5</f>
+        <f t="shared" si="15"/>
         <v>5.0300000000000011</v>
       </c>
       <c r="CT14">
-        <f>CT7*0.8+CT8*0.5</f>
+        <f t="shared" si="15"/>
         <v>4.3800000000000026</v>
       </c>
       <c r="CU14">
-        <f>CU7*0.8+CU8*0.5</f>
+        <f t="shared" si="15"/>
         <v>2.1599999999999975</v>
       </c>
       <c r="CV14">
-        <f>CV7*0.8+CV8*0.5</f>
+        <f t="shared" si="15"/>
         <v>0.64999999999999858</v>
       </c>
       <c r="CW14">
-        <f>CW7*0.8+CW8*0.5</f>
+        <f t="shared" si="15"/>
         <v>0.84999999999999432</v>
       </c>
       <c r="CX14">
-        <f>CX7*0.8+CX8*0.5</f>
+        <f t="shared" si="15"/>
         <v>7.6820000000000039</v>
       </c>
       <c r="CY14">
-        <f t="shared" ref="CY14:CZ14" si="5">CY7*0.8+CY8*0.5</f>
+        <f>CY7*0.8+CY8*0.5</f>
         <v>5.7999999999999954</v>
       </c>
       <c r="CZ14">
-        <f t="shared" si="5"/>
+        <f>CZ7*0.8+CZ8*0.5</f>
         <v>8.8409999999999975</v>
       </c>
       <c r="DB14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="DC14">
-        <f ca="1">OFFSET($B$5,0,DB14,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35.4</v>
       </c>
       <c r="DD14">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>37.9</v>
       </c>
       <c r="DE14">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.37429378531073448</v>
       </c>
     </row>
@@ -11835,427 +11836,427 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <f>(B11-B14-B6)/B5</f>
+        <f t="shared" ref="B15:AG15" si="16">(B11-B14-B6)/B5</f>
         <v>0.56899536321483768</v>
       </c>
       <c r="C15">
-        <f>(C11-C14-C6)/C5</f>
+        <f t="shared" si="16"/>
         <v>0.70490699166132154</v>
       </c>
       <c r="D15">
-        <f>(D11-D14-D6)/D5</f>
+        <f t="shared" si="16"/>
         <v>0.64172266340867434</v>
       </c>
       <c r="E15">
-        <f>(E11-E14-E6)/E5</f>
+        <f t="shared" si="16"/>
         <v>0.781661297745053</v>
       </c>
       <c r="F15">
-        <f>(F11-F14-F6)/F5</f>
+        <f t="shared" si="16"/>
         <v>0.68920752389762574</v>
       </c>
       <c r="G15">
-        <f>(G11-G14-G6)/G5</f>
+        <f t="shared" si="16"/>
         <v>0.695291020766306</v>
       </c>
       <c r="H15">
-        <f>(H11-H14-H6)/H5</f>
+        <f t="shared" si="16"/>
         <v>0.62492828456683858</v>
       </c>
       <c r="I15">
-        <f>(I11-I14-I6)/I5</f>
+        <f t="shared" si="16"/>
         <v>0.6823750855578371</v>
       </c>
       <c r="J15">
-        <f>(J11-J14-J6)/J5</f>
+        <f t="shared" si="16"/>
         <v>0.34928894634776969</v>
       </c>
       <c r="K15">
-        <f>(K11-K14-K6)/K5</f>
+        <f t="shared" si="16"/>
         <v>0.35340652244107212</v>
       </c>
       <c r="L15">
-        <f>(L11-L14-L6)/L5</f>
+        <f t="shared" si="16"/>
         <v>0.43028632025450669</v>
       </c>
       <c r="M15">
-        <f>(M11-M14-M6)/M5</f>
+        <f t="shared" si="16"/>
         <v>0.32966360856269133</v>
       </c>
       <c r="N15">
-        <f>(N11-N14-N6)/N5</f>
+        <f t="shared" si="16"/>
         <v>0.37429378531073448</v>
       </c>
       <c r="O15">
-        <f>(O11-O14-O6)/O5</f>
+        <f t="shared" si="16"/>
         <v>0.47058823529411775</v>
       </c>
       <c r="P15">
-        <f>(P11-P14-P6)/P5</f>
+        <f t="shared" si="16"/>
         <v>0.28394348105330774</v>
       </c>
       <c r="Q15">
-        <f>(Q11-Q14-Q6)/Q5</f>
+        <f t="shared" si="16"/>
         <v>0.48132094943240467</v>
       </c>
       <c r="R15">
-        <f>(R11-R14-R6)/R5</f>
+        <f t="shared" si="16"/>
         <v>0.54297043979812554</v>
       </c>
       <c r="S15">
-        <f>(S11-S14-S6)/S5</f>
+        <f t="shared" si="16"/>
         <v>0.53956310679611619</v>
       </c>
       <c r="T15">
-        <f>(T11-T14-T6)/T5</f>
+        <f t="shared" si="16"/>
         <v>0.22114707952146406</v>
       </c>
       <c r="U15">
-        <f>(U11-U14-U6)/U5</f>
+        <f t="shared" si="16"/>
         <v>0.17842580645161293</v>
       </c>
       <c r="V15">
-        <f>(V11-V14-V6)/V5</f>
+        <f t="shared" si="16"/>
         <v>0.32105798575788408</v>
       </c>
       <c r="W15">
-        <f>(W11-W14-W6)/W5</f>
+        <f t="shared" si="16"/>
         <v>0.5470446320868515</v>
       </c>
       <c r="X15">
-        <f>(X11-X14-X6)/X5</f>
+        <f t="shared" si="16"/>
         <v>0.43981626708492044</v>
       </c>
       <c r="Y15">
-        <f>(Y11-Y14-Y6)/Y5</f>
+        <f t="shared" si="16"/>
         <v>0.48585858585858599</v>
       </c>
       <c r="Z15">
-        <f>(Z11-Z14-Z6)/Z5</f>
+        <f t="shared" si="16"/>
         <v>0.35813953488372086</v>
       </c>
       <c r="AA15">
-        <f>(AA11-AA14-AA6)/AA5</f>
+        <f t="shared" si="16"/>
         <v>0.58839339040414074</v>
       </c>
       <c r="AB15">
-        <f>(AB11-AB14-AB6)/AB5</f>
+        <f t="shared" si="16"/>
         <v>0.24839743589743607</v>
       </c>
       <c r="AC15">
-        <f>(AC11-AC14-AC6)/AC5</f>
+        <f t="shared" si="16"/>
         <v>0.34622425629290621</v>
       </c>
       <c r="AD15">
-        <f>(AD11-AD14-AD6)/AD5</f>
+        <f t="shared" si="16"/>
         <v>0.26908517350157735</v>
       </c>
       <c r="AE15">
-        <f>(AE11-AE14-AE6)/AE5</f>
+        <f t="shared" si="16"/>
         <v>0.32109589041095898</v>
       </c>
       <c r="AF15">
-        <f>(AF11-AF14-AF6)/AF5</f>
+        <f t="shared" si="16"/>
         <v>0.31019283746556459</v>
       </c>
       <c r="AG15">
-        <f>(AG11-AG14-AG6)/AG5</f>
+        <f t="shared" si="16"/>
         <v>0.34228723404255301</v>
       </c>
       <c r="AH15">
-        <f>(AH11-AH14-AH6)/AH5</f>
+        <f t="shared" ref="AH15:BM15" si="17">(AH11-AH14-AH6)/AH5</f>
         <v>0.26732026143790844</v>
       </c>
       <c r="AI15">
-        <f>(AI11-AI14-AI6)/AI5</f>
+        <f t="shared" si="17"/>
         <v>0.24657534246575352</v>
       </c>
       <c r="AJ15">
-        <f>(AJ11-AJ14-AJ6)/AJ5</f>
+        <f t="shared" si="17"/>
         <v>0.25539906103286392</v>
       </c>
       <c r="AK15">
-        <f>(AK11-AK14-AK6)/AK5</f>
+        <f t="shared" si="17"/>
         <v>0.26199261992619932</v>
       </c>
       <c r="AL15">
-        <f>(AL11-AL14-AL6)/AL5</f>
+        <f t="shared" si="17"/>
         <v>0.27371794871794858</v>
       </c>
       <c r="AM15">
-        <f>(AM11-AM14-AM6)/AM5</f>
+        <f t="shared" si="17"/>
         <v>0.32035763411279233</v>
       </c>
       <c r="AN15">
-        <f>(AN11-AN14-AN6)/AN5</f>
+        <f t="shared" si="17"/>
         <v>8.029739776951654E-2</v>
       </c>
       <c r="AO15">
-        <f>(AO11-AO14-AO6)/AO5</f>
+        <f t="shared" si="17"/>
         <v>0.37198211624441124</v>
       </c>
       <c r="AP15">
-        <f>(AP11-AP14-AP6)/AP5</f>
+        <f t="shared" si="17"/>
         <v>0.29632034632034632</v>
       </c>
       <c r="AQ15">
-        <f>(AQ11-AQ14-AQ6)/AQ5</f>
+        <f t="shared" si="17"/>
         <v>0.30726392251815982</v>
       </c>
       <c r="AR15">
-        <f>(AR11-AR14-AR6)/AR5</f>
+        <f t="shared" si="17"/>
         <v>0.41197604790419168</v>
       </c>
       <c r="AS15">
-        <f>(AS11-AS14-AS6)/AS5</f>
+        <f t="shared" si="17"/>
         <v>0.40490883590462834</v>
       </c>
       <c r="AT15">
-        <f>(AT11-AT14-AT6)/AT5</f>
+        <f t="shared" si="17"/>
         <v>0.45300859598853865</v>
       </c>
       <c r="AU15">
-        <f>(AU11-AU14-AU6)/AU5</f>
+        <f t="shared" si="17"/>
         <v>0.3282500000000001</v>
       </c>
       <c r="AV15">
-        <f>(AV11-AV14-AV6)/AV5</f>
+        <f t="shared" si="17"/>
         <v>0.43982808022922643</v>
       </c>
       <c r="AW15">
-        <f>(AW11-AW14-AW6)/AW5</f>
+        <f t="shared" si="17"/>
         <v>0.49966887417218553</v>
       </c>
       <c r="AX15">
-        <f>(AX11-AX14-AX6)/AX5</f>
+        <f t="shared" si="17"/>
         <v>0.36900452488687785</v>
       </c>
       <c r="AY15">
-        <f>(AY11-AY14-AY6)/AY5</f>
+        <f t="shared" si="17"/>
         <v>0.42507204610951016</v>
       </c>
       <c r="AZ15">
-        <f>(AZ11-AZ14-AZ6)/AZ5</f>
+        <f t="shared" si="17"/>
         <v>0.37248062015503847</v>
       </c>
       <c r="BA15">
-        <f>(BA11-BA14-BA6)/BA5</f>
+        <f t="shared" si="17"/>
         <v>0.18010335917312661</v>
       </c>
       <c r="BB15">
-        <f>(BB11-BB14-BB6)/BB5</f>
+        <f t="shared" si="17"/>
         <v>0.50233766233766231</v>
       </c>
       <c r="BC15">
-        <f>(BC11-BC14-BC6)/BC5</f>
+        <f t="shared" si="17"/>
         <v>0.51659292035398219</v>
       </c>
       <c r="BD15">
-        <f>(BD11-BD14-BD6)/BD5</f>
+        <f t="shared" si="17"/>
         <v>0.41277372262773715</v>
       </c>
       <c r="BE15">
-        <f>(BE11-BE14-BE6)/BE5</f>
+        <f t="shared" si="17"/>
         <v>0.46764705882352958</v>
       </c>
       <c r="BF15">
-        <f>(BF11-BF14-BF6)/BF5</f>
+        <f t="shared" si="17"/>
         <v>0.46833333333333321</v>
       </c>
       <c r="BG15">
-        <f>(BG11-BG14-BG6)/BG5</f>
+        <f t="shared" si="17"/>
         <v>0.49185393258426968</v>
       </c>
       <c r="BH15">
-        <f>(BH11-BH14-BH6)/BH5</f>
+        <f t="shared" si="17"/>
         <v>0.46716417910447755</v>
       </c>
       <c r="BI15">
-        <f>(BI11-BI14-BI6)/BI5</f>
+        <f t="shared" si="17"/>
         <v>0.36792452830188677</v>
       </c>
       <c r="BJ15">
-        <f>(BJ11-BJ14-BJ6)/BJ5</f>
+        <f t="shared" si="17"/>
         <v>0.48972602739726023</v>
       </c>
       <c r="BK15">
-        <f>(BK11-BK14-BK6)/BK5</f>
+        <f t="shared" si="17"/>
         <v>0.59931506849315075</v>
       </c>
       <c r="BL15">
-        <f>(BL11-BL14-BL6)/BL5</f>
+        <f t="shared" si="17"/>
         <v>0.12456747404844315</v>
       </c>
       <c r="BM15">
-        <f>(BM11-BM14-BM6)/BM5</f>
+        <f t="shared" si="17"/>
         <v>0.52641509433962275</v>
       </c>
       <c r="BN15">
-        <f>(BN11-BN14-BN6)/BN5</f>
+        <f t="shared" ref="BN15:CJ15" si="18">(BN11-BN14-BN6)/BN5</f>
         <v>0.56082160517306967</v>
       </c>
       <c r="BO15">
-        <f>(BO11-BO14-BO6)/BO5</f>
+        <f t="shared" si="18"/>
         <v>0.2960238568588473</v>
       </c>
       <c r="BP15">
-        <f>(BP11-BP14-BP6)/BP5</f>
+        <f t="shared" si="18"/>
         <v>6.487804878048789E-2</v>
       </c>
       <c r="BQ15">
-        <f>(BQ11-BQ14-BQ6)/BQ5</f>
+        <f t="shared" si="18"/>
         <v>0.62160065332788861</v>
       </c>
       <c r="BR15">
-        <f>(BR11-BR14-BR6)/BR5</f>
+        <f t="shared" si="18"/>
         <v>0.55088495575221252</v>
       </c>
       <c r="BS15">
-        <f>(BS11-BS14-BS6)/BS5</f>
+        <f t="shared" si="18"/>
         <v>0.34416788677403615</v>
       </c>
       <c r="BT15">
-        <f>(BT11-BT14-BT6)/BT5</f>
+        <f t="shared" si="18"/>
         <v>0.56854838709677413</v>
       </c>
       <c r="BU15">
-        <f>(BU11-BU14-BU6)/BU5</f>
+        <f t="shared" si="18"/>
         <v>0.33615023474178396</v>
       </c>
       <c r="BV15">
-        <f>(BV11-BV14-BV6)/BV5</f>
+        <f t="shared" si="18"/>
         <v>0.42186234817813717</v>
       </c>
       <c r="BW15">
-        <f>(BW11-BW14-BW6)/BW5</f>
+        <f t="shared" si="18"/>
         <v>0.34152542372881334</v>
       </c>
       <c r="BX15">
-        <f>(BX11-BX14-BX6)/BX5</f>
+        <f t="shared" si="18"/>
         <v>0.65244444444444472</v>
       </c>
       <c r="BY15">
-        <f>(BY11-BY14-BY6)/BY5</f>
+        <f t="shared" si="18"/>
         <v>0.37983870967741901</v>
       </c>
       <c r="BZ15">
-        <f>(BZ11-BZ14-BZ6)/BZ5</f>
+        <f t="shared" si="18"/>
         <v>0.27356828193832589</v>
       </c>
       <c r="CA15">
-        <f>(CA11-CA14-CA6)/CA5</f>
+        <f t="shared" si="18"/>
         <v>0.31927710843373491</v>
       </c>
       <c r="CB15">
-        <f>(CB11-CB14-CB6)/CB5</f>
+        <f t="shared" si="18"/>
         <v>0.36828193832599132</v>
       </c>
       <c r="CC15">
-        <f>(CC11-CC14-CC6)/CC5</f>
+        <f t="shared" si="18"/>
         <v>0.47366255144032926</v>
       </c>
       <c r="CD15">
-        <f>(CD11-CD14-CD6)/CD5</f>
+        <f t="shared" si="18"/>
         <v>0.42704081632653074</v>
       </c>
       <c r="CE15">
-        <f>(CE11-CE14-CE6)/CE5</f>
+        <f t="shared" si="18"/>
         <v>0.4604938271604937</v>
       </c>
       <c r="CF15">
-        <f>(CF11-CF14-CF6)/CF5</f>
+        <f t="shared" si="18"/>
         <v>0.55319148936170215</v>
       </c>
       <c r="CG15">
-        <f>(CG11-CG14-CG6)/CG5</f>
+        <f t="shared" si="18"/>
         <v>0.39555555555555549</v>
       </c>
       <c r="CH15">
-        <f>(CH11-CH14-CH6)/CH5</f>
+        <f t="shared" si="18"/>
         <v>0.5517241379310347</v>
       </c>
       <c r="CI15">
-        <f>(CI11-CI14-CI6)/CI5</f>
+        <f t="shared" si="18"/>
         <v>0.59027777777777779</v>
       </c>
       <c r="CJ15">
-        <f>(CJ11-CJ14-CJ6)/CJ5</f>
+        <f t="shared" si="18"/>
         <v>0.59670781893004099</v>
       </c>
       <c r="CL15">
-        <f>(CL11-CL14-CL6)/CL5</f>
+        <f t="shared" ref="CL15:CZ15" si="19">(CL11-CL14-CL6)/CL5</f>
         <v>7.6923076923073675E-3</v>
       </c>
       <c r="CM15">
-        <f>(CM11-CM14-CM6)/CM5</f>
+        <f t="shared" si="19"/>
         <v>0.4003775009437523</v>
       </c>
       <c r="CN15">
-        <f>(CN11-CN14-CN6)/CN5</f>
+        <f t="shared" si="19"/>
         <v>0.84447640966628312</v>
       </c>
       <c r="CO15">
-        <f>(CO11-CO14-CO6)/CO5</f>
+        <f t="shared" si="19"/>
         <v>0.42676794133053958</v>
       </c>
       <c r="CP15">
-        <f>(CP11-CP14-CP6)/CP5</f>
+        <f t="shared" si="19"/>
         <v>0.54085937500000014</v>
       </c>
       <c r="CQ15">
-        <f>(CQ11-CQ14-CQ6)/CQ5</f>
+        <f t="shared" si="19"/>
         <v>0.55017779533781097</v>
       </c>
       <c r="CR15">
-        <f>(CR11-CR14-CR6)/CR5</f>
+        <f t="shared" si="19"/>
         <v>0.48645833333333344</v>
       </c>
       <c r="CS15">
-        <f>(CS11-CS14-CS6)/CS5</f>
+        <f t="shared" si="19"/>
         <v>0.48353510895883767</v>
       </c>
       <c r="CT15">
-        <f>(CT11-CT14-CT6)/CT5</f>
+        <f t="shared" si="19"/>
         <v>0.53588235294117648</v>
       </c>
       <c r="CU15">
-        <f>(CU11-CU14-CU6)/CU5</f>
+        <f t="shared" si="19"/>
         <v>0.61199226305609278</v>
       </c>
       <c r="CV15">
-        <f>(CV11-CV14-CV6)/CV5</f>
+        <f t="shared" si="19"/>
         <v>0.625</v>
       </c>
       <c r="CW15">
-        <f>(CW11-CW14-CW6)/CW5</f>
+        <f t="shared" si="19"/>
         <v>0.69047619047619058</v>
       </c>
       <c r="CX15">
-        <f>(CX11-CX14-CX6)/CX5</f>
+        <f t="shared" si="19"/>
         <v>0.29931880108991826</v>
       </c>
       <c r="CY15">
-        <f>(CY11-CY14-CY6)/CY5</f>
+        <f t="shared" si="19"/>
         <v>0.45621079046424096</v>
       </c>
       <c r="CZ15">
-        <f>(CZ11-CZ14-CZ6)/CZ5</f>
+        <f t="shared" si="19"/>
         <v>0.23605957031250011</v>
       </c>
       <c r="DB15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="DC15">
-        <f ca="1">OFFSET($B$5,0,DB15,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35.700000000000003</v>
       </c>
       <c r="DD15">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>35.299999999999997</v>
       </c>
       <c r="DE15">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.47058823529411775</v>
       </c>
     </row>
@@ -12264,427 +12265,427 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <f>B15-((-0.00301*B5)+0.6121)</f>
+        <f t="shared" ref="B16:AG16" si="20">B15-((-0.00301*B5)+0.6121)</f>
         <v>5.4268863214837704E-2</v>
       </c>
       <c r="C16">
-        <f>C15-((-0.00301*C5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>0.1866587916613216</v>
       </c>
       <c r="D16">
-        <f>D15-((-0.00301*D5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>0.12817006340867443</v>
       </c>
       <c r="E16">
-        <f>E15-((-0.00301*E5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>0.30037589774505302</v>
       </c>
       <c r="F16">
-        <f>F15-((-0.00301*F5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>0.17472182389762581</v>
       </c>
       <c r="G16">
-        <f>G15-((-0.00301*G5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>0.18610292076630597</v>
       </c>
       <c r="H16">
-        <f>H15-((-0.00301*H5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>0.11775688456683864</v>
       </c>
       <c r="I16">
-        <f>I15-((-0.00301*I5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>0.15822728555783716</v>
       </c>
       <c r="J16">
-        <f>J15-((-0.00301*J5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-7.6552253652230284E-2</v>
       </c>
       <c r="K16">
-        <f>K15-((-0.00301*K5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-7.2254077558927821E-2</v>
       </c>
       <c r="L16">
-        <f>L15-((-0.00301*L5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-3.989217974549325E-2</v>
       </c>
       <c r="M16">
-        <f>M15-((-0.00301*M5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-0.1840093914373086</v>
       </c>
       <c r="N16">
-        <f>N15-((-0.00301*N5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-0.13125221468926546</v>
       </c>
       <c r="O16">
-        <f>O15-((-0.00301*O5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-3.4054764705882201E-2</v>
       </c>
       <c r="P16">
-        <f>P15-((-0.00301*P5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-0.1875594189466922</v>
       </c>
       <c r="Q16">
-        <f>Q15-((-0.00301*Q5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-4.3278350567595325E-2</v>
       </c>
       <c r="R16">
-        <f>R15-((-0.00301*R5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>1.4367839798125615E-2</v>
       </c>
       <c r="S16">
-        <f>S15-((-0.00301*S5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>2.6672706796116219E-2</v>
       </c>
       <c r="T16">
-        <f>T15-((-0.00301*T5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-0.30540872047853596</v>
       </c>
       <c r="U16">
-        <f>U15-((-0.00301*U5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-0.31703669354838704</v>
       </c>
       <c r="V16">
-        <f>V15-((-0.00301*V5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-0.14310051424211589</v>
       </c>
       <c r="W16">
-        <f>W15-((-0.00301*W5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>5.9709132086851524E-2</v>
       </c>
       <c r="X16">
-        <f>X15-((-0.00301*X5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-3.7947432915079515E-2</v>
       </c>
       <c r="Y16">
-        <f>Y15-((-0.00301*Y5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-7.0454141414139637E-3</v>
       </c>
       <c r="Z16">
-        <f>Z15-((-0.00301*Z5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-0.15041646511627915</v>
       </c>
       <c r="AA16">
-        <f>AA15-((-0.00301*AA5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>0.12748569040414076</v>
       </c>
       <c r="AB16">
-        <f>AB15-((-0.00301*AB5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-0.26979056410256391</v>
       </c>
       <c r="AC16">
-        <f>AC15-((-0.00301*AC5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-0.13433874370709376</v>
       </c>
       <c r="AD16">
-        <f>AD15-((-0.00301*AD5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-0.15218082649842263</v>
       </c>
       <c r="AE16">
-        <f>AE15-((-0.00301*AE5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-0.181139109589041</v>
       </c>
       <c r="AF16">
-        <f>AF15-((-0.00301*AF5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-0.19264416253443539</v>
       </c>
       <c r="AG16">
-        <f>AG15-((-0.00301*AG5)+0.6121)</f>
+        <f t="shared" si="20"/>
         <v>-0.15663676595744697</v>
       </c>
       <c r="AH16">
-        <f>AH15-((-0.00301*AH5)+0.6121)</f>
+        <f t="shared" ref="AH16:BM16" si="21">AH15-((-0.00301*AH5)+0.6121)</f>
         <v>-0.25267373856209152</v>
       </c>
       <c r="AI16">
-        <f>AI15-((-0.00301*AI5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-0.27763265753424649</v>
       </c>
       <c r="AJ16">
-        <f>AJ15-((-0.00301*AJ5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-0.22847493896713605</v>
       </c>
       <c r="AK16">
-        <f>AK15-((-0.00301*AK5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-0.26853638007380071</v>
       </c>
       <c r="AL16">
-        <f>AL15-((-0.00301*AL5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-0.2444700512820514</v>
       </c>
       <c r="AM16">
-        <f>AM15-((-0.00301*AM5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-7.291536588720765E-2</v>
       </c>
       <c r="AN16">
-        <f>AN15-((-0.00301*AN5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-0.45083360223048347</v>
       </c>
       <c r="AO16">
-        <f>AO15-((-0.00301*AO5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-3.8146883755588723E-2</v>
       </c>
       <c r="AP16">
-        <f>AP15-((-0.00301*AP5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-0.17671765367965364</v>
       </c>
       <c r="AQ16">
-        <f>AQ15-((-0.00301*AQ5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-0.18052307748184016</v>
       </c>
       <c r="AR16">
-        <f>AR15-((-0.00301*AR5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-9.9589952095808287E-2</v>
       </c>
       <c r="AS16">
-        <f>AS15-((-0.00301*AS5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>7.42183590462836E-3</v>
       </c>
       <c r="AT16">
-        <f>AT15-((-0.00301*AT5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>5.1006595988538683E-2</v>
       </c>
       <c r="AU16">
-        <f>AU15-((-0.00301*AU5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-0.16344999999999987</v>
       </c>
       <c r="AV16">
-        <f>AV15-((-0.00301*AV5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-6.7222919770773493E-2</v>
       </c>
       <c r="AW16">
-        <f>AW15-((-0.00301*AW5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-2.152912582781441E-2</v>
       </c>
       <c r="AX16">
-        <f>AX15-((-0.00301*AX5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-0.11005347511312213</v>
       </c>
       <c r="AY16">
-        <f>AY15-((-0.00301*AY5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>2.1866046109510207E-2</v>
       </c>
       <c r="AZ16">
-        <f>AZ15-((-0.00301*AZ5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-0.16196137984496151</v>
       </c>
       <c r="BA16">
-        <f>BA15-((-0.00301*BA5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-0.31550964082687338</v>
       </c>
       <c r="BB16">
-        <f>BB15-((-0.00301*BB5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>6.1226623376623435E-3</v>
       </c>
       <c r="BC16">
-        <f>BC15-((-0.00301*BC5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>4.0544920353982217E-2</v>
       </c>
       <c r="BD16">
-        <f>BD15-((-0.00301*BD5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-0.11685227737226278</v>
       </c>
       <c r="BE16">
-        <f>BE15-((-0.00301*BE5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-2.1644941176470367E-2</v>
       </c>
       <c r="BF16">
-        <f>BF15-((-0.00301*BF5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-3.5406666666666753E-2</v>
       </c>
       <c r="BG16">
-        <f>BG15-((-0.00301*BG5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-1.3090067415730267E-2</v>
       </c>
       <c r="BH16">
-        <f>BH15-((-0.00301*BH5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-4.4100820895522419E-2</v>
       </c>
       <c r="BI16">
-        <f>BI15-((-0.00301*BI5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-0.14845747169811324</v>
       </c>
       <c r="BJ16">
-        <f>BJ15-((-0.00301*BJ5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>5.3410027397260251E-2</v>
       </c>
       <c r="BK16">
-        <f>BK15-((-0.00301*BK5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>7.5107068493150742E-2</v>
       </c>
       <c r="BL16">
-        <f>BL15-((-0.00301*BL5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-0.40054352595155684</v>
       </c>
       <c r="BM16">
-        <f>BM15-((-0.00301*BM5)+0.6121)</f>
+        <f t="shared" si="21"/>
         <v>-5.919905660377256E-3</v>
       </c>
       <c r="BN16">
-        <f>BN15-((-0.00301*BN5)+0.6121)</f>
+        <f t="shared" ref="BN16:CJ16" si="22">BN15-((-0.00301*BN5)+0.6121)</f>
         <v>2.7854505173069644E-2</v>
       </c>
       <c r="BO16">
-        <f>BO15-((-0.00301*BO5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>-0.2555149431411527</v>
       </c>
       <c r="BP16">
-        <f>BP15-((-0.00301*BP5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>-0.48551695121951211</v>
       </c>
       <c r="BQ16">
-        <f>BQ15-((-0.00301*BQ5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>8.3215553327888658E-2</v>
       </c>
       <c r="BR16">
-        <f>BR15-((-0.00301*BR5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>6.8109557522125774E-3</v>
       </c>
       <c r="BS16">
-        <f>BS15-((-0.00301*BS5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>-0.20625721322596385</v>
       </c>
       <c r="BT16">
-        <f>BT15-((-0.00301*BT5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>3.1096387096774203E-2</v>
       </c>
       <c r="BU16">
-        <f>BU15-((-0.00301*BU5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>-0.21183676525821604</v>
       </c>
       <c r="BV16">
-        <f>BV15-((-0.00301*BV5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>-0.11589065182186276</v>
       </c>
       <c r="BW16">
-        <f>BW15-((-0.00301*BW5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>-0.19953857627118665</v>
       </c>
       <c r="BX16">
-        <f>BX15-((-0.00301*BX5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>0.10806944444444477</v>
       </c>
       <c r="BY16">
-        <f>BY15-((-0.00301*BY5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>-0.15761329032258092</v>
       </c>
       <c r="BZ16">
-        <f>BZ15-((-0.00301*BZ5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>-0.27020471806167407</v>
       </c>
       <c r="CA16">
-        <f>CA15-((-0.00301*CA5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>-0.21787389156626502</v>
       </c>
       <c r="CB16">
-        <f>CB15-((-0.00301*CB5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>-0.17549106167400863</v>
       </c>
       <c r="CC16">
-        <f>CC15-((-0.00301*CC5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>-6.5294448559670759E-2</v>
       </c>
       <c r="CD16">
-        <f>CD15-((-0.00301*CD5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>-0.12606318367346919</v>
       </c>
       <c r="CE16">
-        <f>CE15-((-0.00301*CE5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>-7.8463172839506323E-2</v>
       </c>
       <c r="CF16">
-        <f>CF15-((-0.00301*CF5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>1.1826489361702164E-2</v>
       </c>
       <c r="CG16">
-        <f>CG15-((-0.00301*CG5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>-0.14881944444444445</v>
       </c>
       <c r="CH16">
-        <f>CH15-((-0.00301*CH5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>9.4561379310347249E-3</v>
       </c>
       <c r="CI16">
-        <f>CI15-((-0.00301*CI5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>4.3193777777777775E-2</v>
       </c>
       <c r="CJ16">
-        <f>CJ15-((-0.00301*CJ5)+0.6121)</f>
+        <f t="shared" si="22"/>
         <v>5.775081893004097E-2</v>
       </c>
       <c r="CL16">
-        <f>CL15-((-0.00301*CL5)+0.6121)</f>
+        <f t="shared" ref="CL16:CZ16" si="23">CL15-((-0.00301*CL5)+0.6121)</f>
         <v>-0.53788669230769259</v>
       </c>
       <c r="CM16">
-        <f>CM15-((-0.00301*CM5)+0.6121)</f>
+        <f t="shared" si="23"/>
         <v>-0.13198759905624774</v>
       </c>
       <c r="CN16">
-        <f>CN15-((-0.00301*CN5)+0.6121)</f>
+        <f t="shared" si="23"/>
         <v>0.33700400966628319</v>
       </c>
       <c r="CO16">
-        <f>CO15-((-0.00301*CO5)+0.6121)</f>
+        <f t="shared" si="23"/>
         <v>-1.2949358669460398E-2</v>
       </c>
       <c r="CP16">
-        <f>CP15-((-0.00301*CP5)+0.6121)</f>
+        <f t="shared" si="23"/>
         <v>4.4343375000000185E-2</v>
       </c>
       <c r="CQ16">
-        <f>CQ15-((-0.00301*CQ5)+0.6121)</f>
+        <f t="shared" si="23"/>
         <v>1.4260895337811053E-2</v>
       </c>
       <c r="CR16">
-        <f>CR15-((-0.00301*CR5)+0.6121)</f>
+        <f t="shared" si="23"/>
         <v>-1.005766666666652E-2</v>
       </c>
       <c r="CS16">
-        <f>CS15-((-0.00301*CS5)+0.6121)</f>
+        <f t="shared" si="23"/>
         <v>-4.2518910411623034E-3</v>
       </c>
       <c r="CT16">
-        <f>CT15-((-0.00301*CT5)+0.6121)</f>
+        <f t="shared" si="23"/>
         <v>2.6122352941176485E-2</v>
       </c>
       <c r="CU16">
-        <f>CU15-((-0.00301*CU5)+0.6121)</f>
+        <f t="shared" si="23"/>
         <v>0.15550926305609281</v>
       </c>
       <c r="CV16">
-        <f>CV15-((-0.00301*CV5)+0.6121)</f>
+        <f t="shared" si="23"/>
         <v>0.14654400000000001</v>
       </c>
       <c r="CW16">
-        <f>CW15-((-0.00301*CW5)+0.6121)</f>
+        <f t="shared" si="23"/>
         <v>0.18583319047619062</v>
       </c>
       <c r="CX16">
-        <f>CX15-((-0.00301*CX5)+0.6121)</f>
+        <f t="shared" si="23"/>
         <v>-0.22440759891008166</v>
       </c>
       <c r="CY16">
-        <f>CY15-((-0.00301*CY5)+0.6121)</f>
+        <f t="shared" si="23"/>
         <v>-3.5940709535759008E-2</v>
       </c>
       <c r="CZ16">
-        <f>CZ15-((-0.00301*CZ5)+0.6121)</f>
+        <f t="shared" si="23"/>
         <v>-0.25275082968749985</v>
       </c>
       <c r="DB16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="DC16">
-        <f ca="1">OFFSET($B$5,0,DB16,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>46.71</v>
       </c>
       <c r="DD16">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>38.06</v>
       </c>
       <c r="DE16">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.28394348105330774</v>
       </c>
     </row>
@@ -12693,427 +12694,427 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <f>B5*-0.0081+0.8982+B11*0.0188-0.7434</f>
+        <f t="shared" ref="B17:AG17" si="24">B5*-0.0081+0.8982+B11*0.0188-0.7434</f>
         <v>0.59344100000000022</v>
       </c>
       <c r="C17">
-        <f>C5*-0.0081+0.8982+C11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.67116200000000015</v>
       </c>
       <c r="D17">
-        <f>D5*-0.0081+0.8982+D11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.72413800000000006</v>
       </c>
       <c r="E17">
-        <f>E5*-0.0081+0.8982+E11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.70291800000000004</v>
       </c>
       <c r="F17">
-        <f>F5*-0.0081+0.8982+F11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.64693700000000021</v>
       </c>
       <c r="G17">
-        <f>G5*-0.0081+0.8982+G11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.77010900000000004</v>
       </c>
       <c r="H17">
-        <f>H5*-0.0081+0.8982+H11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.7118540000000001</v>
       </c>
       <c r="I17">
-        <f>I5*-0.0081+0.8982+I11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.54942200000000019</v>
       </c>
       <c r="J17">
-        <f>J5*-0.0081+0.8982+J11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.2777320000000002</v>
       </c>
       <c r="K17">
-        <f>K5*-0.0081+0.8982+K11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.31484600000000007</v>
       </c>
       <c r="L17">
-        <f>L5*-0.0081+0.8982+L11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.47882500000000017</v>
       </c>
       <c r="M17">
-        <f>M5*-0.0081+0.8982+M11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.57989000000000013</v>
       </c>
       <c r="N17">
-        <f>N5*-0.0081+0.8982+N11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.58058000000000021</v>
       </c>
       <c r="O17">
-        <f>O5*-0.0081+0.8982+O11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.52927000000000002</v>
       </c>
       <c r="P17">
-        <f>P5*-0.0081+0.8982+P11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.49197700000000022</v>
       </c>
       <c r="Q17">
-        <f>Q5*-0.0081+0.8982+Q11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.57376100000000008</v>
       </c>
       <c r="R17">
-        <f>R5*-0.0081+0.8982+R11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.7078620000000001</v>
       </c>
       <c r="S17">
-        <f>S5*-0.0081+0.8982+S11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.78044800000000014</v>
       </c>
       <c r="T17">
-        <f>T5*-0.0081+0.8982+T11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.52318999999999993</v>
       </c>
       <c r="U17">
-        <f>U5*-0.0081+0.8982+U11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.31261700000000003</v>
       </c>
       <c r="V17">
-        <f>V5*-0.0081+0.8982+V11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.41374500000000036</v>
       </c>
       <c r="W17">
-        <f>W5*-0.0081+0.8982+W11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.703407</v>
       </c>
       <c r="X17">
-        <f>X5*-0.0081+0.8982+X11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.59210900000000011</v>
       </c>
       <c r="Y17">
-        <f>Y5*-0.0081+0.8982+Y11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.6480800000000001</v>
       </c>
       <c r="Z17">
-        <f>Z5*-0.0081+0.8982+Z11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.27284000000000008</v>
       </c>
       <c r="AA17">
-        <f>AA5*-0.0081+0.8982+AA11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.6672570000000001</v>
       </c>
       <c r="AB17">
-        <f>AB5*-0.0081+0.8982+AB11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.20476000000000016</v>
       </c>
       <c r="AC17">
-        <f>AC5*-0.0081+0.8982+AC11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.56411000000000022</v>
       </c>
       <c r="AD17">
-        <f>AD5*-0.0081+0.8982+AD11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>9.0579999999999994E-2</v>
       </c>
       <c r="AE17">
-        <f>AE5*-0.0081+0.8982+AE11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.2595900000000001</v>
       </c>
       <c r="AF17">
-        <f>AF5*-0.0081+0.8982+AF11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.50937000000000021</v>
       </c>
       <c r="AG17">
-        <f>AG5*-0.0081+0.8982+AG11*0.0188-0.7434</f>
+        <f t="shared" si="24"/>
         <v>0.21495999999999993</v>
       </c>
       <c r="AH17">
-        <f>AH5*-0.0081+0.8982+AH11*0.0188-0.7434</f>
+        <f t="shared" ref="AH17:BM17" si="25">AH5*-0.0081+0.8982+AH11*0.0188-0.7434</f>
         <v>0.32430000000000014</v>
       </c>
       <c r="AI17">
-        <f>AI5*-0.0081+0.8982+AI11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.50296000000000018</v>
       </c>
       <c r="AJ17">
-        <f>AJ5*-0.0081+0.8982+AJ11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.27973999999999999</v>
       </c>
       <c r="AK17">
-        <f>AK5*-0.0081+0.8982+AK11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.51245000000000018</v>
       </c>
       <c r="AL17">
-        <f>AL5*-0.0081+0.8982+AL11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.43224000000000007</v>
       </c>
       <c r="AM17">
-        <f>AM5*-0.0081+0.8982+AM11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.15249000000000001</v>
       </c>
       <c r="AN17">
-        <f>AN5*-0.0081+0.8982+AN11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.31667000000000012</v>
       </c>
       <c r="AO17">
-        <f>AO5*-0.0081+0.8982+AO11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.30877000000000032</v>
       </c>
       <c r="AP17">
-        <f>AP5*-0.0081+0.8982+AP11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.25246000000000002</v>
       </c>
       <c r="AQ17">
-        <f>AQ5*-0.0081+0.8982+AQ11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.40871000000000024</v>
       </c>
       <c r="AR17">
-        <f>AR5*-0.0081+0.8982+AR11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.54602000000000028</v>
       </c>
       <c r="AS17">
-        <f>AS5*-0.0081+0.8982+AS11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.31235000000000024</v>
       </c>
       <c r="AT17">
-        <f>AT5*-0.0081+0.8982+AT11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.42978000000000016</v>
       </c>
       <c r="AU17">
-        <f>AU5*-0.0081+0.8982+AU11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.39668000000000025</v>
       </c>
       <c r="AV17">
-        <f>AV5*-0.0081+0.8982+AV11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.53387000000000018</v>
       </c>
       <c r="AW17">
-        <f>AW5*-0.0081+0.8982+AW11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.67346000000000028</v>
       </c>
       <c r="AX17">
-        <f>AX5*-0.0081+0.8982+AX11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.40401999999999993</v>
       </c>
       <c r="AY17">
-        <f>AY5*-0.0081+0.8982+AY11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.44242000000000015</v>
       </c>
       <c r="AZ17">
-        <f>AZ5*-0.0081+0.8982+AZ11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.61886000000000008</v>
       </c>
       <c r="BA17">
-        <f>BA5*-0.0081+0.8982+BA11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.43353000000000008</v>
       </c>
       <c r="BB17">
-        <f>BB5*-0.0081+0.8982+BB11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.64759</v>
       </c>
       <c r="BC17">
-        <f>BC5*-0.0081+0.8982+BC11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.52564</v>
       </c>
       <c r="BD17">
-        <f>BD5*-0.0081+0.8982+BD11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.47054000000000007</v>
       </c>
       <c r="BE17">
-        <f>BE5*-0.0081+0.8982+BE11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.72860000000000003</v>
       </c>
       <c r="BF17">
-        <f>BF5*-0.0081+0.8982+BF11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.51180000000000014</v>
       </c>
       <c r="BG17">
-        <f>BG5*-0.0081+0.8982+BG11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.70116000000000012</v>
       </c>
       <c r="BH17">
-        <f>BH5*-0.0081+0.8982+BH11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.7162900000000002</v>
       </c>
       <c r="BI17">
-        <f>BI5*-0.0081+0.8982+BI11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.53266000000000002</v>
       </c>
       <c r="BJ17">
-        <f>BJ5*-0.0081+0.8982+BJ11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.58228000000000002</v>
       </c>
       <c r="BK17">
-        <f>BK5*-0.0081+0.8982+BK11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.63080000000000014</v>
       </c>
       <c r="BL17">
-        <f>BL5*-0.0081+0.8982+BL11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.46779000000000004</v>
       </c>
       <c r="BM17">
-        <f>BM5*-0.0081+0.8982+BM11*0.0188-0.7434</f>
+        <f t="shared" si="25"/>
         <v>0.46278999999999992</v>
       </c>
       <c r="BN17">
-        <f>BN5*-0.0081+0.8982+BN11*0.0188-0.7434</f>
+        <f t="shared" ref="BN17:CJ17" si="26">BN5*-0.0081+0.8982+BN11*0.0188-0.7434</f>
         <v>0.645347</v>
       </c>
       <c r="BO17">
-        <f>BO5*-0.0081+0.8982+BO11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.67182400000000009</v>
       </c>
       <c r="BP17">
-        <f>BP5*-0.0081+0.8982+BP11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.43994999999999995</v>
       </c>
       <c r="BQ17">
-        <f>BQ5*-0.0081+0.8982+BQ11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.6730870000000001</v>
       </c>
       <c r="BR17">
-        <f>BR5*-0.0081+0.8982+BR11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.69742000000000004</v>
       </c>
       <c r="BS17">
-        <f>BS5*-0.0081+0.8982+BS11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.55602700000000016</v>
       </c>
       <c r="BT17">
-        <f>BT5*-0.0081+0.8982+BT11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.8450399999999999</v>
       </c>
       <c r="BU17">
-        <f>BU5*-0.0081+0.8982+BU11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.54251000000000016</v>
       </c>
       <c r="BV17">
-        <f>BV5*-0.0081+0.8982+BV11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.73305000000000009</v>
       </c>
       <c r="BW17">
-        <f>BW5*-0.0081+0.8982+BW11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.58028000000000002</v>
       </c>
       <c r="BX17">
-        <f>BX5*-0.0081+0.8982+BX11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.69635000000000014</v>
       </c>
       <c r="BY17">
-        <f>BY5*-0.0081+0.8982+BY11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.75480000000000003</v>
       </c>
       <c r="BZ17">
-        <f>BZ5*-0.0081+0.8982+BZ11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.71353000000000011</v>
       </c>
       <c r="CA17">
-        <f>CA5*-0.0081+0.8982+CA11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.56786999999999999</v>
       </c>
       <c r="CB17">
-        <f>CB5*-0.0081+0.8982+CB11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.54433000000000009</v>
       </c>
       <c r="CC17">
-        <f>CC5*-0.0081+0.8982+CC11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.7381700000000001</v>
       </c>
       <c r="CD17">
-        <f>CD5*-0.0081+0.8982+CD11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.65780000000000027</v>
       </c>
       <c r="CE17">
-        <f>CE5*-0.0081+0.8982+CE11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.61973000000000023</v>
       </c>
       <c r="CF17">
-        <f>CF5*-0.0081+0.8982+CF11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.60553000000000023</v>
       </c>
       <c r="CG17">
-        <f>CG5*-0.0081+0.8982+CG11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.68131000000000019</v>
       </c>
       <c r="CH17">
-        <f>CH5*-0.0081+0.8982+CH11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.62487999999999999</v>
       </c>
       <c r="CI17">
-        <f>CI5*-0.0081+0.8982+CI11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.63971999999999996</v>
       </c>
       <c r="CJ17">
-        <f>CJ5*-0.0081+0.8982+CJ11*0.0188-0.7434</f>
+        <f t="shared" si="26"/>
         <v>0.66861000000000004</v>
       </c>
       <c r="CL17">
-        <f>CL5*-0.0081+0.8982+CL11*0.0188-0.7434</f>
+        <f t="shared" ref="CL17:CX17" si="27">CL5*-0.0081+0.8982+CL11*0.0188-0.7434</f>
         <v>0.40631000000000006</v>
       </c>
       <c r="CM17">
-        <f>CM5*-0.0081+0.8982+CM11*0.0188-0.7434</f>
+        <f t="shared" si="27"/>
         <v>0.6606470000000001</v>
       </c>
       <c r="CN17">
-        <f>CN5*-0.0081+0.8982+CN11*0.0188-0.7434</f>
+        <f t="shared" si="27"/>
         <v>0.73052400000000006</v>
       </c>
       <c r="CO17">
-        <f>CO5*-0.0081+0.8982+CO11*0.0188-0.7434</f>
+        <f t="shared" si="27"/>
         <v>0.38256500000000015</v>
       </c>
       <c r="CP17">
-        <f>CP5*-0.0081+0.8982+CP11*0.0188-0.7434</f>
+        <f t="shared" si="27"/>
         <v>0.56342400000000026</v>
       </c>
       <c r="CQ17">
-        <f>CQ5*-0.0081+0.8982+CQ11*0.0188-0.7434</f>
+        <f t="shared" si="27"/>
         <v>0.45550900000000005</v>
       </c>
       <c r="CR17">
-        <f>CR5*-0.0081+0.8982+CR11*0.0188-0.7434</f>
+        <f t="shared" si="27"/>
         <v>0.5299600000000001</v>
       </c>
       <c r="CS17">
-        <f>CS5*-0.0081+0.8982+CS11*0.0188-0.7434</f>
+        <f t="shared" si="27"/>
         <v>0.56851000000000018</v>
       </c>
       <c r="CT17">
-        <f>CT5*-0.0081+0.8982+CT11*0.0188-0.7434</f>
+        <f t="shared" si="27"/>
         <v>0.43024000000000007</v>
       </c>
       <c r="CU17">
-        <f>CU5*-0.0081+0.8982+CU11*0.0188-0.7434</f>
+        <f t="shared" si="27"/>
         <v>0.55007000000000017</v>
       </c>
       <c r="CV17">
-        <f>CV5*-0.0081+0.8982+CV11*0.0188-0.7434</f>
+        <f t="shared" si="27"/>
         <v>0.48699999999999999</v>
       </c>
       <c r="CW17">
-        <f>CW5*-0.0081+0.8982+CW11*0.0188-0.7434</f>
+        <f t="shared" si="27"/>
         <v>0.6853100000000002</v>
       </c>
       <c r="CX17">
-        <f>CX5*-0.0081+0.8982+CX11*0.0188-0.7434</f>
+        <f t="shared" si="27"/>
         <v>0.53456400000000015</v>
       </c>
       <c r="CY17">
-        <f t="shared" ref="CY17:CZ17" si="6">CY5*-0.0081+0.8982+CY11*0.0188-0.7434</f>
+        <f>CY5*-0.0081+0.8982+CY11*0.0188-0.7434</f>
         <v>0.64304700000000004</v>
       </c>
       <c r="CZ17">
-        <f t="shared" si="6"/>
+        <f>CZ5*-0.0081+0.8982+CZ11*0.0188-0.7434</f>
         <v>0.49023600000000023</v>
       </c>
       <c r="DB17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="DC17">
-        <f ca="1">OFFSET($B$5,0,DB17,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>29.07</v>
       </c>
       <c r="DD17">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>34.81</v>
       </c>
       <c r="DE17">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.48132094943240467</v>
       </c>
     </row>
@@ -13126,1215 +13127,1215 @@
         <v>0.12966636321483771</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:BN18" si="7">C15-(0.0127*C11-0.034)</f>
+        <f t="shared" ref="C18:BN18" si="28">C15-(0.0127*C11-0.034)</f>
         <v>0.21947699166132162</v>
       </c>
       <c r="D18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.11196966340867442</v>
       </c>
       <c r="E18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.20758529774505297</v>
       </c>
       <c r="F18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.21330252389762583</v>
       </c>
       <c r="G18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.12654902076630603</v>
       </c>
       <c r="H18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>9.1873284566838631E-2</v>
       </c>
       <c r="I18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.28990908555783712</v>
       </c>
       <c r="J18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-3.8351053652230294E-2</v>
       </c>
       <c r="K18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-5.9633477558927839E-2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-1.259867974549328E-2</v>
       </c>
       <c r="M18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-0.10242639143730864</v>
       </c>
       <c r="N18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-7.3036214689265522E-2</v>
       </c>
       <c r="O18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>5.6278235294117795E-2</v>
       </c>
       <c r="P18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-0.16541851894669229</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>7.3233949432404688E-2</v>
       </c>
       <c r="R18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>5.1571439798125618E-2</v>
       </c>
       <c r="S18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-2.9432893203883759E-2</v>
       </c>
       <c r="T18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-0.14922092047853597</v>
       </c>
       <c r="U18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-0.10621719354838705</v>
       </c>
       <c r="V18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-8.8807014242115956E-2</v>
       </c>
       <c r="W18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-1.6363367913148408E-2</v>
       </c>
       <c r="X18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-6.5806732915079491E-2</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-3.0051414141413879E-2</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.12416953488372087</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1.3633904041407963E-3</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>7.7927435897436059E-2</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-0.13539574370709373</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-4.4482649842259026E-4</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>8.4585890410959014E-2</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-9.3957162534435423E-2</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.12990723404255305</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1.9380261437908469E-2</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-0.11439465753424649</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-2.8100938967136058E-2</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-9.3897380073800607E-2</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-5.0422051282051406E-2</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-4.1882365887207673E-2</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-0.14224260223048346</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-6.5187883755588705E-2</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1.155034632034635E-2</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-5.6246077481840184E-2</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-1.0639520958082849E-3</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-5.7661164095371698E-2</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-8.0681404011461344E-2</v>
       </c>
       <c r="AU18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-2.0019999999999871E-2</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>2.6788080229226463E-2</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>1.8048874172185592E-2</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-7.205475113122084E-3</v>
       </c>
       <c r="AY18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-0.1149679538904898</v>
       </c>
       <c r="AZ18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-4.8179379844961456E-2</v>
       </c>
       <c r="BA18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-0.18594664082687337</v>
       </c>
       <c r="BB18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-7.2223376623375968E-3</v>
       </c>
       <c r="BC18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>5.2752920353982158E-2</v>
       </c>
       <c r="BD18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>8.3553722627737192E-2</v>
       </c>
       <c r="BE18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-0.10922294117647041</v>
       </c>
       <c r="BF18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>6.4183333333333203E-2</v>
       </c>
       <c r="BG18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-3.8026067415730225E-2</v>
       </c>
       <c r="BH18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-6.1445820895522363E-2</v>
       </c>
       <c r="BI18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-2.7335471698113178E-2</v>
       </c>
       <c r="BJ18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-8.4603972602739663E-2</v>
       </c>
       <c r="BK18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.15198506849315074</v>
       </c>
       <c r="BL18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>-0.21100252595155689</v>
       </c>
       <c r="BM18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.20735509433962274</v>
       </c>
       <c r="BN18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.11958760517306966</v>
       </c>
       <c r="BO18">
-        <f t="shared" ref="BO18:CJ18" si="8">BO15-(0.0127*BO11-0.034)</f>
+        <f t="shared" ref="BO18:CJ18" si="29">BO15-(0.0127*BO11-0.034)</f>
         <v>-0.12933514314115274</v>
       </c>
       <c r="BP18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>-0.20592195121951204</v>
       </c>
       <c r="BQ18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>0.17147665332788864</v>
       </c>
       <c r="BR18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>9.4664955752212565E-2</v>
       </c>
       <c r="BS18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>-4.9911132259638502E-3</v>
       </c>
       <c r="BT18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>5.6838709677420329E-4</v>
       </c>
       <c r="BU18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>-8.3097652582160286E-3</v>
       </c>
       <c r="BV18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>-6.9917651821862714E-2</v>
       </c>
       <c r="BW18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>-4.1034576271186562E-2</v>
       </c>
       <c r="BX18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>0.19749444444444475</v>
       </c>
       <c r="BY18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>-0.12718129032258091</v>
       </c>
       <c r="BZ18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>-0.19408171806167401</v>
       </c>
       <c r="CA18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>-6.2012891566265105E-2</v>
       </c>
       <c r="CB18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1.4931938325991378E-2</v>
       </c>
       <c r="CC18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>-1.9387448559670728E-2</v>
       </c>
       <c r="CD18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>1.4000816326530774E-2</v>
       </c>
       <c r="CE18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>4.7453827160493733E-2</v>
       </c>
       <c r="CF18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>0.15412148936170211</v>
       </c>
       <c r="CG18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>-4.9234444444444525E-2</v>
       </c>
       <c r="CH18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>0.14122413793103472</v>
       </c>
       <c r="CI18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>0.17850777777777782</v>
       </c>
       <c r="CJ18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>0.15064781893004109</v>
       </c>
       <c r="DB18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="DC18">
-        <f ca="1">OFFSET($B$5,0,DB18,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>27.74</v>
       </c>
       <c r="DD18">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>41.37</v>
       </c>
       <c r="DE18">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.54297043979812554</v>
       </c>
     </row>
     <row r="19" spans="1:109" x14ac:dyDescent="0.25">
       <c r="DB19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="DC19">
-        <f ca="1">OFFSET($B$5,0,DB19,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>32.96</v>
       </c>
       <c r="DD19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>47.48</v>
       </c>
       <c r="DE19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.53956310679611619</v>
       </c>
     </row>
     <row r="20" spans="1:109" x14ac:dyDescent="0.25">
       <c r="DB20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="DC20">
-        <f ca="1">OFFSET($B$5,0,DB20,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>28.42</v>
       </c>
       <c r="DD20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>31.84</v>
       </c>
       <c r="DE20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.22114707952146406</v>
       </c>
     </row>
     <row r="21" spans="1:109" x14ac:dyDescent="0.25">
       <c r="DB21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="DC21">
-        <f ca="1">OFFSET($B$5,0,DB21,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>38.75</v>
       </c>
       <c r="DD21">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>25.09</v>
       </c>
       <c r="DE21">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.17842580645161293</v>
       </c>
     </row>
     <row r="22" spans="1:109" x14ac:dyDescent="0.25">
       <c r="DB22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="DC22">
-        <f ca="1">OFFSET($B$5,0,DB22,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>49.15</v>
       </c>
       <c r="DD22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>34.950000000000003</v>
       </c>
       <c r="DE22">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.32105798575788408</v>
       </c>
     </row>
     <row r="23" spans="1:109" x14ac:dyDescent="0.25">
       <c r="DB23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="DC23">
-        <f ca="1">OFFSET($B$5,0,DB23,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>41.45</v>
       </c>
       <c r="DD23">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>47.04</v>
       </c>
       <c r="DE23">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.5470446320868515</v>
       </c>
     </row>
     <row r="24" spans="1:109" x14ac:dyDescent="0.25">
       <c r="DB24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="DC24">
-        <f ca="1">OFFSET($B$5,0,DB24,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>44.63</v>
       </c>
       <c r="DD24">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>42.49</v>
       </c>
       <c r="DE24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.43981626708492044</v>
       </c>
     </row>
     <row r="25" spans="1:109" x14ac:dyDescent="0.25">
       <c r="DB25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="DC25">
-        <f ca="1">OFFSET($B$5,0,DB25,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>39.6</v>
       </c>
       <c r="DD25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>43.3</v>
       </c>
       <c r="DE25">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.48585858585858599</v>
       </c>
     </row>
     <row r="26" spans="1:109" x14ac:dyDescent="0.25">
       <c r="DB26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="DC26">
-        <f ca="1">OFFSET($B$5,0,DB26,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>34.4</v>
       </c>
       <c r="DD26">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>21.1</v>
       </c>
       <c r="DE26">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.35813953488372086</v>
       </c>
     </row>
     <row r="27" spans="1:109" x14ac:dyDescent="0.25">
       <c r="DB27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="DC27">
-        <f ca="1">OFFSET($B$5,0,DB27,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>50.23</v>
       </c>
       <c r="DD27">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>48.9</v>
       </c>
       <c r="DE27">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.58839339040414074</v>
       </c>
     </row>
     <row r="28" spans="1:109" x14ac:dyDescent="0.25">
       <c r="DB28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="DC28">
-        <f ca="1">OFFSET($B$5,0,DB28,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>31.2</v>
       </c>
       <c r="DD28">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>16.100000000000001</v>
       </c>
       <c r="DE28">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.24839743589743607</v>
       </c>
     </row>
     <row r="29" spans="1:109" x14ac:dyDescent="0.25">
       <c r="DB29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="DC29">
-        <f ca="1">OFFSET($B$5,0,DB29,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>43.7</v>
       </c>
       <c r="DD29">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>40.6</v>
       </c>
       <c r="DE29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.34622425629290621</v>
       </c>
     </row>
     <row r="30" spans="1:109" x14ac:dyDescent="0.25">
       <c r="DB30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="DC30">
-        <f ca="1">OFFSET($B$5,0,DB30,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>63.4</v>
       </c>
       <c r="DD30">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>23.9</v>
       </c>
       <c r="DE30">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.26908517350157735</v>
       </c>
     </row>
     <row r="31" spans="1:109" x14ac:dyDescent="0.25">
       <c r="DB31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="DC31">
-        <f ca="1">OFFSET($B$5,0,DB31,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36.5</v>
       </c>
       <c r="DD31">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>21.3</v>
       </c>
       <c r="DE31">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.32109589041095898</v>
       </c>
     </row>
     <row r="32" spans="1:109" x14ac:dyDescent="0.25">
       <c r="DB32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="DC32">
-        <f ca="1">OFFSET($B$5,0,DB32,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36.299999999999997</v>
       </c>
       <c r="DD32">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>34.5</v>
       </c>
       <c r="DE32">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.31019283746556459</v>
       </c>
     </row>
     <row r="33" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="DC33">
-        <f ca="1">OFFSET($B$5,0,DB33,1,1)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>37.6</v>
       </c>
       <c r="DD33">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19.399999999999999</v>
       </c>
       <c r="DE33">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.34228723404255301</v>
       </c>
     </row>
     <row r="34" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="DC34">
-        <f ca="1">OFFSET($B$5,0,DB34,1,1)</f>
+        <f t="shared" ref="DC34:DC65" ca="1" si="30">OFFSET($B$5,0,DB34,1,1)</f>
         <v>30.6</v>
       </c>
       <c r="DD34">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>22.2</v>
       </c>
       <c r="DE34">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.26732026143790844</v>
       </c>
     </row>
     <row r="35" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="DC35">
-        <f ca="1">OFFSET($B$5,0,DB35,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>29.2</v>
       </c>
       <c r="DD35">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>31.1</v>
       </c>
       <c r="DE35">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.24657534246575352</v>
       </c>
     </row>
     <row r="36" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="DC36">
-        <f ca="1">OFFSET($B$5,0,DB36,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>42.6</v>
       </c>
       <c r="DD36">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
       <c r="DE36">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.25539906103286392</v>
       </c>
     </row>
     <row r="37" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="DC37">
-        <f ca="1">OFFSET($B$5,0,DB37,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>27.1</v>
       </c>
       <c r="DD37">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>30.7</v>
       </c>
       <c r="DE37">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.26199261992619932</v>
       </c>
     </row>
     <row r="38" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="DC38">
-        <f ca="1">OFFSET($B$5,0,DB38,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>31.2</v>
       </c>
       <c r="DD38">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>28.2</v>
       </c>
       <c r="DE38">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.27371794871794858</v>
       </c>
     </row>
     <row r="39" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="DC39">
-        <f ca="1">OFFSET($B$5,0,DB39,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>72.7</v>
       </c>
       <c r="DD39">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>31.2</v>
       </c>
       <c r="DE39">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.32035763411279233</v>
       </c>
     </row>
     <row r="40" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="DC40">
-        <f ca="1">OFFSET($B$5,0,DB40,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>26.9</v>
       </c>
       <c r="DD40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>20.2</v>
       </c>
       <c r="DE40">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>8.029739776951654E-2</v>
       </c>
     </row>
     <row r="41" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="DC41">
-        <f ca="1">OFFSET($B$5,0,DB41,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>67.099999999999994</v>
       </c>
       <c r="DD41">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>37.1</v>
       </c>
       <c r="DE41">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.37198211624441124</v>
       </c>
     </row>
     <row r="42" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="DC42">
-        <f ca="1">OFFSET($B$5,0,DB42,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>46.2</v>
       </c>
       <c r="DD42">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>25.1</v>
       </c>
       <c r="DE42">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.29632034632034632</v>
       </c>
     </row>
     <row r="43" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="DC43">
-        <f ca="1">OFFSET($B$5,0,DB43,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>41.3</v>
       </c>
       <c r="DD43">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>31.3</v>
       </c>
       <c r="DE43">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.30726392251815982</v>
       </c>
     </row>
     <row r="44" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB44">
-        <f t="shared" ref="DB44:DB58" si="9">DB43+1</f>
+        <f t="shared" ref="DB44:DB58" si="31">DB43+1</f>
         <v>42</v>
       </c>
       <c r="DC44">
-        <f ca="1">OFFSET($B$5,0,DB44,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>33.4</v>
       </c>
       <c r="DD44">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>35.200000000000003</v>
       </c>
       <c r="DE44">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.41197604790419168</v>
       </c>
     </row>
     <row r="45" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="31"/>
         <v>43</v>
       </c>
       <c r="DC45">
-        <f ca="1">OFFSET($B$5,0,DB45,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>71.3</v>
       </c>
       <c r="DD45">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>39.1</v>
       </c>
       <c r="DE45">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.40490883590462834</v>
       </c>
     </row>
     <row r="46" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="31"/>
         <v>44</v>
       </c>
       <c r="DC46">
-        <f ca="1">OFFSET($B$5,0,DB46,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>69.8</v>
       </c>
       <c r="DD46">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44.7</v>
       </c>
       <c r="DE46">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.45300859598853865</v>
       </c>
     </row>
     <row r="47" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="31"/>
         <v>45</v>
       </c>
       <c r="DC47">
-        <f ca="1">OFFSET($B$5,0,DB47,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>40</v>
       </c>
       <c r="DD47">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>30.1</v>
       </c>
       <c r="DE47">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.3282500000000001</v>
       </c>
     </row>
     <row r="48" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="31"/>
         <v>46</v>
       </c>
       <c r="DC48">
-        <f ca="1">OFFSET($B$5,0,DB48,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>34.9</v>
       </c>
       <c r="DD48">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>35.200000000000003</v>
       </c>
       <c r="DE48">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.43982808022922643</v>
       </c>
     </row>
     <row r="49" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="31"/>
         <v>47</v>
       </c>
       <c r="DC49">
-        <f ca="1">OFFSET($B$5,0,DB49,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>30.2</v>
       </c>
       <c r="DD49">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>40.6</v>
       </c>
       <c r="DE49">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.49966887417218553</v>
       </c>
     </row>
     <row r="50" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="31"/>
         <v>48</v>
       </c>
       <c r="DC50">
-        <f ca="1">OFFSET($B$5,0,DB50,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>44.2</v>
       </c>
       <c r="DD50">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>32.299999999999997</v>
       </c>
       <c r="DE50">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.36900452488687785</v>
       </c>
     </row>
     <row r="51" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="31"/>
         <v>49</v>
       </c>
       <c r="DC51">
-        <f ca="1">OFFSET($B$5,0,DB51,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>69.400000000000006</v>
       </c>
       <c r="DD51">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>45.2</v>
       </c>
       <c r="DE51">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.42507204610951016</v>
       </c>
     </row>
     <row r="52" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="31"/>
         <v>50</v>
       </c>
       <c r="DC52">
-        <f ca="1">OFFSET($B$5,0,DB52,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>25.8</v>
       </c>
       <c r="DD52">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>35.799999999999997</v>
       </c>
       <c r="DE52">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.37248062015503847</v>
       </c>
     </row>
     <row r="53" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="31"/>
         <v>51</v>
       </c>
       <c r="DC53">
-        <f ca="1">OFFSET($B$5,0,DB53,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>38.700000000000003</v>
       </c>
       <c r="DD53">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>31.5</v>
       </c>
       <c r="DE53">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.18010335917312661</v>
       </c>
     </row>
     <row r="54" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="31"/>
         <v>52</v>
       </c>
       <c r="DC54">
-        <f ca="1">OFFSET($B$5,0,DB54,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>38.5</v>
       </c>
       <c r="DD54">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>42.8</v>
       </c>
       <c r="DE54">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.50233766233766231</v>
       </c>
     </row>
     <row r="55" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="31"/>
         <v>53</v>
       </c>
       <c r="DC55">
-        <f ca="1">OFFSET($B$5,0,DB55,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>45.2</v>
       </c>
       <c r="DD55">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>39.200000000000003</v>
       </c>
       <c r="DE55">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.51659292035398219</v>
       </c>
     </row>
     <row r="56" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="31"/>
         <v>54</v>
       </c>
       <c r="DC56">
-        <f ca="1">OFFSET($B$5,0,DB56,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>27.4</v>
       </c>
       <c r="DD56">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>28.6</v>
       </c>
       <c r="DE56">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.41277372262773715</v>
       </c>
     </row>
     <row r="57" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="31"/>
         <v>55</v>
       </c>
       <c r="DC57">
-        <f ca="1">OFFSET($B$5,0,DB57,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>40.799999999999997</v>
       </c>
       <c r="DD57">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>48.1</v>
       </c>
       <c r="DE57">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.46764705882352958</v>
       </c>
     </row>
     <row r="58" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="31"/>
         <v>56</v>
       </c>
       <c r="DC58">
-        <f ca="1">OFFSET($B$5,0,DB58,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>36</v>
       </c>
       <c r="DD58">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>34.5</v>
       </c>
       <c r="DE58">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.46833333333333321</v>
       </c>
     </row>
     <row r="59" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB59">
-        <f>DB58+1</f>
+        <f t="shared" ref="DB59:DB66" si="32">DB58+1</f>
         <v>57</v>
       </c>
       <c r="DC59">
-        <f ca="1">OFFSET($B$5,0,DB59,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>35.6</v>
       </c>
       <c r="DD59">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44.4</v>
       </c>
       <c r="DE59">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.49185393258426968</v>
       </c>
     </row>
     <row r="60" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB60">
-        <f>DB59+1</f>
+        <f t="shared" si="32"/>
         <v>58</v>
       </c>
       <c r="DC60">
-        <f ca="1">OFFSET($B$5,0,DB60,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>33.5</v>
       </c>
       <c r="DD60">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>44.3</v>
       </c>
       <c r="DE60">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.46716417910447755</v>
       </c>
     </row>
     <row r="61" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB61">
-        <f>DB60+1</f>
+        <f t="shared" si="32"/>
         <v>59</v>
       </c>
       <c r="DC61">
-        <f ca="1">OFFSET($B$5,0,DB61,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>31.8</v>
       </c>
       <c r="DD61">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>33.799999999999997</v>
       </c>
       <c r="DE61">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.36792452830188677</v>
       </c>
     </row>
     <row r="62" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB62">
-        <f>DB61+1</f>
+        <f t="shared" si="32"/>
         <v>60</v>
       </c>
       <c r="DC62">
-        <f ca="1">OFFSET($B$5,0,DB62,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>58.4</v>
       </c>
       <c r="DD62">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>47.9</v>
       </c>
       <c r="DE62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.48972602739726023</v>
       </c>
     </row>
     <row r="63" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB63">
-        <f>DB62+1</f>
+        <f t="shared" si="32"/>
         <v>61</v>
       </c>
       <c r="DC63">
-        <f ca="1">OFFSET($B$5,0,DB63,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>29.2</v>
       </c>
       <c r="DD63">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>37.9</v>
       </c>
       <c r="DE63">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.59931506849315075</v>
       </c>
     </row>
     <row r="64" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB64">
-        <f>DB63+1</f>
+        <f t="shared" si="32"/>
         <v>62</v>
       </c>
       <c r="DC64">
-        <f ca="1">OFFSET($B$5,0,DB64,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>28.9</v>
       </c>
       <c r="DD64">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>29.1</v>
       </c>
       <c r="DE64">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.12456747404844315</v>
       </c>
     </row>
     <row r="65" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB65">
-        <f>DB64+1</f>
+        <f t="shared" si="32"/>
         <v>63</v>
       </c>
       <c r="DC65">
-        <f ca="1">OFFSET($B$5,0,DB65,1,1)</f>
+        <f t="shared" ca="1" si="30"/>
         <v>26.5</v>
       </c>
       <c r="DD65">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>27.8</v>
       </c>
       <c r="DE65">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.52641509433962275</v>
       </c>
     </row>
     <row r="66" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB66">
-        <f>DB65+1</f>
+        <f t="shared" si="32"/>
         <v>64</v>
       </c>
       <c r="DC66">
@@ -14342,11 +14343,11 @@
         <v>26.29</v>
       </c>
       <c r="DD66">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>37.42</v>
       </c>
       <c r="DE66">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.56082160517306967</v>
       </c>
     </row>
@@ -14583,15 +14584,15 @@
         <v>1</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF66" ca="1" si="0">OFFSET($B$4,0,AE3,1,1)</f>
+        <f t="shared" ref="AF3:AF29" ca="1" si="0">OFFSET($B$4,0,AE3,1,1)</f>
         <v>23.51</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG66" ca="1" si="1">OFFSET($B$10,0,AE3,1,1)</f>
+        <f t="shared" ref="AG3:AG29" ca="1" si="1">OFFSET($B$10,0,AE3,1,1)</f>
         <v>31.68</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH66" ca="1" si="2">OFFSET($B$15,0,AE3,1,1)</f>
+        <f t="shared" ref="AH3:AH29" ca="1" si="2">OFFSET($B$15,0,AE3,1,1)</f>
         <v>-0.23399384687367081</v>
       </c>
     </row>
@@ -14684,7 +14685,7 @@
         <v>24.1</v>
       </c>
       <c r="AE4">
-        <f t="shared" ref="AE4:AE58" si="3">AE3+1</f>
+        <f t="shared" ref="AE4:AE29" si="3">AE3+1</f>
         <v>2</v>
       </c>
       <c r="AF4">
@@ -14967,63 +14968,63 @@
         <v>8.1999999999999886</v>
       </c>
       <c r="O7">
-        <f>100-SUM(O3:O6)</f>
+        <f t="shared" ref="O7:W7" si="5">100-SUM(O3:O6)</f>
         <v>23.699999999999989</v>
       </c>
       <c r="P7">
-        <f>100-SUM(P3:P6)</f>
+        <f t="shared" si="5"/>
         <v>3.2000000000000028</v>
       </c>
       <c r="Q7">
-        <f>100-SUM(Q3:Q6)</f>
+        <f t="shared" si="5"/>
         <v>3.3000000000000114</v>
       </c>
       <c r="R7">
-        <f>100-SUM(R3:R6)</f>
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
       <c r="S7">
-        <f>100-SUM(S3:S6)</f>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="T7">
-        <f>100-SUM(T3:T6)</f>
+        <f t="shared" si="5"/>
         <v>10.799999999999997</v>
       </c>
       <c r="U7">
-        <f>100-SUM(U3:U6)</f>
+        <f t="shared" si="5"/>
         <v>2.7000000000000028</v>
       </c>
       <c r="V7">
-        <f>100-SUM(V3:V6)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="W7">
-        <f>100-SUM(W3:W6)</f>
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
       <c r="X7">
-        <f t="shared" ref="X7:AA7" si="5">100-SUM(X3:X6)</f>
+        <f t="shared" ref="X7:AC7" si="6">100-SUM(X3:X6)</f>
         <v>4.2000000000000028</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.299999999999997</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f>100-SUM(AB3:AB6)</f>
+        <f t="shared" si="6"/>
         <v>13.400000000000006</v>
       </c>
       <c r="AC7">
-        <f>100-SUM(AC3:AC6)</f>
+        <f t="shared" si="6"/>
         <v>2.2999999999999972</v>
       </c>
       <c r="AE7">
@@ -15294,47 +15295,47 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:I12" si="6">(B9-B4)/SUM(B5:B7)</f>
+        <f t="shared" ref="B12:I12" si="7">(B9-B4)/SUM(B5:B7)</f>
         <v>0.34613990576295756</v>
       </c>
       <c r="C12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27524204702627941</v>
       </c>
       <c r="D12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.53396327331075055</v>
       </c>
       <c r="E12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.70896872576893277</v>
       </c>
       <c r="F12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.65806272550652234</v>
       </c>
       <c r="G12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.67740945365254801</v>
       </c>
       <c r="H12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.18971332209106251</v>
       </c>
       <c r="I12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.59916156078684324</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:K12" si="7">(J9-J4)/SUM(J5:J7)</f>
+        <f t="shared" ref="J12:AC12" si="8">(J9-J4)/SUM(J5:J7)</f>
         <v>0.44717444717444721</v>
       </c>
       <c r="K12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.35324232081911267</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12:M12" si="8">(L9-L4)/SUM(L5:L7)</f>
+        <f t="shared" si="8"/>
         <v>0.38966202783300202</v>
       </c>
       <c r="M12">
@@ -15342,67 +15343,67 @@
         <v>0.39442231075697209</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="N12:O12" si="9">(N9-N4)/SUM(N5:N7)</f>
+        <f t="shared" si="8"/>
         <v>0.40453686200378075</v>
       </c>
       <c r="O12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.37367624810892586</v>
       </c>
       <c r="P12">
-        <f t="shared" ref="P12:Q12" si="10">(P9-P4)/SUM(P5:P7)</f>
+        <f t="shared" si="8"/>
         <v>0.69587628865979356</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.65174129353233823</v>
       </c>
       <c r="R12">
-        <f t="shared" ref="R12:S12" si="11">(R9-R4)/SUM(R5:R7)</f>
+        <f t="shared" si="8"/>
         <v>0.5447941888619855</v>
       </c>
       <c r="S12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0.24555735056542816</v>
       </c>
       <c r="T12">
-        <f t="shared" ref="T12:U12" si="12">(T9-T4)/SUM(T5:T7)</f>
+        <f t="shared" si="8"/>
         <v>0.52685950413223148</v>
       </c>
       <c r="U12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0.77707006369426757</v>
       </c>
       <c r="V12">
-        <f t="shared" ref="V12:W12" si="13">(V9-V4)/SUM(V5:V7)</f>
+        <f t="shared" si="8"/>
         <v>0.30035971223021585</v>
       </c>
       <c r="W12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0.31418312387791741</v>
       </c>
       <c r="X12">
-        <f t="shared" ref="X12:Y12" si="14">(X9-X4)/SUM(X5:X7)</f>
+        <f t="shared" si="8"/>
         <v>0.79457364341085257</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.59228650137741057</v>
       </c>
       <c r="Z12">
-        <f t="shared" ref="Z12:AA12" si="15">(Z9-Z4)/SUM(Z5:Z7)</f>
+        <f t="shared" si="8"/>
         <v>0.47531992687385743</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0.31729055258467026</v>
       </c>
       <c r="AB12">
-        <f t="shared" ref="AB12:AC12" si="16">(AB9-AB4)/SUM(AB5:AB7)</f>
+        <f t="shared" si="8"/>
         <v>0.33281493001555201</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0.44721689059500958</v>
       </c>
       <c r="AE12">
@@ -15427,115 +15428,115 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:I13" si="17">B6*0.2+B7*0.5</f>
+        <f t="shared" ref="B13:I13" si="9">B6*0.2+B7*0.5</f>
         <v>4.5580000000000034</v>
       </c>
       <c r="C13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>9.7830000000000013</v>
       </c>
       <c r="D13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>4.456000000000004</v>
       </c>
       <c r="E13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>4.5939999999999976</v>
       </c>
       <c r="F13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>3.330000000000001</v>
       </c>
       <c r="G13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>3.3089999999999962</v>
       </c>
       <c r="H13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>3.1979999999999906</v>
       </c>
       <c r="I13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>3.2809999999999917</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:K13" si="18">J6*0.2+J7*0.5</f>
+        <f t="shared" ref="J13:AC13" si="10">J6*0.2+J7*0.5</f>
         <v>3.5</v>
       </c>
       <c r="K13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>6.2500000000000018</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:M13" si="19">L6*0.2+L7*0.5</f>
+        <f t="shared" si="10"/>
         <v>4.4699999999999971</v>
       </c>
       <c r="M13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>3.14</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13:O13" si="20">N6*0.2+N7*0.5</f>
+        <f t="shared" si="10"/>
         <v>5.0999999999999943</v>
       </c>
       <c r="O13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>14.089999999999995</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13:Q13" si="21">P6*0.2+P7*0.5</f>
+        <f t="shared" si="10"/>
         <v>4.7200000000000015</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>4.470000000000006</v>
       </c>
       <c r="R13">
-        <f t="shared" ref="R13:S13" si="22">R6*0.2+R7*0.5</f>
+        <f t="shared" si="10"/>
         <v>2.93</v>
       </c>
       <c r="S13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>8.25</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:U13" si="23">T6*0.2+T7*0.5</f>
+        <f t="shared" si="10"/>
         <v>6.3599999999999985</v>
       </c>
       <c r="U13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>1.9500000000000015</v>
       </c>
       <c r="V13">
-        <f t="shared" ref="V13:W13" si="24">V6*0.2+V7*0.5</f>
+        <f t="shared" si="10"/>
         <v>3.22</v>
       </c>
       <c r="W13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>4.07</v>
       </c>
       <c r="X13">
-        <f t="shared" ref="X13:Y13" si="25">X6*0.2+X7*0.5</f>
+        <f t="shared" si="10"/>
         <v>2.7200000000000015</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="10"/>
         <v>3.93</v>
       </c>
       <c r="Z13">
-        <f t="shared" ref="Z13:AA13" si="26">Z6*0.2+Z7*0.5</f>
+        <f t="shared" si="10"/>
         <v>5.8299999999999983</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f t="shared" ref="AB13:AC13" si="27">AB6*0.2+AB7*0.5</f>
+        <f t="shared" si="10"/>
         <v>7.8200000000000029</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>2.3499999999999988</v>
       </c>
       <c r="AE13">
@@ -15560,115 +15561,115 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:AC14" si="28">(B10-B13-B3)/B4</f>
+        <f t="shared" ref="B14:AC14" si="11">(B10-B13-B3)/B4</f>
         <v>0.61418727199027134</v>
       </c>
       <c r="C14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.44564015312632915</v>
       </c>
       <c r="D14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.33273753527751637</v>
       </c>
       <c r="E14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.34837184873949606</v>
       </c>
       <c r="F14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.25936010891763095</v>
       </c>
       <c r="G14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.26275724275724277</v>
       </c>
       <c r="H14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.24930448222565724</v>
       </c>
       <c r="I14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.4462731178778257</v>
       </c>
       <c r="J14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.38823529411764696</v>
       </c>
       <c r="K14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.45833333333333343</v>
       </c>
       <c r="L14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.55694915254237298</v>
       </c>
       <c r="M14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.40792079207920789</v>
       </c>
       <c r="N14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.55263157894736847</v>
       </c>
       <c r="O14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.34481327800829897</v>
       </c>
       <c r="P14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.42373737373737375</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.34623376623376612</v>
       </c>
       <c r="R14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.37453083109919572</v>
       </c>
       <c r="S14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.31412639405204462</v>
       </c>
       <c r="T14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.38039215686274508</v>
       </c>
       <c r="U14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>-2.9347826086956554E-2</v>
       </c>
       <c r="V14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.50501930501930503</v>
       </c>
       <c r="W14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.45936254980079672</v>
       </c>
       <c r="X14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.28328912466843498</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.40199115044247791</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.33617886178861783</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.33920704845814975</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.46635514018691576</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="AE14">
@@ -15693,115 +15694,115 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:AC15" si="29">B14-((-0.0066*B4)+0.8348)</f>
+        <f t="shared" ref="B15:AC15" si="12">B14-((-0.0066*B4)+0.8348)</f>
         <v>-5.779072800972862E-2</v>
       </c>
       <c r="C15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.23399384687367081</v>
       </c>
       <c r="D15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.36174646472248362</v>
       </c>
       <c r="E15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.23510015126050393</v>
       </c>
       <c r="F15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.28457789108236908</v>
       </c>
       <c r="G15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.2417127572427572</v>
       </c>
       <c r="H15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.41468751777434276</v>
       </c>
       <c r="I15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-3.5228882122174288E-2</v>
       </c>
       <c r="J15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.16606470588235306</v>
       </c>
       <c r="K15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.24182666666666658</v>
       </c>
       <c r="L15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-8.315084745762702E-2</v>
       </c>
       <c r="M15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.22689920792079205</v>
       </c>
       <c r="N15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.10660842105263146</v>
       </c>
       <c r="O15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.33092672199170103</v>
       </c>
       <c r="P15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.1497026262626262</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.23446623376623388</v>
       </c>
       <c r="R15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.21408916890080432</v>
       </c>
       <c r="S15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.34313360594795533</v>
       </c>
       <c r="T15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.25244784313725488</v>
       </c>
       <c r="U15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.56054782608695652</v>
       </c>
       <c r="V15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.15884069498069497</v>
       </c>
       <c r="W15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.20977745019920324</v>
       </c>
       <c r="X15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.30269087533156497</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.13448884955752205</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.33626113821138209</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.34577295154185028</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.22720485981308419</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>-0.17574000000000001</v>
       </c>
       <c r="AE15">
@@ -15826,115 +15827,115 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <f t="shared" ref="B16:I16" si="30">B4*-0.0081+0.8982+B10*0.0188-0.7434</f>
+        <f t="shared" ref="B16:I16" si="13">B4*-0.0081+0.8982+B10*0.0188-0.7434</f>
         <v>0.70434100000000022</v>
       </c>
       <c r="C16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0.55995300000000003</v>
       </c>
       <c r="D16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0.62517800000000012</v>
       </c>
       <c r="E16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0.61884400000000006</v>
       </c>
       <c r="F16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0.44944100000000009</v>
       </c>
       <c r="G16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0.38539900000000016</v>
       </c>
       <c r="H16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0.4052079999999999</v>
       </c>
       <c r="I16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0.52265100000000009</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:K16" si="31">J4*-0.0081+0.8982+J10*0.0188-0.7434</f>
+        <f t="shared" ref="J16:AC16" si="14">J4*-0.0081+0.8982+J10*0.0188-0.7434</f>
         <v>0.50239</v>
       </c>
       <c r="K16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="14"/>
         <v>0.67764000000000013</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:M16" si="32">L4*-0.0081+0.8982+L10*0.0188-0.7434</f>
+        <f t="shared" si="14"/>
         <v>0.68852999999999998</v>
       </c>
       <c r="M16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0.56737000000000026</v>
       </c>
       <c r="N16">
-        <f t="shared" ref="N16:O16" si="33">N4*-0.0081+0.8982+N10*0.0188-0.7434</f>
+        <f t="shared" si="14"/>
         <v>0.69698000000000004</v>
       </c>
       <c r="O16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>0.56495000000000017</v>
       </c>
       <c r="P16">
-        <f t="shared" ref="P16:Q16" si="34">P4*-0.0081+0.8982+P10*0.0188-0.7434</f>
+        <f t="shared" si="14"/>
         <v>0.64432000000000011</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="14"/>
         <v>0.57803000000000015</v>
       </c>
       <c r="R16">
-        <f t="shared" ref="R16:S16" si="35">R4*-0.0081+0.8982+R10*0.0188-0.7434</f>
+        <f t="shared" si="14"/>
         <v>0.57271000000000016</v>
       </c>
       <c r="S16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="14"/>
         <v>0.4614299999999999</v>
       </c>
       <c r="T16">
-        <f t="shared" ref="T16:U16" si="36">T4*-0.0081+0.8982+T10*0.0188-0.7434</f>
+        <f t="shared" si="14"/>
         <v>0.64014000000000004</v>
       </c>
       <c r="U16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="14"/>
         <v>0.51352000000000009</v>
       </c>
       <c r="V16">
-        <f t="shared" ref="V16:W16" si="37">V4*-0.0081+0.8982+V10*0.0188-0.7434</f>
+        <f t="shared" si="14"/>
         <v>0.59924999999999995</v>
       </c>
       <c r="W16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="14"/>
         <v>0.60572999999999999</v>
       </c>
       <c r="X16">
-        <f t="shared" ref="X16:Y16" si="38">X4*-0.0081+0.8982+X10*0.0188-0.7434</f>
+        <f t="shared" si="14"/>
         <v>0.78755000000000008</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="14"/>
         <v>0.55196000000000012</v>
       </c>
       <c r="Z16">
-        <f t="shared" ref="Z16:AA16" si="39">Z4*-0.0081+0.8982+Z10*0.0188-0.7434</f>
+        <f t="shared" si="14"/>
         <v>0.6097800000000001</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="14"/>
         <v>0.51424999999999998</v>
       </c>
       <c r="AB16">
-        <f t="shared" ref="AB16:AC16" si="40">AB4*-0.0081+0.8982+AB10*0.0188-0.7434</f>
+        <f t="shared" si="14"/>
         <v>0.58494000000000013</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="14"/>
         <v>0.67775000000000019</v>
       </c>
       <c r="AE16">

--- a/Ind-major preferencing.xlsx
+++ b/Ind-major preferencing.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\source\repos\Polling Analyser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{351A80D0-8BC0-47BA-8951-9335E177F441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAE8AD2-66AE-4039-A35F-ACA5DB3393C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="5310" windowWidth="24255" windowHeight="15300" activeTab="2" xr2:uid="{A68543AE-A11D-4AA7-B656-18DD4E512950}"/>
+    <workbookView xWindow="330" yWindow="4725" windowWidth="19800" windowHeight="14655" firstSheet="1" activeTab="3" xr2:uid="{A68543AE-A11D-4AA7-B656-18DD4E512950}"/>
   </bookViews>
   <sheets>
     <sheet name="LNP seat regression" sheetId="5" r:id="rId1"/>
-    <sheet name="ALP seat regression" sheetId="7" r:id="rId2"/>
+    <sheet name="ALP seat regression (fixed)" sheetId="11" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1305,7 +1304,7 @@
                   <c:v>38.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>27.5</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>49.8</c:v>
@@ -1440,7 +1439,7 @@
         <c:axId val="1201821168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="35"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4244,6 +4243,540 @@
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
           <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1201819920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ind tcp vs Ind fp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13731386701662293"/>
+                  <c:y val="-7.6523767862350543E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$AC$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>24.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$10:$AC$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>43.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>58.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-613D-4BFA-9789-91E7889548F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1201819920"/>
+        <c:axId val="1201821168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1201819920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1201821168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1201821168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4554,6 +5087,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6619,6 +7192,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7175,15 +8264,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
+      <xdr:colOff>219076</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7319,6 +8408,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9EC8DE-8CF2-444D-9778-CEB9810B8063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7627,7 +8759,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7878,17 +9010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FAE203-CCF8-4F54-A5B6-DEF1D61C77A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EC6874-83EE-4929-8BE6-AD85DCC779A2}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7907,7 +9036,7 @@
         <v>155</v>
       </c>
       <c r="B4" s="2">
-        <v>0.39785415004805991</v>
+        <v>0.5756094786844822</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -7915,7 +9044,7 @@
         <v>156</v>
       </c>
       <c r="B5" s="2">
-        <v>0.15828792471046416</v>
+        <v>0.33132627195142134</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -7923,7 +9052,7 @@
         <v>157</v>
       </c>
       <c r="B6" s="2">
-        <v>9.0950958687301298E-2</v>
+        <v>0.27783237370753505</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -7931,7 +9060,7 @@
         <v>158</v>
       </c>
       <c r="B7" s="2">
-        <v>0.18587043066934741</v>
+        <v>0.10511474764894756</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7973,16 +9102,16 @@
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>0.16242199726919626</v>
+        <v>0.13687020771641156</v>
       </c>
       <c r="D12" s="2">
-        <v>8.1210998634598131E-2</v>
+        <v>6.8435103858205781E-2</v>
       </c>
       <c r="E12" s="2">
-        <v>2.3506839416556953</v>
+        <v>6.1937208322500217</v>
       </c>
       <c r="F12" s="2">
-        <v>0.11602310148593233</v>
+        <v>6.5339868071997986E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -7993,10 +9122,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="2">
-        <v>0.86369542493021689</v>
+        <v>0.27622775433254815</v>
       </c>
       <c r="D13" s="2">
-        <v>3.4547816997208679E-2</v>
+        <v>1.1049110173301926E-2</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -8009,7 +9138,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="3">
-        <v>1.0261174221994132</v>
+        <v>0.41309796204895971</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -8048,28 +9177,28 @@
         <v>163</v>
       </c>
       <c r="B17" s="2">
-        <v>-0.67420351633781839</v>
+        <v>0.24317948683282592</v>
       </c>
       <c r="C17" s="2">
-        <v>0.25347330944477814</v>
+        <v>0.14334600109378978</v>
       </c>
       <c r="D17" s="2">
-        <v>-2.6598599979407331</v>
+        <v>1.6964511390430497</v>
       </c>
       <c r="E17" s="2">
-        <v>1.3448234886622352E-2</v>
+        <v>0.10221927692165553</v>
       </c>
       <c r="F17" s="2">
-        <v>-1.1962415692333055</v>
+        <v>-5.2047128802850506E-2</v>
       </c>
       <c r="G17" s="2">
-        <v>-0.15216546344233128</v>
+        <v>0.53840610246850229</v>
       </c>
       <c r="H17" s="2">
-        <v>-1.1962415692333055</v>
+        <v>-5.2047128802850506E-2</v>
       </c>
       <c r="I17" s="2">
-        <v>-0.15216546344233128</v>
+        <v>0.53840610246850229</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -8077,28 +9206,28 @@
         <v>150</v>
       </c>
       <c r="B18" s="2">
-        <v>-4.7012398127806903E-3</v>
+        <v>-7.8756444780447091E-3</v>
       </c>
       <c r="C18" s="2">
-        <v>4.1409214796341116E-3</v>
+        <v>2.3418029150649002E-3</v>
       </c>
       <c r="D18" s="2">
-        <v>-1.1353124747480332</v>
+        <v>-3.3630688677430589</v>
       </c>
       <c r="E18" s="2">
-        <v>0.26701215779266668</v>
+        <v>2.4849084755171605E-3</v>
       </c>
       <c r="F18" s="2">
-        <v>-1.3229627244011371E-2</v>
+        <v>-1.2698677864570927E-2</v>
       </c>
       <c r="G18" s="2">
-        <v>3.8271476184499912E-3</v>
+        <v>-3.0526110915184909E-3</v>
       </c>
       <c r="H18" s="2">
-        <v>-1.3229627244011371E-2</v>
+        <v>-1.2698677864570927E-2</v>
       </c>
       <c r="I18" s="2">
-        <v>3.8271476184499912E-3</v>
+        <v>-3.0526110915184909E-3</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8106,28 +9235,28 @@
         <v>176</v>
       </c>
       <c r="B19" s="3">
-        <v>1.6701354817676855E-2</v>
+        <v>1.0780678422470807E-2</v>
       </c>
       <c r="C19" s="3">
-        <v>7.7233284523503783E-3</v>
+        <v>4.3677507947617279E-3</v>
       </c>
       <c r="D19" s="3">
-        <v>2.1624555942061829</v>
+        <v>2.4682448539417918</v>
       </c>
       <c r="E19" s="3">
-        <v>4.0349838981965772E-2</v>
+        <v>2.0768625784034388E-2</v>
       </c>
       <c r="F19" s="3">
-        <v>7.9486211448479005E-4</v>
+        <v>1.7851272718401728E-3</v>
       </c>
       <c r="G19" s="3">
-        <v>3.260784752086892E-2</v>
+        <v>1.9776229573101441E-2</v>
       </c>
       <c r="H19" s="3">
-        <v>7.9486211448479005E-4</v>
+        <v>1.7851272718401728E-3</v>
       </c>
       <c r="I19" s="3">
-        <v>3.260784752086892E-2</v>
+        <v>1.9776229573101441E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8139,8 +9268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC942FC-F408-4DDC-937A-94949179FD9D}">
   <dimension ref="A1:DH66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8149,6 +9278,8 @@
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.7109375" customWidth="1"/>
     <col min="73" max="73" width="12.28515625" customWidth="1"/>
+    <col min="76" max="76" width="11.28515625" customWidth="1"/>
+    <col min="83" max="83" width="14.42578125" customWidth="1"/>
     <col min="90" max="90" width="12.28515625" customWidth="1"/>
     <col min="94" max="94" width="12.5703125" customWidth="1"/>
     <col min="95" max="95" width="11.85546875" customWidth="1"/>
@@ -9183,6 +10314,9 @@
       <c r="CZ5">
         <v>40.96</v>
       </c>
+      <c r="DA5">
+        <v>16.16</v>
+      </c>
       <c r="DB5">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -10528,7 +11662,7 @@
         <v>38.299999999999997</v>
       </c>
       <c r="BX10">
-        <v>27.5</v>
+        <v>38.5</v>
       </c>
       <c r="BY10">
         <v>49.8</v>
@@ -10855,7 +11989,7 @@
         <v>32.799999999999997</v>
       </c>
       <c r="BX11">
-        <v>38.5</v>
+        <v>27.5</v>
       </c>
       <c r="BY11">
         <v>42.6</v>
@@ -10937,6 +12071,9 @@
       </c>
       <c r="CZ11">
         <v>35.49</v>
+      </c>
+      <c r="DA11">
+        <v>34.700000000000003</v>
       </c>
       <c r="DB11">
         <f t="shared" si="3"/>
@@ -11275,7 +12412,7 @@
       </c>
       <c r="BX13">
         <f t="shared" si="10"/>
-        <v>0.14925373134328365</v>
+        <v>0.47761194029850768</v>
       </c>
       <c r="BY13">
         <f t="shared" si="10"/>
@@ -12133,7 +13270,7 @@
       </c>
       <c r="BX15">
         <f t="shared" si="18"/>
-        <v>0.65244444444444472</v>
+        <v>0.16355555555555579</v>
       </c>
       <c r="BY15">
         <f t="shared" si="18"/>
@@ -12562,7 +13699,7 @@
       </c>
       <c r="BX16">
         <f t="shared" si="22"/>
-        <v>0.10806944444444477</v>
+        <v>-0.38081944444444416</v>
       </c>
       <c r="BY16">
         <f t="shared" si="22"/>
@@ -12991,7 +14128,7 @@
       </c>
       <c r="BX17">
         <f t="shared" si="26"/>
-        <v>0.69635000000000014</v>
+        <v>0.48955000000000004</v>
       </c>
       <c r="BY17">
         <f t="shared" si="26"/>
@@ -13078,28 +14215,32 @@
         <v>0.43024000000000007</v>
       </c>
       <c r="CU17">
-        <f t="shared" si="27"/>
-        <v>0.55007000000000017</v>
+        <f t="shared" ref="CU17:CZ17" si="28">CU5*-0.00268+0.045033+CU11*0.01344</f>
+        <v>0.488429</v>
       </c>
       <c r="CV17">
-        <f t="shared" si="27"/>
-        <v>0.48699999999999999</v>
+        <f t="shared" si="28"/>
+        <v>0.42063299999999998</v>
       </c>
       <c r="CW17">
-        <f t="shared" si="27"/>
-        <v>0.6853100000000002</v>
+        <f t="shared" si="28"/>
+        <v>0.53534100000000007</v>
       </c>
       <c r="CX17">
-        <f t="shared" si="27"/>
-        <v>0.53456400000000015</v>
+        <f t="shared" si="28"/>
+        <v>0.40785220000000005</v>
       </c>
       <c r="CY17">
-        <f>CY5*-0.0081+0.8982+CY11*0.0188-0.7434</f>
-        <v>0.64304700000000004</v>
+        <f t="shared" si="28"/>
+        <v>0.51803660000000007</v>
       </c>
       <c r="CZ17">
-        <f>CZ5*-0.0081+0.8982+CZ11*0.0188-0.7434</f>
-        <v>0.49023600000000023</v>
+        <f t="shared" si="28"/>
+        <v>0.41224580000000005</v>
+      </c>
+      <c r="DA17">
+        <f>DA5*-0.00268+0.045033+DA11*0.01344</f>
+        <v>0.46809220000000007</v>
       </c>
       <c r="DB17">
         <f t="shared" si="3"/>
@@ -13127,347 +14268,347 @@
         <v>0.12966636321483771</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:BN18" si="28">C15-(0.0127*C11-0.034)</f>
+        <f t="shared" ref="C18:BN18" si="29">C15-(0.0127*C11-0.034)</f>
         <v>0.21947699166132162</v>
       </c>
       <c r="D18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.11196966340867442</v>
       </c>
       <c r="E18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.20758529774505297</v>
       </c>
       <c r="F18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.21330252389762583</v>
       </c>
       <c r="G18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.12654902076630603</v>
       </c>
       <c r="H18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>9.1873284566838631E-2</v>
       </c>
       <c r="I18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.28990908555783712</v>
       </c>
       <c r="J18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-3.8351053652230294E-2</v>
       </c>
       <c r="K18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-5.9633477558927839E-2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.259867974549328E-2</v>
       </c>
       <c r="M18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.10242639143730864</v>
       </c>
       <c r="N18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-7.3036214689265522E-2</v>
       </c>
       <c r="O18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.6278235294117795E-2</v>
       </c>
       <c r="P18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.16541851894669229</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.3233949432404688E-2</v>
       </c>
       <c r="R18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.1571439798125618E-2</v>
       </c>
       <c r="S18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.9432893203883759E-2</v>
       </c>
       <c r="T18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.14922092047853597</v>
       </c>
       <c r="U18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.10621719354838705</v>
       </c>
       <c r="V18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-8.8807014242115956E-2</v>
       </c>
       <c r="W18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.6363367913148408E-2</v>
       </c>
       <c r="X18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-6.5806732915079491E-2</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-3.0051414141413879E-2</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.12416953488372087</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.3633904041407963E-3</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.7927435897436059E-2</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.13539574370709373</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-4.4482649842259026E-4</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.4585890410959014E-2</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-9.3957162534435423E-2</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.12990723404255305</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.9380261437908469E-2</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.11439465753424649</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.8100938967136058E-2</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-9.3897380073800607E-2</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-5.0422051282051406E-2</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-4.1882365887207673E-2</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.14224260223048346</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-6.5187883755588705E-2</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.155034632034635E-2</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-5.6246077481840184E-2</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-1.0639520958082849E-3</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-5.7661164095371698E-2</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-8.0681404011461344E-2</v>
       </c>
       <c r="AU18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.0019999999999871E-2</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.6788080229226463E-2</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.8048874172185592E-2</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-7.205475113122084E-3</v>
       </c>
       <c r="AY18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.1149679538904898</v>
       </c>
       <c r="AZ18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-4.8179379844961456E-2</v>
       </c>
       <c r="BA18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.18594664082687337</v>
       </c>
       <c r="BB18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-7.2223376623375968E-3</v>
       </c>
       <c r="BC18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.2752920353982158E-2</v>
       </c>
       <c r="BD18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.3553722627737192E-2</v>
       </c>
       <c r="BE18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.10922294117647041</v>
       </c>
       <c r="BF18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>6.4183333333333203E-2</v>
       </c>
       <c r="BG18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-3.8026067415730225E-2</v>
       </c>
       <c r="BH18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-6.1445820895522363E-2</v>
       </c>
       <c r="BI18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-2.7335471698113178E-2</v>
       </c>
       <c r="BJ18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-8.4603972602739663E-2</v>
       </c>
       <c r="BK18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.15198506849315074</v>
       </c>
       <c r="BL18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.21100252595155689</v>
       </c>
       <c r="BM18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.20735509433962274</v>
       </c>
       <c r="BN18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.11958760517306966</v>
       </c>
       <c r="BO18">
-        <f t="shared" ref="BO18:CJ18" si="29">BO15-(0.0127*BO11-0.034)</f>
+        <f t="shared" ref="BO18:CJ18" si="30">BO15-(0.0127*BO11-0.034)</f>
         <v>-0.12933514314115274</v>
       </c>
       <c r="BP18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.20592195121951204</v>
       </c>
       <c r="BQ18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.17147665332788864</v>
       </c>
       <c r="BR18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9.4664955752212565E-2</v>
       </c>
       <c r="BS18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-4.9911132259638502E-3</v>
       </c>
       <c r="BT18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>5.6838709677420329E-4</v>
       </c>
       <c r="BU18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-8.3097652582160286E-3</v>
       </c>
       <c r="BV18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-6.9917651821862714E-2</v>
       </c>
       <c r="BW18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-4.1034576271186562E-2</v>
       </c>
       <c r="BX18">
-        <f t="shared" si="29"/>
-        <v>0.19749444444444475</v>
+        <f t="shared" si="30"/>
+        <v>-0.15169444444444424</v>
       </c>
       <c r="BY18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.12718129032258091</v>
       </c>
       <c r="BZ18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.19408171806167401</v>
       </c>
       <c r="CA18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-6.2012891566265105E-2</v>
       </c>
       <c r="CB18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.4931938325991378E-2</v>
       </c>
       <c r="CC18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1.9387448559670728E-2</v>
       </c>
       <c r="CD18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.4000816326530774E-2</v>
       </c>
       <c r="CE18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.7453827160493733E-2</v>
       </c>
       <c r="CF18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15412148936170211</v>
       </c>
       <c r="CG18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-4.9234444444444525E-2</v>
       </c>
       <c r="CH18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.14122413793103472</v>
       </c>
       <c r="CI18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.17850777777777782</v>
       </c>
       <c r="CJ18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.15064781893004109</v>
       </c>
       <c r="DB18">
@@ -13763,7 +14904,7 @@
         <v>32</v>
       </c>
       <c r="DC34">
-        <f t="shared" ref="DC34:DC65" ca="1" si="30">OFFSET($B$5,0,DB34,1,1)</f>
+        <f t="shared" ref="DC34:DC65" ca="1" si="31">OFFSET($B$5,0,DB34,1,1)</f>
         <v>30.6</v>
       </c>
       <c r="DD34">
@@ -13781,7 +14922,7 @@
         <v>33</v>
       </c>
       <c r="DC35">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>29.2</v>
       </c>
       <c r="DD35">
@@ -13799,7 +14940,7 @@
         <v>34</v>
       </c>
       <c r="DC36">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>42.6</v>
       </c>
       <c r="DD36">
@@ -13817,7 +14958,7 @@
         <v>35</v>
       </c>
       <c r="DC37">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>27.1</v>
       </c>
       <c r="DD37">
@@ -13835,7 +14976,7 @@
         <v>36</v>
       </c>
       <c r="DC38">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>31.2</v>
       </c>
       <c r="DD38">
@@ -13853,7 +14994,7 @@
         <v>37</v>
       </c>
       <c r="DC39">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>72.7</v>
       </c>
       <c r="DD39">
@@ -13871,7 +15012,7 @@
         <v>38</v>
       </c>
       <c r="DC40">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>26.9</v>
       </c>
       <c r="DD40">
@@ -13889,7 +15030,7 @@
         <v>39</v>
       </c>
       <c r="DC41">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>67.099999999999994</v>
       </c>
       <c r="DD41">
@@ -13907,7 +15048,7 @@
         <v>40</v>
       </c>
       <c r="DC42">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>46.2</v>
       </c>
       <c r="DD42">
@@ -13925,7 +15066,7 @@
         <v>41</v>
       </c>
       <c r="DC43">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>41.3</v>
       </c>
       <c r="DD43">
@@ -13939,11 +15080,11 @@
     </row>
     <row r="44" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB44">
-        <f t="shared" ref="DB44:DB58" si="31">DB43+1</f>
+        <f t="shared" ref="DB44:DB58" si="32">DB43+1</f>
         <v>42</v>
       </c>
       <c r="DC44">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>33.4</v>
       </c>
       <c r="DD44">
@@ -13957,11 +15098,11 @@
     </row>
     <row r="45" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>43</v>
       </c>
       <c r="DC45">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>71.3</v>
       </c>
       <c r="DD45">
@@ -13975,11 +15116,11 @@
     </row>
     <row r="46" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>44</v>
       </c>
       <c r="DC46">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>69.8</v>
       </c>
       <c r="DD46">
@@ -13993,11 +15134,11 @@
     </row>
     <row r="47" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB47">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>45</v>
       </c>
       <c r="DC47">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>40</v>
       </c>
       <c r="DD47">
@@ -14011,11 +15152,11 @@
     </row>
     <row r="48" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB48">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>46</v>
       </c>
       <c r="DC48">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>34.9</v>
       </c>
       <c r="DD48">
@@ -14029,11 +15170,11 @@
     </row>
     <row r="49" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB49">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>47</v>
       </c>
       <c r="DC49">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>30.2</v>
       </c>
       <c r="DD49">
@@ -14047,11 +15188,11 @@
     </row>
     <row r="50" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB50">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>48</v>
       </c>
       <c r="DC50">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>44.2</v>
       </c>
       <c r="DD50">
@@ -14065,11 +15206,11 @@
     </row>
     <row r="51" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB51">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>49</v>
       </c>
       <c r="DC51">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>69.400000000000006</v>
       </c>
       <c r="DD51">
@@ -14083,11 +15224,11 @@
     </row>
     <row r="52" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB52">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="DC52">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>25.8</v>
       </c>
       <c r="DD52">
@@ -14101,11 +15242,11 @@
     </row>
     <row r="53" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>51</v>
       </c>
       <c r="DC53">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>38.700000000000003</v>
       </c>
       <c r="DD53">
@@ -14119,11 +15260,11 @@
     </row>
     <row r="54" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB54">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>52</v>
       </c>
       <c r="DC54">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>38.5</v>
       </c>
       <c r="DD54">
@@ -14137,11 +15278,11 @@
     </row>
     <row r="55" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB55">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>53</v>
       </c>
       <c r="DC55">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>45.2</v>
       </c>
       <c r="DD55">
@@ -14155,11 +15296,11 @@
     </row>
     <row r="56" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB56">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>54</v>
       </c>
       <c r="DC56">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>27.4</v>
       </c>
       <c r="DD56">
@@ -14173,11 +15314,11 @@
     </row>
     <row r="57" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>55</v>
       </c>
       <c r="DC57">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>40.799999999999997</v>
       </c>
       <c r="DD57">
@@ -14191,11 +15332,11 @@
     </row>
     <row r="58" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>56</v>
       </c>
       <c r="DC58">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>36</v>
       </c>
       <c r="DD58">
@@ -14209,11 +15350,11 @@
     </row>
     <row r="59" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB59">
-        <f t="shared" ref="DB59:DB66" si="32">DB58+1</f>
+        <f t="shared" ref="DB59:DB66" si="33">DB58+1</f>
         <v>57</v>
       </c>
       <c r="DC59">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>35.6</v>
       </c>
       <c r="DD59">
@@ -14227,11 +15368,11 @@
     </row>
     <row r="60" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>58</v>
       </c>
       <c r="DC60">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>33.5</v>
       </c>
       <c r="DD60">
@@ -14245,11 +15386,11 @@
     </row>
     <row r="61" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB61">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>59</v>
       </c>
       <c r="DC61">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>31.8</v>
       </c>
       <c r="DD61">
@@ -14263,11 +15404,11 @@
     </row>
     <row r="62" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>60</v>
       </c>
       <c r="DC62">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>58.4</v>
       </c>
       <c r="DD62">
@@ -14281,11 +15422,11 @@
     </row>
     <row r="63" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB63">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>61</v>
       </c>
       <c r="DC63">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>29.2</v>
       </c>
       <c r="DD63">
@@ -14299,11 +15440,11 @@
     </row>
     <row r="64" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>62</v>
       </c>
       <c r="DC64">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>28.9</v>
       </c>
       <c r="DD64">
@@ -14317,11 +15458,11 @@
     </row>
     <row r="65" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB65">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>63</v>
       </c>
       <c r="DC65">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>26.5</v>
       </c>
       <c r="DD65">
@@ -14335,7 +15476,7 @@
     </row>
     <row r="66" spans="106:109" x14ac:dyDescent="0.25">
       <c r="DB66">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>64</v>
       </c>
       <c r="DC66">
@@ -14366,8 +15507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED575034-DF5C-4399-959D-FE713334FBF2}">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AJ13" sqref="AJ13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14375,95 +15516,15 @@
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" customWidth="1"/>
     <col min="31" max="31" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" t="s">
-        <v>111</v>
-      </c>
-      <c r="T1" t="s">
-        <v>117</v>
-      </c>
-      <c r="U1" t="s">
-        <v>118</v>
-      </c>
-      <c r="V1" t="s">
-        <v>119</v>
-      </c>
-      <c r="W1" t="s">
-        <v>125</v>
-      </c>
-      <c r="X1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>148</v>
-      </c>
       <c r="AF1" t="s">
         <v>150</v>
       </c>
@@ -14475,217 +15536,214 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T2" t="s">
+        <v>117</v>
+      </c>
+      <c r="U2" t="s">
+        <v>118</v>
+      </c>
+      <c r="V2" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" t="s">
+        <v>125</v>
+      </c>
+      <c r="X2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>148</v>
+      </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <f ca="1">OFFSET($B$4,0,AE2,1,1)</f>
+        <f ca="1">OFFSET($B$5,0,AE2,1,1)</f>
         <v>24.67</v>
       </c>
       <c r="AG2">
-        <f ca="1">OFFSET($B$10,0,AE2,1,1)</f>
+        <f ca="1">OFFSET($B$11,0,AE2,1,1)</f>
         <v>39.86</v>
       </c>
       <c r="AH2">
-        <f ca="1">OFFSET($B$14,0,AE2,1,1)</f>
+        <f ca="1">OFFSET($B$15,0,AE2,1,1)</f>
         <v>0.61418727199027134</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>20.149999999999999</v>
-      </c>
-      <c r="C3">
-        <v>11.42</v>
-      </c>
-      <c r="D3">
-        <v>22.65</v>
-      </c>
-      <c r="E3">
-        <v>23.23</v>
-      </c>
-      <c r="F3">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="G3">
-        <v>17.37</v>
-      </c>
-      <c r="H3">
-        <v>14.82</v>
-      </c>
-      <c r="I3">
-        <v>15.46</v>
-      </c>
-      <c r="J3">
-        <v>16.8</v>
-      </c>
-      <c r="K3">
-        <v>21</v>
-      </c>
-      <c r="L3">
-        <v>20.2</v>
-      </c>
-      <c r="M3">
-        <v>19.5</v>
-      </c>
-      <c r="N3">
-        <v>20.5</v>
-      </c>
-      <c r="O3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="P3">
-        <v>21.6</v>
-      </c>
-      <c r="Q3">
-        <v>21.3</v>
-      </c>
-      <c r="R3">
-        <v>21.4</v>
-      </c>
-      <c r="S3">
-        <v>11.2</v>
-      </c>
-      <c r="T3">
-        <v>21</v>
-      </c>
-      <c r="U3">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="V3">
-        <v>18.5</v>
-      </c>
-      <c r="W3">
-        <v>19.2</v>
-      </c>
-      <c r="X3">
-        <v>36.5</v>
-      </c>
-      <c r="Y3">
-        <v>18.5</v>
-      </c>
-      <c r="Z3">
-        <v>20.7</v>
-      </c>
-      <c r="AA3">
-        <v>21.2</v>
-      </c>
-      <c r="AB3">
-        <v>14.3</v>
-      </c>
-      <c r="AC3">
-        <v>23.8</v>
-      </c>
       <c r="AE3">
         <f>AE2+1</f>
         <v>1</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF29" ca="1" si="0">OFFSET($B$4,0,AE3,1,1)</f>
+        <f t="shared" ref="AF3:AF29" ca="1" si="0">OFFSET($B$5,0,AE3,1,1)</f>
         <v>23.51</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG29" ca="1" si="1">OFFSET($B$10,0,AE3,1,1)</f>
+        <f t="shared" ref="AG3:AG29" ca="1" si="1">OFFSET($B$11,0,AE3,1,1)</f>
         <v>31.68</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH29" ca="1" si="2">OFFSET($B$15,0,AE3,1,1)</f>
-        <v>-0.23399384687367081</v>
+        <v>0.44564015312632915</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>24.67</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="C4">
-        <v>23.51</v>
+        <v>11.42</v>
       </c>
       <c r="D4">
-        <v>21.26</v>
+        <v>22.65</v>
       </c>
       <c r="E4">
-        <v>38.08</v>
+        <v>23.23</v>
       </c>
       <c r="F4">
-        <v>44.07</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G4">
-        <v>50.05</v>
+        <v>17.37</v>
       </c>
       <c r="H4">
-        <v>25.88</v>
+        <v>14.82</v>
       </c>
       <c r="I4">
-        <v>53.53</v>
+        <v>15.46</v>
       </c>
       <c r="J4">
-        <v>42.5</v>
+        <v>16.8</v>
       </c>
       <c r="K4">
-        <v>20.399999999999999</v>
+        <v>21</v>
       </c>
       <c r="L4">
-        <v>29.5</v>
+        <v>20.2</v>
       </c>
       <c r="M4">
-        <v>30.3</v>
+        <v>19.5</v>
       </c>
       <c r="N4">
-        <v>26.6</v>
+        <v>20.5</v>
       </c>
       <c r="O4">
-        <v>24.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="P4">
-        <v>39.6</v>
+        <v>21.6</v>
       </c>
       <c r="Q4">
-        <v>38.5</v>
+        <v>21.3</v>
       </c>
       <c r="R4">
-        <v>37.299999999999997</v>
+        <v>21.4</v>
       </c>
       <c r="S4">
-        <v>26.9</v>
+        <v>11.2</v>
       </c>
       <c r="T4">
-        <v>30.6</v>
+        <v>21</v>
       </c>
       <c r="U4">
-        <v>46</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="V4">
-        <v>25.9</v>
+        <v>18.5</v>
       </c>
       <c r="W4">
-        <v>25.1</v>
+        <v>19.2</v>
       </c>
       <c r="X4">
-        <v>37.700000000000003</v>
+        <v>36.5</v>
       </c>
       <c r="Y4">
-        <v>45.2</v>
+        <v>18.5</v>
       </c>
       <c r="Z4">
-        <v>24.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA4">
-        <v>22.7</v>
+        <v>21.2</v>
       </c>
       <c r="AB4">
-        <v>21.4</v>
+        <v>14.3</v>
       </c>
       <c r="AC4">
-        <v>24.1</v>
+        <v>23.8</v>
       </c>
       <c r="AE4">
-        <f t="shared" ref="AE4:AE29" si="3">AE3+1</f>
+        <f t="shared" ref="AE4:AE30" si="3">AE3+1</f>
         <v>2</v>
       </c>
       <c r="AF4">
@@ -14698,96 +15756,99 @@
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.36174646472248362</v>
+        <v>0.33273753527751637</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>40.369999999999997</v>
+        <v>24.67</v>
       </c>
       <c r="C5">
-        <v>37.74</v>
+        <v>23.51</v>
       </c>
       <c r="D5">
-        <v>35.79</v>
+        <v>21.26</v>
       </c>
       <c r="E5">
-        <v>24.75</v>
+        <v>38.08</v>
       </c>
       <c r="F5">
-        <v>23.01</v>
+        <v>44.07</v>
       </c>
       <c r="G5">
-        <v>20.22</v>
+        <v>50.05</v>
       </c>
       <c r="H5">
-        <v>49.88</v>
+        <v>25.88</v>
       </c>
       <c r="I5">
-        <v>21.43</v>
+        <v>53.53</v>
       </c>
       <c r="J5">
-        <v>30.7</v>
+        <v>42.5</v>
       </c>
       <c r="K5">
-        <v>40.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L5">
-        <v>35.6</v>
+        <v>29.5</v>
       </c>
       <c r="M5">
-        <v>40.5</v>
+        <v>30.3</v>
       </c>
       <c r="N5">
-        <v>39.700000000000003</v>
+        <v>26.6</v>
       </c>
       <c r="O5">
-        <v>31.2</v>
+        <v>24.1</v>
       </c>
       <c r="P5">
-        <v>20</v>
+        <v>39.6</v>
       </c>
       <c r="Q5">
-        <v>22.8</v>
+        <v>38.5</v>
       </c>
       <c r="R5">
-        <v>31.9</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="S5">
-        <v>45.4</v>
+        <v>26.9</v>
       </c>
       <c r="T5">
-        <v>32.799999999999997</v>
+        <v>30.6</v>
       </c>
       <c r="U5">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="V5">
-        <v>47</v>
+        <v>25.9</v>
       </c>
       <c r="W5">
-        <v>43.6</v>
+        <v>25.1</v>
       </c>
       <c r="X5">
-        <v>18.5</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="Y5">
-        <v>26.4</v>
+        <v>45.2</v>
       </c>
       <c r="Z5">
-        <v>41</v>
+        <v>24.6</v>
       </c>
       <c r="AA5">
-        <v>56.1</v>
+        <v>22.7</v>
       </c>
       <c r="AB5">
-        <v>45.3</v>
+        <v>21.4</v>
       </c>
       <c r="AC5">
-        <v>43.8</v>
+        <v>24.1</v>
+      </c>
+      <c r="AD5">
+        <v>16.16</v>
       </c>
       <c r="AE5">
         <f t="shared" si="3"/>
@@ -14803,96 +15864,96 @@
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.23510015126050393</v>
+        <v>0.34837184873949606</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>9.49</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="C6">
-        <v>12.94</v>
+        <v>37.74</v>
       </c>
       <c r="D6">
-        <v>18.98</v>
+        <v>35.79</v>
       </c>
       <c r="E6">
-        <v>7.92</v>
+        <v>24.75</v>
       </c>
       <c r="F6">
-        <v>10.6</v>
+        <v>23.01</v>
       </c>
       <c r="G6">
-        <v>9.57</v>
+        <v>20.22</v>
       </c>
       <c r="H6">
-        <v>5.04</v>
+        <v>49.88</v>
       </c>
       <c r="I6">
-        <v>5.03</v>
+        <v>21.43</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>30.7</v>
       </c>
       <c r="K6">
-        <v>9.5</v>
+        <v>40.4</v>
       </c>
       <c r="L6">
-        <v>9.6</v>
+        <v>35.6</v>
       </c>
       <c r="M6">
-        <v>5.7</v>
+        <v>40.5</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="O6">
-        <v>11.2</v>
+        <v>31.2</v>
       </c>
       <c r="P6">
-        <v>15.6</v>
+        <v>20</v>
       </c>
       <c r="Q6">
-        <v>14.1</v>
+        <v>22.8</v>
       </c>
       <c r="R6">
-        <v>5.9</v>
+        <v>31.9</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>45.4</v>
       </c>
       <c r="T6">
-        <v>4.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="U6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V6">
-        <v>3.6</v>
+        <v>47</v>
       </c>
       <c r="W6">
-        <v>6.6</v>
+        <v>43.6</v>
       </c>
       <c r="X6">
-        <v>3.1</v>
+        <v>18.5</v>
       </c>
       <c r="Y6">
-        <v>3.4</v>
+        <v>26.4</v>
       </c>
       <c r="Z6">
-        <v>3.4</v>
+        <v>41</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>56.1</v>
       </c>
       <c r="AB6">
-        <v>5.6</v>
+        <v>45.3</v>
       </c>
       <c r="AC6">
-        <v>6</v>
+        <v>43.8</v>
       </c>
       <c r="AE6">
         <f t="shared" si="3"/>
@@ -14908,124 +15969,96 @@
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.28457789108236908</v>
+        <v>0.25936010891763095</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:N7" si="4">100-SUM(B3:B6)</f>
-        <v>5.3200000000000074</v>
+        <v>9.49</v>
       </c>
       <c r="C7">
-        <f t="shared" si="4"/>
-        <v>14.39</v>
+        <v>12.94</v>
       </c>
       <c r="D7">
-        <f t="shared" si="4"/>
-        <v>1.3200000000000074</v>
+        <v>18.98</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
-        <v>6.019999999999996</v>
+        <v>7.92</v>
       </c>
       <c r="F7">
-        <f t="shared" si="4"/>
-        <v>2.4200000000000017</v>
+        <v>10.6</v>
       </c>
       <c r="G7">
-        <f t="shared" si="4"/>
-        <v>2.789999999999992</v>
+        <v>9.57</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
-        <v>4.3799999999999812</v>
+        <v>5.04</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
-        <v>4.5499999999999829</v>
+        <v>5.03</v>
       </c>
       <c r="J7">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K7">
-        <f t="shared" si="4"/>
-        <v>8.7000000000000028</v>
+        <v>9.5</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
-        <v>5.0999999999999943</v>
+        <v>9.6</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
-        <v>8.1999999999999886</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:W7" si="5">100-SUM(O3:O6)</f>
-        <v>23.699999999999989</v>
+        <v>11.2</v>
       </c>
       <c r="P7">
-        <f t="shared" si="5"/>
-        <v>3.2000000000000028</v>
+        <v>15.6</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="5"/>
-        <v>3.3000000000000114</v>
+        <v>14.1</v>
       </c>
       <c r="R7">
-        <f t="shared" si="5"/>
-        <v>3.5</v>
+        <v>5.9</v>
       </c>
       <c r="S7">
-        <f t="shared" si="5"/>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <f t="shared" si="5"/>
-        <v>10.799999999999997</v>
+        <v>4.8</v>
       </c>
       <c r="U7">
-        <f t="shared" si="5"/>
-        <v>2.7000000000000028</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="W7">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="X7">
-        <f t="shared" ref="X7:AC7" si="6">100-SUM(X3:X6)</f>
-        <v>4.2000000000000028</v>
+        <v>3.1</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="6"/>
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="6"/>
-        <v>10.299999999999997</v>
+        <v>3.4</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="6"/>
-        <v>13.400000000000006</v>
+        <v>5.6</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="6"/>
-        <v>2.2999999999999972</v>
+        <v>6</v>
       </c>
       <c r="AE7">
         <f t="shared" si="3"/>
@@ -15041,10 +16074,125 @@
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.2417127572427572</v>
+        <v>0.26275724275724277</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:N8" si="4">100-SUM(B4:B7)</f>
+        <v>5.3200000000000074</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="4"/>
+        <v>14.39</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="4"/>
+        <v>1.3200000000000074</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>6.019999999999996</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>2.4200000000000017</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>2.789999999999992</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>4.3799999999999812</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>4.5499999999999829</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>5.0999999999999943</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>8.1999999999999886</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:W8" si="5">100-SUM(O4:O7)</f>
+        <v>23.699999999999989</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>3.2000000000000028</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>3.3000000000000114</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>16.5</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="5"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="X8">
+        <f t="shared" ref="X8:AC8" si="6">100-SUM(X4:X7)</f>
+        <v>4.2000000000000028</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="6"/>
+        <v>10.299999999999997</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="6"/>
+        <v>13.400000000000006</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="6"/>
+        <v>2.2999999999999972</v>
+      </c>
       <c r="AE8">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -15059,97 +16207,10 @@
       </c>
       <c r="AH8">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.41468751777434276</v>
+        <v>0.24930448222565724</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>43.77</v>
-      </c>
-      <c r="C9">
-        <v>41.42</v>
-      </c>
-      <c r="D9">
-        <v>51.21</v>
-      </c>
-      <c r="E9">
-        <v>65.510000000000005</v>
-      </c>
-      <c r="F9">
-        <v>67.78</v>
-      </c>
-      <c r="G9">
-        <v>72.12</v>
-      </c>
-      <c r="H9">
-        <v>37.130000000000003</v>
-      </c>
-      <c r="I9">
-        <v>72.11</v>
-      </c>
-      <c r="J9">
-        <v>60.7</v>
-      </c>
-      <c r="K9">
-        <v>41.1</v>
-      </c>
-      <c r="L9">
-        <v>49.1</v>
-      </c>
-      <c r="M9">
-        <v>50.1</v>
-      </c>
-      <c r="N9">
-        <v>48</v>
-      </c>
-      <c r="O9">
-        <v>48.8</v>
-      </c>
-      <c r="P9">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="Q9">
-        <v>64.7</v>
-      </c>
-      <c r="R9">
-        <v>59.8</v>
-      </c>
-      <c r="S9">
-        <v>42.1</v>
-      </c>
-      <c r="T9">
-        <v>56.1</v>
-      </c>
-      <c r="U9">
-        <v>58.2</v>
-      </c>
-      <c r="V9">
-        <v>42.6</v>
-      </c>
-      <c r="W9">
-        <v>42.6</v>
-      </c>
-      <c r="X9">
-        <v>58.2</v>
-      </c>
-      <c r="Y9">
-        <v>66.7</v>
-      </c>
-      <c r="Z9">
-        <v>50.6</v>
-      </c>
-      <c r="AA9">
-        <v>40.5</v>
-      </c>
-      <c r="AB9">
-        <v>42.8</v>
-      </c>
-      <c r="AC9">
-        <v>47.4</v>
-      </c>
       <c r="AE9">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -15164,96 +16225,96 @@
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.5228882122174288E-2</v>
+        <v>0.4462731178778257</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>39.86</v>
+        <v>43.77</v>
       </c>
       <c r="C10">
-        <v>31.68</v>
+        <v>41.42</v>
       </c>
       <c r="D10">
-        <v>34.18</v>
+        <v>51.21</v>
       </c>
       <c r="E10">
-        <v>41.09</v>
+        <v>65.510000000000005</v>
       </c>
       <c r="F10">
-        <v>34.659999999999997</v>
+        <v>67.78</v>
       </c>
       <c r="G10">
-        <v>33.83</v>
+        <v>72.12</v>
       </c>
       <c r="H10">
-        <v>24.47</v>
+        <v>37.130000000000003</v>
       </c>
       <c r="I10">
-        <v>42.63</v>
+        <v>72.11</v>
       </c>
       <c r="J10">
-        <v>36.799999999999997</v>
+        <v>60.7</v>
       </c>
       <c r="K10">
-        <v>36.6</v>
+        <v>41.1</v>
       </c>
       <c r="L10">
-        <v>41.1</v>
+        <v>49.1</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>50.1</v>
       </c>
       <c r="N10">
-        <v>40.299999999999997</v>
+        <v>48</v>
       </c>
       <c r="O10">
-        <v>32.200000000000003</v>
+        <v>48.8</v>
       </c>
       <c r="P10">
-        <v>43.1</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="Q10">
-        <v>39.1</v>
+        <v>64.7</v>
       </c>
       <c r="R10">
-        <v>38.299999999999997</v>
+        <v>59.8</v>
       </c>
       <c r="S10">
-        <v>27.9</v>
+        <v>42.1</v>
       </c>
       <c r="T10">
-        <v>39</v>
+        <v>56.1</v>
       </c>
       <c r="U10">
-        <v>38.9</v>
+        <v>58.2</v>
       </c>
       <c r="V10">
-        <v>34.799999999999997</v>
+        <v>42.6</v>
       </c>
       <c r="W10">
-        <v>34.799999999999997</v>
+        <v>42.6</v>
       </c>
       <c r="X10">
-        <v>49.9</v>
+        <v>58.2</v>
       </c>
       <c r="Y10">
-        <v>40.6</v>
+        <v>66.7</v>
       </c>
       <c r="Z10">
-        <v>34.799999999999997</v>
+        <v>50.6</v>
       </c>
       <c r="AA10">
-        <v>28.9</v>
+        <v>40.5</v>
       </c>
       <c r="AB10">
-        <v>32.1</v>
+        <v>42.8</v>
       </c>
       <c r="AC10">
-        <v>38.200000000000003</v>
+        <v>47.4</v>
       </c>
       <c r="AE10">
         <f t="shared" si="3"/>
@@ -15269,10 +16330,100 @@
       </c>
       <c r="AH10">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.16606470588235306</v>
+        <v>0.38823529411764696</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>39.86</v>
+      </c>
+      <c r="C11">
+        <v>31.68</v>
+      </c>
+      <c r="D11">
+        <v>34.18</v>
+      </c>
+      <c r="E11">
+        <v>41.09</v>
+      </c>
+      <c r="F11">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="G11">
+        <v>33.83</v>
+      </c>
+      <c r="H11">
+        <v>24.47</v>
+      </c>
+      <c r="I11">
+        <v>42.63</v>
+      </c>
+      <c r="J11">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="K11">
+        <v>36.6</v>
+      </c>
+      <c r="L11">
+        <v>41.1</v>
+      </c>
+      <c r="M11">
+        <v>35</v>
+      </c>
+      <c r="N11">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="O11">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="P11">
+        <v>43.1</v>
+      </c>
+      <c r="Q11">
+        <v>39.1</v>
+      </c>
+      <c r="R11">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="S11">
+        <v>27.9</v>
+      </c>
+      <c r="T11">
+        <v>39</v>
+      </c>
+      <c r="U11">
+        <v>38.9</v>
+      </c>
+      <c r="V11">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="W11">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="X11">
+        <v>49.9</v>
+      </c>
+      <c r="Y11">
+        <v>40.6</v>
+      </c>
+      <c r="Z11">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AA11">
+        <v>28.9</v>
+      </c>
+      <c r="AB11">
+        <v>32.1</v>
+      </c>
+      <c r="AC11">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="AD11">
+        <v>34.700000000000003</v>
+      </c>
       <c r="AE11">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -15287,125 +16438,10 @@
       </c>
       <c r="AH11">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.24182666666666658</v>
+        <v>0.45833333333333343</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ref="B12:I12" si="7">(B9-B4)/SUM(B5:B7)</f>
-        <v>0.34613990576295756</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="7"/>
-        <v>0.27524204702627941</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="7"/>
-        <v>0.53396327331075055</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="7"/>
-        <v>0.70896872576893277</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="7"/>
-        <v>0.65806272550652234</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="7"/>
-        <v>0.67740945365254801</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="7"/>
-        <v>0.18971332209106251</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="7"/>
-        <v>0.59916156078684324</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ref="J12:AC12" si="8">(J9-J4)/SUM(J5:J7)</f>
-        <v>0.44717444717444721</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="8"/>
-        <v>0.35324232081911267</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="8"/>
-        <v>0.38966202783300202</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="8"/>
-        <v>0.39442231075697209</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="8"/>
-        <v>0.40453686200378075</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="8"/>
-        <v>0.37367624810892586</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="8"/>
-        <v>0.69587628865979356</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="8"/>
-        <v>0.65174129353233823</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="8"/>
-        <v>0.5447941888619855</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="8"/>
-        <v>0.24555735056542816</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="8"/>
-        <v>0.52685950413223148</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="8"/>
-        <v>0.77707006369426757</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="8"/>
-        <v>0.30035971223021585</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="8"/>
-        <v>0.31418312387791741</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="8"/>
-        <v>0.79457364341085257</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="8"/>
-        <v>0.59228650137741057</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="8"/>
-        <v>0.47531992687385743</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="8"/>
-        <v>0.31729055258467026</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="8"/>
-        <v>0.33281493001555201</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="8"/>
-        <v>0.44721689059500958</v>
-      </c>
       <c r="AE12">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -15420,124 +16456,124 @@
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="2"/>
-        <v>-8.315084745762702E-2</v>
+        <v>0.55694915254237298</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:I13" si="9">B6*0.2+B7*0.5</f>
-        <v>4.5580000000000034</v>
+        <f t="shared" ref="B13:I13" si="7">(B10-B5)/SUM(B6:B8)</f>
+        <v>0.34613990576295756</v>
       </c>
       <c r="C13">
-        <f t="shared" si="9"/>
-        <v>9.7830000000000013</v>
+        <f t="shared" si="7"/>
+        <v>0.27524204702627941</v>
       </c>
       <c r="D13">
-        <f t="shared" si="9"/>
-        <v>4.456000000000004</v>
+        <f t="shared" si="7"/>
+        <v>0.53396327331075055</v>
       </c>
       <c r="E13">
-        <f t="shared" si="9"/>
-        <v>4.5939999999999976</v>
+        <f t="shared" si="7"/>
+        <v>0.70896872576893277</v>
       </c>
       <c r="F13">
-        <f t="shared" si="9"/>
-        <v>3.330000000000001</v>
+        <f t="shared" si="7"/>
+        <v>0.65806272550652234</v>
       </c>
       <c r="G13">
-        <f t="shared" si="9"/>
-        <v>3.3089999999999962</v>
+        <f t="shared" si="7"/>
+        <v>0.67740945365254801</v>
       </c>
       <c r="H13">
-        <f t="shared" si="9"/>
-        <v>3.1979999999999906</v>
+        <f t="shared" si="7"/>
+        <v>0.18971332209106251</v>
       </c>
       <c r="I13">
-        <f t="shared" si="9"/>
-        <v>3.2809999999999917</v>
+        <f t="shared" si="7"/>
+        <v>0.59916156078684324</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:AC13" si="10">J6*0.2+J7*0.5</f>
-        <v>3.5</v>
+        <f t="shared" ref="J13:AC13" si="8">(J10-J5)/SUM(J6:J8)</f>
+        <v>0.44717444717444721</v>
       </c>
       <c r="K13">
-        <f t="shared" si="10"/>
-        <v>6.2500000000000018</v>
+        <f t="shared" si="8"/>
+        <v>0.35324232081911267</v>
       </c>
       <c r="L13">
-        <f t="shared" si="10"/>
-        <v>4.4699999999999971</v>
+        <f t="shared" si="8"/>
+        <v>0.38966202783300202</v>
       </c>
       <c r="M13">
-        <f t="shared" si="10"/>
-        <v>3.14</v>
+        <f t="shared" si="8"/>
+        <v>0.39442231075697209</v>
       </c>
       <c r="N13">
-        <f t="shared" si="10"/>
-        <v>5.0999999999999943</v>
+        <f t="shared" si="8"/>
+        <v>0.40453686200378075</v>
       </c>
       <c r="O13">
-        <f t="shared" si="10"/>
-        <v>14.089999999999995</v>
+        <f t="shared" si="8"/>
+        <v>0.37367624810892586</v>
       </c>
       <c r="P13">
-        <f t="shared" si="10"/>
-        <v>4.7200000000000015</v>
+        <f t="shared" si="8"/>
+        <v>0.69587628865979356</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="10"/>
-        <v>4.470000000000006</v>
+        <f t="shared" si="8"/>
+        <v>0.65174129353233823</v>
       </c>
       <c r="R13">
-        <f t="shared" si="10"/>
-        <v>2.93</v>
+        <f t="shared" si="8"/>
+        <v>0.5447941888619855</v>
       </c>
       <c r="S13">
-        <f t="shared" si="10"/>
-        <v>8.25</v>
+        <f t="shared" si="8"/>
+        <v>0.24555735056542816</v>
       </c>
       <c r="T13">
-        <f t="shared" si="10"/>
-        <v>6.3599999999999985</v>
+        <f t="shared" si="8"/>
+        <v>0.52685950413223148</v>
       </c>
       <c r="U13">
-        <f t="shared" si="10"/>
-        <v>1.9500000000000015</v>
+        <f t="shared" si="8"/>
+        <v>0.77707006369426757</v>
       </c>
       <c r="V13">
-        <f t="shared" si="10"/>
-        <v>3.22</v>
+        <f t="shared" si="8"/>
+        <v>0.30035971223021585</v>
       </c>
       <c r="W13">
-        <f t="shared" si="10"/>
-        <v>4.07</v>
+        <f t="shared" si="8"/>
+        <v>0.31418312387791741</v>
       </c>
       <c r="X13">
-        <f t="shared" si="10"/>
-        <v>2.7200000000000015</v>
+        <f t="shared" si="8"/>
+        <v>0.79457364341085257</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="10"/>
-        <v>3.93</v>
+        <f t="shared" si="8"/>
+        <v>0.59228650137741057</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="10"/>
-        <v>5.8299999999999983</v>
+        <f t="shared" si="8"/>
+        <v>0.47531992687385743</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.31729055258467026</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="10"/>
-        <v>7.8200000000000029</v>
+        <f t="shared" si="8"/>
+        <v>0.33281493001555201</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="10"/>
-        <v>2.3499999999999988</v>
+        <f t="shared" si="8"/>
+        <v>0.44721689059500958</v>
       </c>
       <c r="AE13">
         <f t="shared" si="3"/>
@@ -15553,124 +16589,124 @@
       </c>
       <c r="AH13">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.22689920792079205</v>
+        <v>0.40792079207920789</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:AC14" si="11">(B10-B13-B3)/B4</f>
-        <v>0.61418727199027134</v>
+        <f t="shared" ref="B14:I14" si="9">B7*0.2+B8*0.5</f>
+        <v>4.5580000000000034</v>
       </c>
       <c r="C14">
-        <f t="shared" si="11"/>
-        <v>0.44564015312632915</v>
+        <f t="shared" si="9"/>
+        <v>9.7830000000000013</v>
       </c>
       <c r="D14">
-        <f t="shared" si="11"/>
-        <v>0.33273753527751637</v>
+        <f t="shared" si="9"/>
+        <v>4.456000000000004</v>
       </c>
       <c r="E14">
-        <f t="shared" si="11"/>
-        <v>0.34837184873949606</v>
+        <f t="shared" si="9"/>
+        <v>4.5939999999999976</v>
       </c>
       <c r="F14">
-        <f t="shared" si="11"/>
-        <v>0.25936010891763095</v>
+        <f t="shared" si="9"/>
+        <v>3.330000000000001</v>
       </c>
       <c r="G14">
-        <f t="shared" si="11"/>
-        <v>0.26275724275724277</v>
+        <f t="shared" si="9"/>
+        <v>3.3089999999999962</v>
       </c>
       <c r="H14">
-        <f t="shared" si="11"/>
-        <v>0.24930448222565724</v>
+        <f t="shared" si="9"/>
+        <v>3.1979999999999906</v>
       </c>
       <c r="I14">
-        <f t="shared" si="11"/>
-        <v>0.4462731178778257</v>
+        <f t="shared" si="9"/>
+        <v>3.2809999999999917</v>
       </c>
       <c r="J14">
-        <f t="shared" si="11"/>
-        <v>0.38823529411764696</v>
+        <f t="shared" ref="J14:AC14" si="10">J7*0.2+J8*0.5</f>
+        <v>3.5</v>
       </c>
       <c r="K14">
-        <f t="shared" si="11"/>
-        <v>0.45833333333333343</v>
+        <f t="shared" si="10"/>
+        <v>6.2500000000000018</v>
       </c>
       <c r="L14">
-        <f t="shared" si="11"/>
-        <v>0.55694915254237298</v>
+        <f t="shared" si="10"/>
+        <v>4.4699999999999971</v>
       </c>
       <c r="M14">
-        <f t="shared" si="11"/>
-        <v>0.40792079207920789</v>
+        <f t="shared" si="10"/>
+        <v>3.14</v>
       </c>
       <c r="N14">
-        <f t="shared" si="11"/>
-        <v>0.55263157894736847</v>
+        <f t="shared" si="10"/>
+        <v>5.0999999999999943</v>
       </c>
       <c r="O14">
-        <f t="shared" si="11"/>
-        <v>0.34481327800829897</v>
+        <f t="shared" si="10"/>
+        <v>14.089999999999995</v>
       </c>
       <c r="P14">
-        <f t="shared" si="11"/>
-        <v>0.42373737373737375</v>
+        <f t="shared" si="10"/>
+        <v>4.7200000000000015</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="11"/>
-        <v>0.34623376623376612</v>
+        <f t="shared" si="10"/>
+        <v>4.470000000000006</v>
       </c>
       <c r="R14">
-        <f t="shared" si="11"/>
-        <v>0.37453083109919572</v>
+        <f t="shared" si="10"/>
+        <v>2.93</v>
       </c>
       <c r="S14">
-        <f t="shared" si="11"/>
-        <v>0.31412639405204462</v>
+        <f t="shared" si="10"/>
+        <v>8.25</v>
       </c>
       <c r="T14">
-        <f t="shared" si="11"/>
-        <v>0.38039215686274508</v>
+        <f t="shared" si="10"/>
+        <v>6.3599999999999985</v>
       </c>
       <c r="U14">
-        <f t="shared" si="11"/>
-        <v>-2.9347826086956554E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.9500000000000015</v>
       </c>
       <c r="V14">
-        <f t="shared" si="11"/>
-        <v>0.50501930501930503</v>
+        <f t="shared" si="10"/>
+        <v>3.22</v>
       </c>
       <c r="W14">
-        <f t="shared" si="11"/>
-        <v>0.45936254980079672</v>
+        <f t="shared" si="10"/>
+        <v>4.07</v>
       </c>
       <c r="X14">
-        <f t="shared" si="11"/>
-        <v>0.28328912466843498</v>
+        <f t="shared" si="10"/>
+        <v>2.7200000000000015</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="11"/>
-        <v>0.40199115044247791</v>
+        <f t="shared" si="10"/>
+        <v>3.93</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="11"/>
-        <v>0.33617886178861783</v>
+        <f t="shared" si="10"/>
+        <v>5.8299999999999983</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="11"/>
-        <v>0.33920704845814975</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="11"/>
-        <v>0.46635514018691576</v>
+        <f t="shared" si="10"/>
+        <v>7.8200000000000029</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
+        <f t="shared" si="10"/>
+        <v>2.3499999999999988</v>
       </c>
       <c r="AE14">
         <f t="shared" si="3"/>
@@ -15686,124 +16722,124 @@
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.10660842105263146</v>
+        <v>0.55263157894736847</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:AC15" si="12">B14-((-0.0066*B4)+0.8348)</f>
-        <v>-5.779072800972862E-2</v>
+        <f t="shared" ref="B15:AC15" si="11">(B11-B14-B4)/B5</f>
+        <v>0.61418727199027134</v>
       </c>
       <c r="C15">
-        <f t="shared" si="12"/>
-        <v>-0.23399384687367081</v>
+        <f t="shared" si="11"/>
+        <v>0.44564015312632915</v>
       </c>
       <c r="D15">
-        <f t="shared" si="12"/>
-        <v>-0.36174646472248362</v>
+        <f t="shared" si="11"/>
+        <v>0.33273753527751637</v>
       </c>
       <c r="E15">
-        <f t="shared" si="12"/>
-        <v>-0.23510015126050393</v>
+        <f t="shared" si="11"/>
+        <v>0.34837184873949606</v>
       </c>
       <c r="F15">
-        <f t="shared" si="12"/>
-        <v>-0.28457789108236908</v>
+        <f t="shared" si="11"/>
+        <v>0.25936010891763095</v>
       </c>
       <c r="G15">
-        <f t="shared" si="12"/>
-        <v>-0.2417127572427572</v>
+        <f t="shared" si="11"/>
+        <v>0.26275724275724277</v>
       </c>
       <c r="H15">
-        <f t="shared" si="12"/>
-        <v>-0.41468751777434276</v>
+        <f t="shared" si="11"/>
+        <v>0.24930448222565724</v>
       </c>
       <c r="I15">
-        <f t="shared" si="12"/>
-        <v>-3.5228882122174288E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.4462731178778257</v>
       </c>
       <c r="J15">
-        <f t="shared" si="12"/>
-        <v>-0.16606470588235306</v>
+        <f t="shared" si="11"/>
+        <v>0.38823529411764696</v>
       </c>
       <c r="K15">
-        <f t="shared" si="12"/>
-        <v>-0.24182666666666658</v>
+        <f t="shared" si="11"/>
+        <v>0.45833333333333343</v>
       </c>
       <c r="L15">
-        <f t="shared" si="12"/>
-        <v>-8.315084745762702E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.55694915254237298</v>
       </c>
       <c r="M15">
-        <f t="shared" si="12"/>
-        <v>-0.22689920792079205</v>
+        <f t="shared" si="11"/>
+        <v>0.40792079207920789</v>
       </c>
       <c r="N15">
-        <f t="shared" si="12"/>
-        <v>-0.10660842105263146</v>
+        <f t="shared" si="11"/>
+        <v>0.55263157894736847</v>
       </c>
       <c r="O15">
-        <f t="shared" si="12"/>
-        <v>-0.33092672199170103</v>
+        <f t="shared" si="11"/>
+        <v>0.34481327800829897</v>
       </c>
       <c r="P15">
-        <f t="shared" si="12"/>
-        <v>-0.1497026262626262</v>
+        <f t="shared" si="11"/>
+        <v>0.42373737373737375</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="12"/>
-        <v>-0.23446623376623388</v>
+        <f t="shared" si="11"/>
+        <v>0.34623376623376612</v>
       </c>
       <c r="R15">
-        <f t="shared" si="12"/>
-        <v>-0.21408916890080432</v>
+        <f t="shared" si="11"/>
+        <v>0.37453083109919572</v>
       </c>
       <c r="S15">
-        <f t="shared" si="12"/>
-        <v>-0.34313360594795533</v>
+        <f t="shared" si="11"/>
+        <v>0.31412639405204462</v>
       </c>
       <c r="T15">
-        <f t="shared" si="12"/>
-        <v>-0.25244784313725488</v>
+        <f t="shared" si="11"/>
+        <v>0.38039215686274508</v>
       </c>
       <c r="U15">
-        <f t="shared" si="12"/>
-        <v>-0.56054782608695652</v>
+        <f t="shared" si="11"/>
+        <v>-2.9347826086956554E-2</v>
       </c>
       <c r="V15">
-        <f t="shared" si="12"/>
-        <v>-0.15884069498069497</v>
+        <f t="shared" si="11"/>
+        <v>0.50501930501930503</v>
       </c>
       <c r="W15">
-        <f t="shared" si="12"/>
-        <v>-0.20977745019920324</v>
+        <f t="shared" si="11"/>
+        <v>0.45936254980079672</v>
       </c>
       <c r="X15">
-        <f t="shared" si="12"/>
-        <v>-0.30269087533156497</v>
+        <f t="shared" si="11"/>
+        <v>0.28328912466843498</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="12"/>
-        <v>-0.13448884955752205</v>
+        <f t="shared" si="11"/>
+        <v>0.40199115044247791</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="12"/>
-        <v>-0.33626113821138209</v>
+        <f t="shared" si="11"/>
+        <v>0.33617886178861783</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="12"/>
-        <v>-0.34577295154185028</v>
+        <f t="shared" si="11"/>
+        <v>0.33920704845814975</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="12"/>
-        <v>-0.22720485981308419</v>
+        <f t="shared" si="11"/>
+        <v>0.46635514018691576</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="12"/>
-        <v>-0.17574000000000001</v>
+        <f t="shared" si="11"/>
+        <v>0.5</v>
       </c>
       <c r="AE15">
         <f t="shared" si="3"/>
@@ -15819,124 +16855,124 @@
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.33092672199170103</v>
+        <v>0.34481327800829897</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <f t="shared" ref="B16:I16" si="13">B4*-0.0081+0.8982+B10*0.0188-0.7434</f>
-        <v>0.70434100000000022</v>
+        <f t="shared" ref="B16:AC16" si="12">B15-((-0.0066*B5)+0.8348)</f>
+        <v>-5.779072800972862E-2</v>
       </c>
       <c r="C16">
-        <f t="shared" si="13"/>
-        <v>0.55995300000000003</v>
+        <f t="shared" si="12"/>
+        <v>-0.23399384687367081</v>
       </c>
       <c r="D16">
-        <f t="shared" si="13"/>
-        <v>0.62517800000000012</v>
+        <f t="shared" si="12"/>
+        <v>-0.36174646472248362</v>
       </c>
       <c r="E16">
-        <f t="shared" si="13"/>
-        <v>0.61884400000000006</v>
+        <f t="shared" si="12"/>
+        <v>-0.23510015126050393</v>
       </c>
       <c r="F16">
-        <f t="shared" si="13"/>
-        <v>0.44944100000000009</v>
+        <f t="shared" si="12"/>
+        <v>-0.28457789108236908</v>
       </c>
       <c r="G16">
-        <f t="shared" si="13"/>
-        <v>0.38539900000000016</v>
+        <f t="shared" si="12"/>
+        <v>-0.2417127572427572</v>
       </c>
       <c r="H16">
-        <f t="shared" si="13"/>
-        <v>0.4052079999999999</v>
+        <f t="shared" si="12"/>
+        <v>-0.41468751777434276</v>
       </c>
       <c r="I16">
-        <f t="shared" si="13"/>
-        <v>0.52265100000000009</v>
+        <f t="shared" si="12"/>
+        <v>-3.5228882122174288E-2</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:AC16" si="14">J4*-0.0081+0.8982+J10*0.0188-0.7434</f>
-        <v>0.50239</v>
+        <f t="shared" si="12"/>
+        <v>-0.16606470588235306</v>
       </c>
       <c r="K16">
-        <f t="shared" si="14"/>
-        <v>0.67764000000000013</v>
+        <f t="shared" si="12"/>
+        <v>-0.24182666666666658</v>
       </c>
       <c r="L16">
-        <f t="shared" si="14"/>
-        <v>0.68852999999999998</v>
+        <f t="shared" si="12"/>
+        <v>-8.315084745762702E-2</v>
       </c>
       <c r="M16">
-        <f t="shared" si="14"/>
-        <v>0.56737000000000026</v>
+        <f t="shared" si="12"/>
+        <v>-0.22689920792079205</v>
       </c>
       <c r="N16">
-        <f t="shared" si="14"/>
-        <v>0.69698000000000004</v>
+        <f t="shared" si="12"/>
+        <v>-0.10660842105263146</v>
       </c>
       <c r="O16">
-        <f t="shared" si="14"/>
-        <v>0.56495000000000017</v>
+        <f t="shared" si="12"/>
+        <v>-0.33092672199170103</v>
       </c>
       <c r="P16">
-        <f t="shared" si="14"/>
-        <v>0.64432000000000011</v>
+        <f t="shared" si="12"/>
+        <v>-0.1497026262626262</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="14"/>
-        <v>0.57803000000000015</v>
+        <f t="shared" si="12"/>
+        <v>-0.23446623376623388</v>
       </c>
       <c r="R16">
-        <f t="shared" si="14"/>
-        <v>0.57271000000000016</v>
+        <f t="shared" si="12"/>
+        <v>-0.21408916890080432</v>
       </c>
       <c r="S16">
-        <f t="shared" si="14"/>
-        <v>0.4614299999999999</v>
+        <f t="shared" si="12"/>
+        <v>-0.34313360594795533</v>
       </c>
       <c r="T16">
-        <f t="shared" si="14"/>
-        <v>0.64014000000000004</v>
+        <f t="shared" si="12"/>
+        <v>-0.25244784313725488</v>
       </c>
       <c r="U16">
-        <f t="shared" si="14"/>
-        <v>0.51352000000000009</v>
+        <f t="shared" si="12"/>
+        <v>-0.56054782608695652</v>
       </c>
       <c r="V16">
-        <f t="shared" si="14"/>
-        <v>0.59924999999999995</v>
+        <f t="shared" si="12"/>
+        <v>-0.15884069498069497</v>
       </c>
       <c r="W16">
-        <f t="shared" si="14"/>
-        <v>0.60572999999999999</v>
+        <f t="shared" si="12"/>
+        <v>-0.20977745019920324</v>
       </c>
       <c r="X16">
-        <f t="shared" si="14"/>
-        <v>0.78755000000000008</v>
+        <f t="shared" si="12"/>
+        <v>-0.30269087533156497</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="14"/>
-        <v>0.55196000000000012</v>
+        <f t="shared" si="12"/>
+        <v>-0.13448884955752205</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="14"/>
-        <v>0.6097800000000001</v>
+        <f t="shared" si="12"/>
+        <v>-0.33626113821138209</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="14"/>
-        <v>0.51424999999999998</v>
+        <f t="shared" si="12"/>
+        <v>-0.34577295154185028</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="14"/>
-        <v>0.58494000000000013</v>
+        <f t="shared" si="12"/>
+        <v>-0.22720485981308419</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="14"/>
-        <v>0.67775000000000019</v>
+        <f t="shared" si="12"/>
+        <v>-0.17574000000000001</v>
       </c>
       <c r="AE16">
         <f t="shared" si="3"/>
@@ -15952,10 +16988,129 @@
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.1497026262626262</v>
+        <v>0.42373737373737375</v>
       </c>
     </row>
-    <row r="17" spans="31:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <f>B5*-0.00788+0.243179+B11*0.010781</f>
+        <v>0.47851006000000007</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:AD17" si="13">C5*-0.00788+0.243179+C11*0.010781</f>
+        <v>0.39946228000000006</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="13"/>
+        <v>0.44414478000000002</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="13"/>
+        <v>0.38609989000000011</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="13"/>
+        <v>0.26957686000000003</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="13"/>
+        <v>0.21350623000000005</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="13"/>
+        <v>0.30305567</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="13"/>
+        <v>0.28095663000000004</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="13"/>
+        <v>0.30501980000000006</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="13"/>
+        <v>0.47701160000000009</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="13"/>
+        <v>0.4538181</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="13"/>
+        <v>0.38175000000000003</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="13"/>
+        <v>0.4680453</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="13"/>
+        <v>0.40041920000000009</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="13"/>
+        <v>0.39579210000000009</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="13"/>
+        <v>0.36133610000000005</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="13"/>
+        <v>0.36216730000000008</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="13"/>
+        <v>0.33199690000000004</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="13"/>
+        <v>0.42251000000000005</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="13"/>
+        <v>0.30007990000000007</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="13"/>
+        <v>0.41426580000000002</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="13"/>
+        <v>0.42056979999999999</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="13"/>
+        <v>0.48407490000000009</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="13"/>
+        <v>0.3247116000000001</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="13"/>
+        <v>0.42450979999999994</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="13"/>
+        <v>0.37587389999999998</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="13"/>
+        <v>0.42061710000000008</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="13"/>
+        <v>0.4651052</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="13"/>
+        <v>0.48993890000000007</v>
+      </c>
       <c r="AE17">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -15970,10 +17125,10 @@
       </c>
       <c r="AH17">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.23446623376623388</v>
+        <v>0.34623376623376612</v>
       </c>
     </row>
-    <row r="18" spans="31:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AE18">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -15988,10 +17143,10 @@
       </c>
       <c r="AH18">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.21408916890080432</v>
+        <v>0.37453083109919572</v>
       </c>
     </row>
-    <row r="19" spans="31:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AE19">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -16006,10 +17161,10 @@
       </c>
       <c r="AH19">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.34313360594795533</v>
+        <v>0.31412639405204462</v>
       </c>
     </row>
-    <row r="20" spans="31:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AE20">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -16024,10 +17179,10 @@
       </c>
       <c r="AH20">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.25244784313725488</v>
+        <v>0.38039215686274508</v>
       </c>
     </row>
-    <row r="21" spans="31:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AE21">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -16042,10 +17197,10 @@
       </c>
       <c r="AH21">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.56054782608695652</v>
+        <v>-2.9347826086956554E-2</v>
       </c>
     </row>
-    <row r="22" spans="31:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AE22">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -16060,10 +17215,10 @@
       </c>
       <c r="AH22">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.15884069498069497</v>
+        <v>0.50501930501930503</v>
       </c>
     </row>
-    <row r="23" spans="31:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AE23">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -16078,10 +17233,10 @@
       </c>
       <c r="AH23">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.20977745019920324</v>
+        <v>0.45936254980079672</v>
       </c>
     </row>
-    <row r="24" spans="31:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AE24">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -16096,10 +17251,10 @@
       </c>
       <c r="AH24">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.30269087533156497</v>
+        <v>0.28328912466843498</v>
       </c>
     </row>
-    <row r="25" spans="31:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AE25">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -16114,10 +17269,10 @@
       </c>
       <c r="AH25">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.13448884955752205</v>
+        <v>0.40199115044247791</v>
       </c>
     </row>
-    <row r="26" spans="31:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AE26">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -16132,10 +17287,10 @@
       </c>
       <c r="AH26">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.33626113821138209</v>
+        <v>0.33617886178861783</v>
       </c>
     </row>
-    <row r="27" spans="31:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AE27">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -16150,10 +17305,10 @@
       </c>
       <c r="AH27">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.34577295154185028</v>
+        <v>0.33920704845814975</v>
       </c>
     </row>
-    <row r="28" spans="31:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AE28">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -16168,10 +17323,10 @@
       </c>
       <c r="AH28">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.22720485981308419</v>
+        <v>0.46635514018691576</v>
       </c>
     </row>
-    <row r="29" spans="31:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AE29">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -16186,10 +17341,11 @@
       </c>
       <c r="AH29">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.17574000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ind-major preferencing.xlsx
+++ b/Ind-major preferencing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\source\repos\Polling Analyser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAE8AD2-66AE-4039-A35F-ACA5DB3393C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000A52DC-8A27-4737-9413-EB0BA092C103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="4725" windowWidth="19800" windowHeight="14655" firstSheet="1" activeTab="3" xr2:uid="{A68543AE-A11D-4AA7-B656-18DD4E512950}"/>
+    <workbookView xWindow="4995" yWindow="7395" windowWidth="19800" windowHeight="11475" firstSheet="1" activeTab="3" xr2:uid="{A68543AE-A11D-4AA7-B656-18DD4E512950}"/>
   </bookViews>
   <sheets>
     <sheet name="LNP seat regression" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -14179,7 +14180,7 @@
         <v>0.66861000000000004</v>
       </c>
       <c r="CL17">
-        <f t="shared" ref="CL17:CX17" si="27">CL5*-0.0081+0.8982+CL11*0.0188-0.7434</f>
+        <f t="shared" ref="CL17:CT17" si="27">CL5*-0.0081+0.8982+CL11*0.0188-0.7434</f>
         <v>0.40631000000000006</v>
       </c>
       <c r="CM17">
@@ -15743,7 +15744,7 @@
         <v>23.8</v>
       </c>
       <c r="AE4">
-        <f t="shared" ref="AE4:AE30" si="3">AE3+1</f>
+        <f t="shared" ref="AE4:AE29" si="3">AE3+1</f>
         <v>2</v>
       </c>
       <c r="AF4">

--- a/Ind-major preferencing.xlsx
+++ b/Ind-major preferencing.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\danny\source\repos\Polling Analyser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djhir\source\repos\Polling Analyser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB07F874-D0B7-4DD5-8A38-58E2002E8C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05134FEE-18EC-46B5-B1D4-AA68A22F8EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="2040" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="2" xr2:uid="{A68543AE-A11D-4AA7-B656-18DD4E512950}"/>
+    <workbookView xWindow="16920" yWindow="3090" windowWidth="20910" windowHeight="17010" firstSheet="1" activeTab="4" xr2:uid="{A68543AE-A11D-4AA7-B656-18DD4E512950}"/>
   </bookViews>
   <sheets>
     <sheet name="LNP seat regression" sheetId="5" r:id="rId1"/>
     <sheet name="ALP seat regression (fixed)" sheetId="11" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Ind-LNP pref flows" sheetId="1" r:id="rId3"/>
+    <sheet name="Ind-ALP pref flows" sheetId="2" r:id="rId4"/>
+    <sheet name="Ind characteristics" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="206">
   <si>
     <t>Coal</t>
   </si>
@@ -342,9 +343,6 @@
     <t>Albury 2003</t>
   </si>
   <si>
-    <t>Sydney 2003</t>
-  </si>
-  <si>
     <t>Dubbo 2003</t>
   </si>
   <si>
@@ -357,12 +355,6 @@
     <t>Pt Macq 2003</t>
   </si>
   <si>
-    <t>T'worth 203</t>
-  </si>
-  <si>
-    <t>Willoughby</t>
-  </si>
-  <si>
     <t>Albury 1999</t>
   </si>
   <si>
@@ -438,9 +430,6 @@
     <t>Fisher 2006</t>
   </si>
   <si>
-    <t>Mtchell 2006</t>
-  </si>
-  <si>
     <t>Mt Gamb 2006</t>
   </si>
   <si>
@@ -585,19 +574,88 @@
     <t>Percentile</t>
   </si>
   <si>
-    <t>Kavel</t>
-  </si>
-  <si>
     <t>Flin's SA 2022</t>
   </si>
   <si>
     <t>Mt Gamb 2022</t>
   </si>
   <si>
-    <t>Narungga</t>
-  </si>
-  <si>
     <t>Stuart 2022</t>
+  </si>
+  <si>
+    <t>Major incumbent change</t>
+  </si>
+  <si>
+    <t>Defection</t>
+  </si>
+  <si>
+    <t>Ind Inc</t>
+  </si>
+  <si>
+    <t>Narungga 2022</t>
+  </si>
+  <si>
+    <t>Kavel 2022</t>
+  </si>
+  <si>
+    <t>Retirement</t>
+  </si>
+  <si>
+    <t>By-election</t>
+  </si>
+  <si>
+    <t>By-election Inc</t>
+  </si>
+  <si>
+    <t>By-election (M win)</t>
+  </si>
+  <si>
+    <t>T'worth 2003</t>
+  </si>
+  <si>
+    <t>New District</t>
+  </si>
+  <si>
+    <t>Willoughby 2003</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>(Special)</t>
+  </si>
+  <si>
+    <t>Bligh 2003</t>
+  </si>
+  <si>
+    <t>Mitchell 2006</t>
+  </si>
+  <si>
+    <t>New seat</t>
+  </si>
+  <si>
+    <t>No factors</t>
+  </si>
+  <si>
+    <t>Flinders (SA) 2022</t>
+  </si>
+  <si>
+    <t>Shepparton 2014</t>
+  </si>
+  <si>
+    <t>Warringah 2019</t>
+  </si>
+  <si>
+    <t>New England 2016</t>
+  </si>
+  <si>
+    <t>Shepparton 1999</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Median</t>
   </si>
 </sst>
 </file>
@@ -661,15 +719,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -678,7 +734,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,7 +881,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$CS$5</c:f>
+              <c:f>'Ind-LNP pref flows'!$B$5:$CS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -1120,7 +1175,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$CS$10</c:f>
+              <c:f>'Ind-LNP pref flows'!$B$10:$CS$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -1705,7 +1760,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$BS$5</c:f>
+              <c:f>'Ind-LNP pref flows'!$B$5:$BS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -1924,7 +1979,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$BS$15</c:f>
+              <c:f>'Ind-LNP pref flows'!$B$15:$BS$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -2435,7 +2490,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$BS$11</c:f>
+              <c:f>'Ind-LNP pref flows'!$B$11:$BS$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -2654,7 +2709,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$BS$16</c:f>
+              <c:f>'Ind-LNP pref flows'!$B$16:$BS$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -3166,7 +3221,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$BS$11</c:f>
+              <c:f>'Ind-LNP pref flows'!$B$11:$BS$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -3385,7 +3440,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$BS$15</c:f>
+              <c:f>'Ind-LNP pref flows'!$B$15:$BS$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -3897,7 +3952,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$BS$5</c:f>
+              <c:f>'Ind-LNP pref flows'!$B$5:$BS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -4116,7 +4171,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$BS$18</c:f>
+              <c:f>'Ind-LNP pref flows'!$B$18:$BS$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -4685,7 +4740,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$5:$AC$5</c:f>
+              <c:f>'Ind-ALP pref flows'!$B$5:$AC$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4778,7 +4833,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$10:$AC$10</c:f>
+              <c:f>'Ind-ALP pref flows'!$B$10:$AC$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -8598,16 +8653,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>109538</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8638,9 +8693,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8678,7 +8733,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8784,7 +8839,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8926,7 +8981,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8944,241 +8999,239 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="A3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4">
         <v>0.72572178186591341</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5">
         <v>0.52667210467463632</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6">
         <v>0.5114034628899472</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7">
         <v>0.1037442841983575</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="1">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>0.74250308580941193</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>0.37125154290470597</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>34.493710187291462</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>8.5118723921168976E-11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>62</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>0.66729834323743331</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>1.0762876503829569E-2</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="1">
         <v>64</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>1.4098014290468452</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="H16" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="I16" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="A17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17">
         <v>4.5032830972013493E-2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>6.6306515255003654E-2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>0.67916147906167046</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>0.49956319481473421</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>-8.7512004416478079E-2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>0.17757766636050507</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17">
         <v>-8.7512004416478079E-2</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>0.17757766636050507</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18">
         <v>-2.6752646019232501E-3</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>1.0659848862840538E-3</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>-2.5096646644297453</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>1.4710217586629444E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>-4.8061380271931398E-3</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18">
         <v>-5.4439117665336075E-4</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18">
         <v>-4.8061380271931398E-3</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
         <v>-5.4439117665336075E-4</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="A19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="1">
         <v>1.3442256496584351E-2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>1.6295240935262939E-3</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>8.2491916198031028</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>1.4637272868167185E-11</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>1.0184884247305653E-2</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>1.6699628745863049E-2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <v>1.0184884247305653E-2</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="1">
         <v>1.6699628745863049E-2</v>
       </c>
     </row>
@@ -9199,241 +9252,239 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="A3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4">
         <v>0.5756094786844822</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5">
         <v>0.33132627195142134</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6">
         <v>0.27783237370753505</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7">
         <v>0.10511474764894756</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>0.13687020771641156</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>6.8435103858205781E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>6.1937208322500217</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>6.5339868071997986E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>25</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>0.27622775433254815</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>1.1049110173301926E-2</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="1">
         <v>27</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>0.41309796204895971</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="H16" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="I16" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="A17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17">
         <v>0.24317948683282592</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>0.14334600109378978</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>1.6964511390430497</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>0.10221927692165553</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>-5.2047128802850506E-2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>0.53840610246850229</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17">
         <v>-5.2047128802850506E-2</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>0.53840610246850229</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18">
         <v>-7.8756444780447091E-3</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>2.3418029150649002E-3</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>-3.3630688677430589</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>2.4849084755171605E-3</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>-1.2698677864570927E-2</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18">
         <v>-3.0526110915184909E-3</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18">
         <v>-1.2698677864570927E-2</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
         <v>-3.0526110915184909E-3</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="A19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="1">
         <v>1.0780678422470807E-2</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>4.3677507947617279E-3</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>2.4682448539417918</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>2.0768625784034388E-2</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>1.7851272718401728E-3</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>1.9776229573101441E-2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <v>1.7851272718401728E-3</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="1">
         <v>1.9776229573101441E-2</v>
       </c>
     </row>
@@ -9446,72 +9497,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC942FC-F408-4DDC-937A-94949179FD9D}">
   <dimension ref="A1:DM66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="CQ2" workbookViewId="0">
+      <selection activeCell="DE5" sqref="DE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.7109375" customWidth="1"/>
+    <col min="18" max="19" width="11.85546875" customWidth="1"/>
     <col min="20" max="20" width="13.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
     <col min="25" max="25" width="11.28515625" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" customWidth="1"/>
+    <col min="32" max="32" width="13" customWidth="1"/>
+    <col min="33" max="33" width="12.85546875" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" customWidth="1"/>
+    <col min="36" max="36" width="11.7109375" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" customWidth="1"/>
+    <col min="38" max="38" width="13.28515625" customWidth="1"/>
+    <col min="39" max="39" width="12.140625" customWidth="1"/>
+    <col min="40" max="40" width="11.5703125" customWidth="1"/>
+    <col min="41" max="41" width="11.85546875" customWidth="1"/>
     <col min="42" max="42" width="11" customWidth="1"/>
-    <col min="57" max="57" width="12.5703125" customWidth="1"/>
-    <col min="59" max="59" width="13.42578125" customWidth="1"/>
+    <col min="44" max="44" width="13.42578125" customWidth="1"/>
+    <col min="45" max="45" width="13.7109375" customWidth="1"/>
+    <col min="46" max="46" width="14.5703125" customWidth="1"/>
+    <col min="47" max="47" width="13.5703125" customWidth="1"/>
+    <col min="48" max="48" width="12.42578125" customWidth="1"/>
+    <col min="49" max="49" width="12.140625" customWidth="1"/>
+    <col min="50" max="50" width="17.140625" customWidth="1"/>
+    <col min="52" max="52" width="13.42578125" customWidth="1"/>
+    <col min="53" max="53" width="13.28515625" customWidth="1"/>
+    <col min="56" max="57" width="12.5703125" customWidth="1"/>
+    <col min="58" max="59" width="13.42578125" customWidth="1"/>
+    <col min="60" max="60" width="13.5703125" customWidth="1"/>
+    <col min="61" max="61" width="15.7109375" customWidth="1"/>
+    <col min="62" max="62" width="15" customWidth="1"/>
+    <col min="63" max="63" width="15.7109375" customWidth="1"/>
+    <col min="65" max="65" width="12.85546875" customWidth="1"/>
+    <col min="66" max="66" width="17.140625" customWidth="1"/>
+    <col min="67" max="67" width="13.28515625" customWidth="1"/>
+    <col min="68" max="68" width="13.5703125" customWidth="1"/>
     <col min="70" max="70" width="15.5703125" customWidth="1"/>
     <col min="71" max="71" width="18.85546875" customWidth="1"/>
+    <col min="72" max="72" width="14.85546875" customWidth="1"/>
+    <col min="73" max="73" width="16.28515625" customWidth="1"/>
+    <col min="74" max="74" width="11.85546875" customWidth="1"/>
+    <col min="75" max="75" width="13.28515625" customWidth="1"/>
+    <col min="76" max="76" width="11.140625" customWidth="1"/>
+    <col min="77" max="77" width="11.42578125" customWidth="1"/>
     <col min="78" max="78" width="12.28515625" customWidth="1"/>
+    <col min="79" max="79" width="14" customWidth="1"/>
+    <col min="80" max="80" width="14.5703125" customWidth="1"/>
     <col min="81" max="81" width="11.28515625" customWidth="1"/>
     <col min="82" max="82" width="14.28515625" customWidth="1"/>
     <col min="83" max="83" width="14" customWidth="1"/>
+    <col min="84" max="84" width="11.85546875" customWidth="1"/>
+    <col min="85" max="85" width="14.5703125" customWidth="1"/>
+    <col min="86" max="86" width="13" customWidth="1"/>
+    <col min="87" max="87" width="10.85546875" customWidth="1"/>
     <col min="88" max="88" width="14.42578125" customWidth="1"/>
+    <col min="89" max="89" width="12.140625" customWidth="1"/>
     <col min="90" max="90" width="12.85546875" customWidth="1"/>
+    <col min="91" max="91" width="11.7109375" customWidth="1"/>
+    <col min="92" max="92" width="13.140625" customWidth="1"/>
     <col min="95" max="95" width="12.28515625" customWidth="1"/>
+    <col min="96" max="96" width="13.140625" customWidth="1"/>
     <col min="99" max="99" width="12.5703125" customWidth="1"/>
     <col min="100" max="100" width="11.85546875" customWidth="1"/>
+    <col min="101" max="101" width="12.28515625" customWidth="1"/>
     <col min="102" max="102" width="10" bestFit="1" customWidth="1"/>
-    <col min="104" max="110" width="12" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="14" customWidth="1"/>
+    <col min="104" max="106" width="12" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="13.85546875" customWidth="1"/>
+    <col min="108" max="110" width="12" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:117" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="1"/>
-      <c r="BT1" s="7" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="BT1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="BU1" s="7"/>
-      <c r="BV1" s="7"/>
-      <c r="BZ1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="6" t="s">
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="CR1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="CS1" s="6"/>
-      <c r="CT1" s="6"/>
+      <c r="CS1" s="4"/>
+      <c r="CT1" s="4"/>
       <c r="DH1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="DI1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="DJ1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="DL1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="DM1">
         <v>50</v>
@@ -9522,19 +9631,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" t="s">
         <v>185</v>
       </c>
-      <c r="E2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" t="s">
-        <v>182</v>
-      </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -9657,73 +9766,73 @@
         <v>99</v>
       </c>
       <c r="AV2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW2" t="s">
         <v>102</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>103</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>104</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA2" t="s">
         <v>105</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>108</v>
-      </c>
       <c r="BB2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD2" t="s">
         <v>112</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>113</v>
       </c>
-      <c r="BD2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>116</v>
-      </c>
       <c r="BF2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG2" t="s">
         <v>123</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>126</v>
       </c>
-      <c r="BH2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI2" t="s">
+      <c r="BK2" t="s">
         <v>128</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM2" t="s">
         <v>131</v>
       </c>
-      <c r="BL2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP2" t="s">
         <v>135</v>
       </c>
-      <c r="BN2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>139</v>
-      </c>
       <c r="BQ2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BR2" t="s">
         <v>142</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>146</v>
       </c>
       <c r="BS2" t="s">
         <v>19</v>
@@ -9759,40 +9868,40 @@
         <v>100</v>
       </c>
       <c r="CD2" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE2" t="s">
         <v>107</v>
       </c>
-      <c r="CE2" t="s">
-        <v>110</v>
-      </c>
       <c r="CF2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="CG2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="CH2" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>119</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>121</v>
       </c>
-      <c r="CI2" t="s">
-        <v>122</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>124</v>
-      </c>
       <c r="CK2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="CL2" t="s">
+        <v>136</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>137</v>
+      </c>
+      <c r="CN2" t="s">
         <v>140</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CO2" t="s">
         <v>141</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>144</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>145</v>
       </c>
       <c r="CQ2" t="s">
         <v>78</v>
@@ -9843,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="DH2">
-        <f t="shared" ref="DH2:DH35" ca="1" si="0">OFFSET($B$5,0,DG2,1,1)</f>
+        <f t="shared" ref="DH2:DH19" ca="1" si="0">OFFSET($B$5,0,DG2,1,1)</f>
         <v>32.35</v>
       </c>
       <c r="DI2">
@@ -9855,7 +9964,7 @@
         <v>0.56899536321483768</v>
       </c>
       <c r="DL2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="DM2">
         <v>20</v>
@@ -9871,15 +9980,15 @@
         <v>48.5</v>
       </c>
       <c r="DI3">
-        <f t="shared" ref="DI3:DI67" ca="1" si="1">OFFSET($B$11,0,DG3,1,1)</f>
+        <f t="shared" ref="DI3:DI19" ca="1" si="1">OFFSET($B$11,0,DG3,1,1)</f>
         <v>50.8</v>
       </c>
       <c r="DJ3">
-        <f t="shared" ref="DJ3:DJ67" ca="1" si="2">OFFSET($B$15,0,DG3,1,1)</f>
+        <f t="shared" ref="DJ3:DJ19" ca="1" si="2">OFFSET($B$15,0,DG3,1,1)</f>
         <v>0.63855670103092765</v>
       </c>
       <c r="DL3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="DM3">
         <f>4.503-0.268*DM1+1.344*DM2</f>
@@ -10212,7 +10321,7 @@
         <v>27.48</v>
       </c>
       <c r="DG4">
-        <f t="shared" ref="DG4:DG45" si="3">DG3+1</f>
+        <f t="shared" ref="DG4:DG19" si="3">DG3+1</f>
         <v>2</v>
       </c>
       <c r="DH4">
@@ -14679,374 +14788,374 @@
     </row>
     <row r="18" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B18">
-        <f>B15-(0.0127*B11-0.034)</f>
+        <f t="shared" ref="B18:G18" si="54">B15-(0.0127*B11-0.034)</f>
         <v>0.12966636321483771</v>
       </c>
       <c r="C18">
-        <f>C15-(0.0127*C11-0.034)</f>
+        <f t="shared" si="54"/>
         <v>2.7396701030927728E-2</v>
       </c>
       <c r="D18">
-        <f>D15-(0.0127*D11-0.034)</f>
+        <f t="shared" si="54"/>
         <v>-0.22346846153846148</v>
       </c>
       <c r="E18">
-        <f>E15-(0.0127*E11-0.034)</f>
+        <f t="shared" si="54"/>
         <v>-0.13856019693654253</v>
       </c>
       <c r="F18">
-        <f>F15-(0.0127*F11-0.034)</f>
+        <f t="shared" si="54"/>
         <v>-0.1187357425742574</v>
       </c>
       <c r="G18">
-        <f>G15-(0.0127*G11-0.034)</f>
+        <f t="shared" si="54"/>
         <v>-5.3684705882352635E-2</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:BS18" si="54">H15-(0.0127*H11-0.034)</f>
+        <f t="shared" ref="H18:BS18" si="55">H15-(0.0127*H11-0.034)</f>
         <v>0.21947699166132162</v>
       </c>
       <c r="I18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.11196966340867442</v>
       </c>
       <c r="J18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.20758529774505297</v>
       </c>
       <c r="K18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.21330252389762583</v>
       </c>
       <c r="L18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.12654902076630603</v>
       </c>
       <c r="M18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9.1873284566838631E-2</v>
       </c>
       <c r="N18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.28990908555783712</v>
       </c>
       <c r="O18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-3.8351053652230294E-2</v>
       </c>
       <c r="P18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-5.9633477558927839E-2</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-1.259867974549328E-2</v>
       </c>
       <c r="R18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-0.10242639143730864</v>
       </c>
       <c r="S18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-7.3036214689265522E-2</v>
       </c>
       <c r="T18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>5.6278235294117795E-2</v>
       </c>
       <c r="U18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-0.16541851894669229</v>
       </c>
       <c r="V18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>7.3233949432404688E-2</v>
       </c>
       <c r="W18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>5.1571439798125618E-2</v>
       </c>
       <c r="X18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-2.9432893203883759E-2</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-0.14922092047853597</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-0.10621719354838705</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-8.8807014242115956E-2</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-1.6363367913148408E-2</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-6.5806732915079491E-2</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-3.0051414141413879E-2</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.12416953488372087</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1.3633904041407963E-3</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>7.7927435897436059E-2</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-0.13539574370709373</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-4.4482649842259026E-4</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>8.4585890410959014E-2</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-9.3957162534435423E-2</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.12990723404255305</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1.9380261437908469E-2</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-0.11439465753424649</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-2.8100938967136058E-2</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-9.3897380073800607E-2</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-5.0422051282051406E-2</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-4.1882365887207673E-2</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-0.14224260223048346</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-6.5187883755588705E-2</v>
       </c>
       <c r="AU18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1.155034632034635E-2</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-5.6246077481840184E-2</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-1.0639520958082849E-3</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-5.7661164095371698E-2</v>
       </c>
       <c r="AY18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-8.0681404011461344E-2</v>
       </c>
       <c r="AZ18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-2.0019999999999871E-2</v>
       </c>
       <c r="BA18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>2.6788080229226463E-2</v>
       </c>
       <c r="BB18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1.8048874172185592E-2</v>
       </c>
       <c r="BC18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-7.205475113122084E-3</v>
       </c>
       <c r="BD18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-0.1149679538904898</v>
       </c>
       <c r="BE18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-4.8179379844961456E-2</v>
       </c>
       <c r="BF18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-0.18594664082687337</v>
       </c>
       <c r="BG18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-7.2223376623375968E-3</v>
       </c>
       <c r="BH18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>5.2752920353982158E-2</v>
       </c>
       <c r="BI18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>8.3553722627737192E-2</v>
       </c>
       <c r="BJ18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-0.10922294117647041</v>
       </c>
       <c r="BK18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>6.4183333333333203E-2</v>
       </c>
       <c r="BL18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-3.8026067415730225E-2</v>
       </c>
       <c r="BM18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-6.1445820895522363E-2</v>
       </c>
       <c r="BN18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-2.7335471698113178E-2</v>
       </c>
       <c r="BO18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-8.4603972602739663E-2</v>
       </c>
       <c r="BP18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.15198506849315074</v>
       </c>
       <c r="BQ18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-0.21100252595155689</v>
       </c>
       <c r="BR18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.20735509433962274</v>
       </c>
       <c r="BS18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.11958760517306966</v>
       </c>
       <c r="BT18">
-        <f t="shared" ref="BT18:CO18" si="55">BT15-(0.0127*BT11-0.034)</f>
+        <f t="shared" ref="BT18:CO18" si="56">BT15-(0.0127*BT11-0.034)</f>
         <v>-0.12933514314115274</v>
       </c>
       <c r="BU18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-0.20592195121951204</v>
       </c>
       <c r="BV18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.17147665332788864</v>
       </c>
       <c r="BW18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>9.4664955752212565E-2</v>
       </c>
       <c r="BX18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-4.9911132259638502E-3</v>
       </c>
       <c r="BY18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>5.6838709677420329E-4</v>
       </c>
       <c r="BZ18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-8.3097652582160286E-3</v>
       </c>
       <c r="CA18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-6.9917651821862714E-2</v>
       </c>
       <c r="CB18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-4.1034576271186562E-2</v>
       </c>
       <c r="CC18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-0.15169444444444424</v>
       </c>
       <c r="CD18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-0.12718129032258091</v>
       </c>
       <c r="CE18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-0.19408171806167401</v>
       </c>
       <c r="CF18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-6.2012891566265105E-2</v>
       </c>
       <c r="CG18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1.4931938325991378E-2</v>
       </c>
       <c r="CH18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-1.9387448559670728E-2</v>
       </c>
       <c r="CI18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1.4000816326530774E-2</v>
       </c>
       <c r="CJ18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4.7453827160493733E-2</v>
       </c>
       <c r="CK18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.15412148936170211</v>
       </c>
       <c r="CL18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>-4.9234444444444525E-2</v>
       </c>
       <c r="CM18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.14122413793103472</v>
       </c>
       <c r="CN18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.17850777777777782</v>
       </c>
       <c r="CO18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.15064781893004109</v>
       </c>
       <c r="DG18">
@@ -15086,456 +15195,456 @@
     </row>
     <row r="20" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B20">
-        <f>B10-B11</f>
+        <f t="shared" ref="B20:G20" si="57">B10-B11</f>
         <v>14.119999999999997</v>
       </c>
       <c r="C20">
-        <f>C10-C11</f>
+        <f t="shared" si="57"/>
         <v>16.299999999999997</v>
       </c>
       <c r="D20">
-        <f>D10-D11</f>
+        <f t="shared" si="57"/>
         <v>22.4</v>
       </c>
       <c r="E20">
-        <f>E10-E11</f>
+        <f t="shared" si="57"/>
         <v>27.200000000000003</v>
       </c>
       <c r="F20">
-        <f>F10-F11</f>
+        <f t="shared" si="57"/>
         <v>30.100000000000009</v>
       </c>
       <c r="G20">
-        <f>G10-G11</f>
+        <f t="shared" si="57"/>
         <v>17.399999999999999</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:BS20" si="56">H10-H11</f>
+        <f t="shared" ref="H20:BS20" si="58">H10-H11</f>
         <v>9.3500000000000014</v>
       </c>
       <c r="I20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>5.9500000000000028</v>
       </c>
       <c r="J20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>9.36</v>
       </c>
       <c r="K20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>8.5399999999999991</v>
       </c>
       <c r="L20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>7.68</v>
       </c>
       <c r="M20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>10.32</v>
       </c>
       <c r="N20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>7.8999999999999986</v>
       </c>
       <c r="O20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>38.319999999999993</v>
       </c>
       <c r="P20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>39.129999999999995</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>25.18</v>
       </c>
       <c r="R20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>15.899999999999999</v>
       </c>
       <c r="S20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>8</v>
       </c>
       <c r="T20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>16.100000000000001</v>
       </c>
       <c r="U20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>30.28</v>
       </c>
       <c r="V20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>10.449999999999996</v>
       </c>
       <c r="W20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>6.68</v>
       </c>
       <c r="X20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>9.1200000000000045</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>16.139999999999997</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>28.45</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>30.230000000000004</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>14.730000000000004</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>22.979999999999997</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>14.800000000000004</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>18.899999999999999</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>22.339999999999996</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>20.299999999999997</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>24.300000000000004</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>45.500000000000007</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>22.2</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>18.600000000000001</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>22.800000000000004</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>17.500000000000004</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>12.899999999999999</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>25.9</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>13.3</v>
       </c>
       <c r="AQ20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>18.400000000000002</v>
       </c>
       <c r="AR20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>49.099999999999994</v>
       </c>
       <c r="AS20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>20.400000000000002</v>
       </c>
       <c r="AT20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>41.1</v>
       </c>
       <c r="AU20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>29.699999999999996</v>
       </c>
       <c r="AV20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>23.7</v>
       </c>
       <c r="AW20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>16.099999999999994</v>
       </c>
       <c r="AX20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>43.300000000000004</v>
       </c>
       <c r="AY20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>38.099999999999994</v>
       </c>
       <c r="AZ20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>22.4</v>
       </c>
       <c r="BA20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>13.799999999999997</v>
       </c>
       <c r="BB20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>10.699999999999996</v>
       </c>
       <c r="BC20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>27.1</v>
       </c>
       <c r="BD20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>40</v>
       </c>
       <c r="BE20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="BF20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>28.799999999999997</v>
       </c>
       <c r="BG20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>16.600000000000001</v>
       </c>
       <c r="BH20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>19.599999999999994</v>
       </c>
       <c r="BI20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>14.199999999999996</v>
       </c>
       <c r="BJ20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>18.499999999999993</v>
       </c>
       <c r="BK20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>15.899999999999999</v>
       </c>
       <c r="BL20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>11.800000000000004</v>
       </c>
       <c r="BM20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>17.800000000000004</v>
       </c>
       <c r="BN20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>18.300000000000004</v>
       </c>
       <c r="BO20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>28.699999999999996</v>
       </c>
       <c r="BP20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>10</v>
       </c>
       <c r="BQ20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>28.799999999999997</v>
       </c>
       <c r="BR20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>11.999999999999996</v>
       </c>
       <c r="BS20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>8.019999999999996</v>
       </c>
       <c r="BT20">
-        <f t="shared" ref="BT20:DE20" si="57">BT10-BT11</f>
+        <f t="shared" ref="BT20:DE20" si="59">BT10-BT11</f>
         <v>8.3299999999999983</v>
       </c>
       <c r="BU20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>15.799999999999997</v>
       </c>
       <c r="BV20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>5.0900000000000034</v>
       </c>
       <c r="BW20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>8.6000000000000014</v>
       </c>
       <c r="BX20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>8.89</v>
       </c>
       <c r="BY20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>10.300000000000004</v>
       </c>
       <c r="BZ20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>12.2</v>
       </c>
       <c r="CA20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>7.3000000000000043</v>
       </c>
       <c r="CB20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>5.5</v>
       </c>
       <c r="CC20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>11</v>
       </c>
       <c r="CD20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>7.1999999999999957</v>
       </c>
       <c r="CE20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>10.520000000000003</v>
       </c>
       <c r="CF20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>8.7999999999999972</v>
       </c>
       <c r="CG20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>7.3999999999999986</v>
       </c>
       <c r="CH20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>6.7000000000000028</v>
       </c>
       <c r="CI20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>5.0999999999999943</v>
       </c>
       <c r="CJ20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>5.0999999999999943</v>
       </c>
       <c r="CK20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>8.6000000000000014</v>
       </c>
       <c r="CL20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>12.399999999999999</v>
       </c>
       <c r="CM20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>8.7000000000000028</v>
       </c>
       <c r="CN20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>6.1999999999999957</v>
       </c>
       <c r="CO20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>6.3000000000000043</v>
       </c>
       <c r="CQ20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>15</v>
       </c>
       <c r="CR20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>11.71</v>
       </c>
       <c r="CS20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>9.2299999999999969</v>
       </c>
       <c r="CT20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>34.21</v>
       </c>
       <c r="CU20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>17.019999999999996</v>
       </c>
       <c r="CV20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>11.04</v>
       </c>
       <c r="CW20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>22.6</v>
       </c>
       <c r="CX20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>21.900000000000006</v>
       </c>
       <c r="CY20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>14.599999999999998</v>
       </c>
       <c r="CZ20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>25.100000000000009</v>
       </c>
       <c r="DA20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>19.800000000000004</v>
       </c>
       <c r="DB20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>10.399999999999999</v>
       </c>
       <c r="DC20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>19.339999999999996</v>
       </c>
       <c r="DD20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>17.979999999999997</v>
       </c>
       <c r="DE20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>27.839999999999996</v>
       </c>
       <c r="DG20">
-        <f>DG19+1</f>
+        <f t="shared" ref="DG20:DG44" si="60">DG19+1</f>
         <v>18</v>
       </c>
       <c r="DH20">
-        <f t="shared" ref="DH20:DH24" ca="1" si="58">OFFSET($B$5,0,DG20,1,1)</f>
+        <f t="shared" ref="DH20:DH24" ca="1" si="61">OFFSET($B$5,0,DG20,1,1)</f>
         <v>35.700000000000003</v>
       </c>
       <c r="DI20">
-        <f t="shared" ref="DI20:DI24" ca="1" si="59">OFFSET($B$11,0,DG20,1,1)</f>
+        <f t="shared" ref="DI20:DI24" ca="1" si="62">OFFSET($B$11,0,DG20,1,1)</f>
         <v>35.299999999999997</v>
       </c>
       <c r="DJ20">
-        <f t="shared" ref="DJ20:DJ24" ca="1" si="60">OFFSET($B$15,0,DG20,1,1)</f>
+        <f t="shared" ref="DJ20:DJ24" ca="1" si="63">OFFSET($B$15,0,DG20,1,1)</f>
         <v>0.47058823529411775</v>
       </c>
     </row>
     <row r="21" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -15744,914 +15853,1594 @@
       <c r="BR21">
         <v>0</v>
       </c>
+      <c r="BS21">
+        <v>1</v>
+      </c>
+      <c r="BT21">
+        <v>1</v>
+      </c>
+      <c r="BU21">
+        <v>1</v>
+      </c>
+      <c r="BV21">
+        <v>1</v>
+      </c>
+      <c r="BW21">
+        <v>1</v>
+      </c>
+      <c r="BX21">
+        <v>1</v>
+      </c>
+      <c r="BY21">
+        <v>1</v>
+      </c>
+      <c r="BZ21">
+        <v>1</v>
+      </c>
+      <c r="CA21">
+        <v>1</v>
+      </c>
+      <c r="CB21">
+        <v>1</v>
+      </c>
+      <c r="CC21">
+        <v>1</v>
+      </c>
+      <c r="CD21">
+        <v>0</v>
+      </c>
+      <c r="CE21">
+        <v>1</v>
+      </c>
+      <c r="CF21">
+        <v>1</v>
+      </c>
+      <c r="CG21">
+        <v>1</v>
+      </c>
+      <c r="CH21">
+        <v>0</v>
+      </c>
+      <c r="CI21">
+        <v>1</v>
+      </c>
+      <c r="CJ21">
+        <v>1</v>
+      </c>
+      <c r="CK21">
+        <v>1</v>
+      </c>
+      <c r="CL21">
+        <v>1</v>
+      </c>
+      <c r="CM21">
+        <v>1</v>
+      </c>
+      <c r="CN21">
+        <v>1</v>
+      </c>
+      <c r="CO21">
+        <v>0</v>
+      </c>
+      <c r="CQ21">
+        <v>0</v>
+      </c>
+      <c r="CR21">
+        <v>1</v>
+      </c>
+      <c r="CS21">
+        <v>1</v>
+      </c>
+      <c r="CT21">
+        <v>1</v>
+      </c>
+      <c r="CU21">
+        <v>1</v>
+      </c>
+      <c r="CV21">
+        <v>1</v>
+      </c>
+      <c r="CW21">
+        <v>1</v>
+      </c>
+      <c r="CX21">
+        <v>1</v>
+      </c>
+      <c r="CY21">
+        <v>1</v>
+      </c>
+      <c r="CZ21">
+        <v>1</v>
+      </c>
+      <c r="DA21">
+        <v>1</v>
+      </c>
+      <c r="DB21">
+        <v>1</v>
+      </c>
+      <c r="DC21">
+        <v>1</v>
+      </c>
+      <c r="DD21">
+        <v>1</v>
+      </c>
+      <c r="DE21">
+        <v>1</v>
+      </c>
       <c r="DG21">
-        <f>DG20+1</f>
+        <f t="shared" si="60"/>
         <v>19</v>
       </c>
       <c r="DH21">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v>46.71</v>
       </c>
       <c r="DI21">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v>38.06</v>
       </c>
       <c r="DJ21">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>0.28394348105330774</v>
       </c>
     </row>
     <row r="22" spans="1:114" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>1</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>1</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>1</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>1</v>
+      </c>
+      <c r="BF22">
+        <v>1</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>1</v>
+      </c>
+      <c r="BN22">
+        <v>1</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
+        <v>1</v>
+      </c>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>1</v>
+      </c>
+      <c r="BU22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>1</v>
+      </c>
+      <c r="BW22">
+        <v>0</v>
+      </c>
+      <c r="BX22">
+        <v>0</v>
+      </c>
+      <c r="BY22">
+        <v>0</v>
+      </c>
+      <c r="BZ22">
+        <v>0</v>
+      </c>
+      <c r="CA22">
+        <v>1</v>
+      </c>
+      <c r="CB22">
+        <v>0</v>
+      </c>
+      <c r="CC22">
+        <v>1</v>
+      </c>
+      <c r="CD22">
+        <v>1</v>
+      </c>
+      <c r="CE22">
+        <v>1</v>
+      </c>
+      <c r="CF22">
+        <v>0</v>
+      </c>
+      <c r="CG22">
+        <v>0</v>
+      </c>
+      <c r="CH22">
+        <v>1</v>
+      </c>
+      <c r="CI22">
+        <v>1</v>
+      </c>
+      <c r="CJ22">
+        <v>1</v>
+      </c>
+      <c r="CK22">
+        <v>0</v>
+      </c>
+      <c r="CL22">
+        <v>1</v>
+      </c>
+      <c r="CM22">
+        <v>0</v>
+      </c>
+      <c r="CN22">
+        <v>0</v>
+      </c>
+      <c r="CO22">
+        <v>1</v>
+      </c>
+      <c r="CQ22">
+        <v>1</v>
+      </c>
+      <c r="CR22">
+        <v>1</v>
+      </c>
+      <c r="CS22">
+        <v>0</v>
+      </c>
+      <c r="CT22">
+        <v>0</v>
+      </c>
+      <c r="CU22">
+        <v>0</v>
+      </c>
+      <c r="CV22">
+        <v>0</v>
+      </c>
+      <c r="CW22">
+        <v>0</v>
+      </c>
+      <c r="CX22">
+        <v>0</v>
+      </c>
+      <c r="CY22">
+        <v>0</v>
+      </c>
+      <c r="CZ22">
+        <v>0</v>
+      </c>
+      <c r="DA22">
+        <v>0</v>
+      </c>
+      <c r="DB22">
+        <v>1</v>
+      </c>
+      <c r="DC22">
+        <v>0</v>
+      </c>
+      <c r="DD22">
+        <v>0</v>
+      </c>
+      <c r="DE22">
+        <v>0</v>
+      </c>
       <c r="DG22">
-        <f>DG21+1</f>
+        <f t="shared" si="60"/>
         <v>20</v>
       </c>
       <c r="DH22">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v>29.07</v>
       </c>
       <c r="DI22">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v>34.81</v>
       </c>
       <c r="DJ22">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>0.48132094943240467</v>
       </c>
     </row>
     <row r="23" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="S23" t="s">
-        <v>180</v>
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" t="s">
+        <v>183</v>
+      </c>
+      <c r="P23" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>187</v>
+      </c>
+      <c r="R23" t="s">
+        <v>186</v>
+      </c>
+      <c r="U23" t="s">
+        <v>183</v>
+      </c>
+      <c r="X23" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>183</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>183</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>183</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>182</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>182</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>183</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>186</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>186</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>191</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>186</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>186</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>186</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>186</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>186</v>
+      </c>
+      <c r="CL23" t="s">
+        <v>186</v>
+      </c>
+      <c r="CO23" t="s">
+        <v>186</v>
+      </c>
+      <c r="CQ23" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR23" t="s">
+        <v>186</v>
+      </c>
+      <c r="CS23" t="s">
+        <v>183</v>
+      </c>
+      <c r="CT23" t="s">
+        <v>183</v>
+      </c>
+      <c r="CU23" t="s">
+        <v>183</v>
+      </c>
+      <c r="CV23" t="s">
+        <v>183</v>
+      </c>
+      <c r="CW23" t="s">
+        <v>183</v>
+      </c>
+      <c r="CX23" t="s">
+        <v>183</v>
+      </c>
+      <c r="CY23" t="s">
+        <v>183</v>
+      </c>
+      <c r="CZ23" t="s">
+        <v>183</v>
+      </c>
+      <c r="DA23" t="s">
+        <v>183</v>
+      </c>
+      <c r="DB23" t="s">
+        <v>187</v>
+      </c>
+      <c r="DC23" t="s">
+        <v>183</v>
+      </c>
+      <c r="DD23" t="s">
+        <v>183</v>
+      </c>
+      <c r="DE23" t="s">
+        <v>183</v>
       </c>
       <c r="DG23">
-        <f>DG22+1</f>
+        <f t="shared" si="60"/>
         <v>21</v>
       </c>
       <c r="DH23">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v>27.74</v>
       </c>
       <c r="DI23">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v>41.37</v>
       </c>
       <c r="DJ23">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>0.54297043979812554</v>
       </c>
     </row>
     <row r="24" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="S24" t="s">
-        <v>181</v>
-      </c>
       <c r="DG24">
-        <f>DG23+1</f>
+        <f t="shared" si="60"/>
         <v>22</v>
       </c>
       <c r="DH24">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v>32.96</v>
       </c>
       <c r="DI24">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v>47.48</v>
       </c>
       <c r="DJ24">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>0.53956310679611619</v>
       </c>
     </row>
     <row r="25" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>10</v>
-      </c>
-      <c r="U25">
-        <v>20</v>
-      </c>
-      <c r="V25">
-        <v>30</v>
-      </c>
-      <c r="W25">
-        <v>40</v>
-      </c>
-      <c r="X25">
-        <v>50</v>
-      </c>
-      <c r="Y25">
-        <v>60</v>
-      </c>
-      <c r="Z25">
-        <v>70</v>
-      </c>
-      <c r="AA25">
-        <v>80</v>
-      </c>
-      <c r="AB25">
-        <v>90</v>
-      </c>
-      <c r="AC25">
-        <v>100</v>
-      </c>
       <c r="DG25">
-        <f>DG24+1</f>
+        <f t="shared" si="60"/>
         <v>23</v>
       </c>
       <c r="DH25">
-        <f ca="1">OFFSET($B$5,0,DG25,1,1)</f>
+        <f t="shared" ref="DH25:DH34" ca="1" si="64">OFFSET($B$5,0,DG25,1,1)</f>
         <v>28.42</v>
       </c>
       <c r="DI25">
-        <f ca="1">OFFSET($B$11,0,DG25,1,1)</f>
+        <f t="shared" ref="DI25:DI66" ca="1" si="65">OFFSET($B$11,0,DG25,1,1)</f>
         <v>31.84</v>
       </c>
       <c r="DJ25">
-        <f ca="1">OFFSET($B$15,0,DG25,1,1)</f>
+        <f t="shared" ref="DJ25:DJ66" ca="1" si="66">OFFSET($B$15,0,DG25,1,1)</f>
         <v>0.22114707952146406</v>
       </c>
     </row>
     <row r="26" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="S26">
-        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(S$25*0.01,0.97),0.03))</f>
-        <v>5.0999999999999943</v>
-      </c>
-      <c r="T26">
-        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(T$25*0.01,0.97),0.03))</f>
-        <v>6.8500000000000014</v>
-      </c>
-      <c r="U26">
-        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(U$25*0.01,0.97),0.03))</f>
-        <v>8.5760000000000005</v>
-      </c>
-      <c r="V26">
-        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(V$25*0.01,0.97),0.03))</f>
-        <v>9.9599999999999991</v>
-      </c>
-      <c r="W26">
-        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(W$25*0.01,0.97),0.03))</f>
-        <v>12.24</v>
-      </c>
-      <c r="X26">
-        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(X$25*0.01,0.97),0.03))</f>
-        <v>15.849999999999998</v>
-      </c>
-      <c r="Y26">
-        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(Y$25*0.01,0.97),0.03))</f>
-        <v>17.740000000000002</v>
-      </c>
-      <c r="Z26">
-        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(Z$25*0.01,0.97),0.03))</f>
-        <v>22.213999999999999</v>
-      </c>
-      <c r="AA26">
-        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(AA$25*0.01,0.97),0.03))</f>
-        <v>26.380000000000006</v>
-      </c>
-      <c r="AB26">
-        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(AB$25*0.01,0.97),0.03))</f>
-        <v>30.265000000000001</v>
-      </c>
-      <c r="AC26">
-        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(AC$25*0.01,0.97),0.03))</f>
-        <v>43.761999999999993</v>
-      </c>
       <c r="DG26">
-        <f>DG25+1</f>
+        <f t="shared" si="60"/>
         <v>24</v>
       </c>
       <c r="DH26">
-        <f ca="1">OFFSET($B$5,0,DG26,1,1)</f>
+        <f t="shared" ca="1" si="64"/>
         <v>38.75</v>
       </c>
       <c r="DI26">
-        <f ca="1">OFFSET($B$11,0,DG26,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>25.09</v>
       </c>
       <c r="DJ26">
-        <f ca="1">OFFSET($B$15,0,DG26,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.17842580645161293</v>
       </c>
     </row>
     <row r="27" spans="1:114" x14ac:dyDescent="0.25">
-      <c r="X27" s="8"/>
+      <c r="S27" t="s">
+        <v>176</v>
+      </c>
       <c r="DG27">
-        <f>DG26+1</f>
+        <f t="shared" si="60"/>
         <v>25</v>
       </c>
       <c r="DH27">
-        <f ca="1">OFFSET($B$5,0,DG27,1,1)</f>
+        <f t="shared" ca="1" si="64"/>
         <v>49.15</v>
       </c>
       <c r="DI27">
-        <f ca="1">OFFSET($B$11,0,DG27,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>34.950000000000003</v>
       </c>
       <c r="DJ27">
-        <f ca="1">OFFSET($B$15,0,DG27,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.32105798575788408</v>
       </c>
     </row>
     <row r="28" spans="1:114" x14ac:dyDescent="0.25">
+      <c r="S28" t="s">
+        <v>177</v>
+      </c>
       <c r="DG28">
-        <f>DG27+1</f>
+        <f t="shared" si="60"/>
         <v>26</v>
       </c>
       <c r="DH28">
-        <f ca="1">OFFSET($B$5,0,DG28,1,1)</f>
+        <f t="shared" ca="1" si="64"/>
         <v>41.45</v>
       </c>
       <c r="DI28">
-        <f ca="1">OFFSET($B$11,0,DG28,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>47.04</v>
       </c>
       <c r="DJ28">
-        <f ca="1">OFFSET($B$15,0,DG28,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.5470446320868515</v>
       </c>
     </row>
     <row r="29" spans="1:114" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>10</v>
+      </c>
+      <c r="U29">
+        <v>20</v>
+      </c>
+      <c r="V29">
+        <v>30</v>
+      </c>
+      <c r="W29">
+        <v>40</v>
+      </c>
+      <c r="X29">
+        <v>50</v>
+      </c>
+      <c r="Y29">
+        <v>60</v>
+      </c>
+      <c r="Z29">
+        <v>70</v>
+      </c>
+      <c r="AA29">
+        <v>80</v>
+      </c>
+      <c r="AB29">
+        <v>90</v>
+      </c>
+      <c r="AC29">
+        <v>100</v>
+      </c>
       <c r="DG29">
-        <f>DG28+1</f>
+        <f t="shared" si="60"/>
         <v>27</v>
       </c>
       <c r="DH29">
-        <f ca="1">OFFSET($B$5,0,DG29,1,1)</f>
+        <f t="shared" ca="1" si="64"/>
         <v>44.63</v>
       </c>
       <c r="DI29">
-        <f ca="1">OFFSET($B$11,0,DG29,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>42.49</v>
       </c>
       <c r="DJ29">
-        <f ca="1">OFFSET($B$15,0,DG29,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.43981626708492044</v>
       </c>
     </row>
     <row r="30" spans="1:114" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(S$29*0.01,0.97),0.03))</f>
+        <v>5.0999999999999943</v>
+      </c>
+      <c r="T30">
+        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(T$29*0.01,0.97),0.03))</f>
+        <v>6.8500000000000014</v>
+      </c>
+      <c r="U30">
+        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(U$29*0.01,0.97),0.03))</f>
+        <v>8.5760000000000005</v>
+      </c>
+      <c r="V30">
+        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(V$29*0.01,0.97),0.03))</f>
+        <v>9.9599999999999991</v>
+      </c>
+      <c r="W30">
+        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(W$29*0.01,0.97),0.03))</f>
+        <v>12.24</v>
+      </c>
+      <c r="X30">
+        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(X$29*0.01,0.97),0.03))</f>
+        <v>15.849999999999998</v>
+      </c>
+      <c r="Y30">
+        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(Y$29*0.01,0.97),0.03))</f>
+        <v>17.740000000000002</v>
+      </c>
+      <c r="Z30">
+        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(Z$29*0.01,0.97),0.03))</f>
+        <v>22.213999999999999</v>
+      </c>
+      <c r="AA30">
+        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(AA$29*0.01,0.97),0.03))</f>
+        <v>26.380000000000006</v>
+      </c>
+      <c r="AB30">
+        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(AB$29*0.01,0.97),0.03))</f>
+        <v>30.265000000000001</v>
+      </c>
+      <c r="AC30">
+        <f>_xlfn.PERCENTILE.EXC($B$20:$CO$20,MAX(MIN(AC$29*0.01,0.97),0.03))</f>
+        <v>43.761999999999993</v>
+      </c>
       <c r="DG30">
-        <f>DG29+1</f>
+        <f t="shared" si="60"/>
         <v>28</v>
       </c>
       <c r="DH30">
-        <f ca="1">OFFSET($B$5,0,DG30,1,1)</f>
+        <f t="shared" ca="1" si="64"/>
         <v>39.6</v>
       </c>
       <c r="DI30">
-        <f ca="1">OFFSET($B$11,0,DG30,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>43.3</v>
       </c>
       <c r="DJ30">
-        <f ca="1">OFFSET($B$15,0,DG30,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.48585858585858599</v>
       </c>
     </row>
     <row r="31" spans="1:114" x14ac:dyDescent="0.25">
       <c r="DG31">
-        <f>DG30+1</f>
+        <f t="shared" si="60"/>
         <v>29</v>
       </c>
       <c r="DH31">
-        <f ca="1">OFFSET($B$5,0,DG31,1,1)</f>
+        <f t="shared" ca="1" si="64"/>
         <v>34.4</v>
       </c>
       <c r="DI31">
-        <f ca="1">OFFSET($B$11,0,DG31,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>21.1</v>
       </c>
       <c r="DJ31">
-        <f ca="1">OFFSET($B$15,0,DG31,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.35813953488372086</v>
       </c>
     </row>
     <row r="32" spans="1:114" x14ac:dyDescent="0.25">
       <c r="DG32">
-        <f>DG31+1</f>
+        <f t="shared" si="60"/>
         <v>30</v>
       </c>
       <c r="DH32">
-        <f ca="1">OFFSET($B$5,0,DG32,1,1)</f>
+        <f t="shared" ca="1" si="64"/>
         <v>50.23</v>
       </c>
       <c r="DI32">
-        <f ca="1">OFFSET($B$11,0,DG32,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>48.9</v>
       </c>
       <c r="DJ32">
-        <f ca="1">OFFSET($B$15,0,DG32,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.58839339040414074</v>
       </c>
     </row>
     <row r="33" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG33">
-        <f>DG32+1</f>
+        <f t="shared" si="60"/>
         <v>31</v>
       </c>
       <c r="DH33">
-        <f ca="1">OFFSET($B$5,0,DG33,1,1)</f>
+        <f t="shared" ca="1" si="64"/>
         <v>31.2</v>
       </c>
       <c r="DI33">
-        <f ca="1">OFFSET($B$11,0,DG33,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>16.100000000000001</v>
       </c>
       <c r="DJ33">
-        <f ca="1">OFFSET($B$15,0,DG33,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.24839743589743607</v>
       </c>
     </row>
     <row r="34" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG34">
-        <f>DG33+1</f>
+        <f t="shared" si="60"/>
         <v>32</v>
       </c>
       <c r="DH34">
-        <f ca="1">OFFSET($B$5,0,DG34,1,1)</f>
+        <f t="shared" ca="1" si="64"/>
         <v>43.7</v>
       </c>
       <c r="DI34">
-        <f ca="1">OFFSET($B$11,0,DG34,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>40.6</v>
       </c>
       <c r="DJ34">
-        <f ca="1">OFFSET($B$15,0,DG34,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.34622425629290621</v>
       </c>
     </row>
     <row r="35" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG35">
-        <f>DG34+1</f>
+        <f t="shared" si="60"/>
         <v>33</v>
       </c>
       <c r="DH35">
-        <f t="shared" ref="DH35:DH66" ca="1" si="61">OFFSET($B$5,0,DG35,1,1)</f>
+        <f t="shared" ref="DH35:DH66" ca="1" si="67">OFFSET($B$5,0,DG35,1,1)</f>
         <v>63.4</v>
       </c>
       <c r="DI35">
-        <f ca="1">OFFSET($B$11,0,DG35,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>23.9</v>
       </c>
       <c r="DJ35">
-        <f ca="1">OFFSET($B$15,0,DG35,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.26908517350157735</v>
       </c>
     </row>
     <row r="36" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG36">
-        <f>DG35+1</f>
+        <f t="shared" si="60"/>
         <v>34</v>
       </c>
       <c r="DH36">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>36.5</v>
       </c>
       <c r="DI36">
-        <f ca="1">OFFSET($B$11,0,DG36,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>21.3</v>
       </c>
       <c r="DJ36">
-        <f ca="1">OFFSET($B$15,0,DG36,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.32109589041095898</v>
       </c>
     </row>
     <row r="37" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG37">
-        <f>DG36+1</f>
+        <f t="shared" si="60"/>
         <v>35</v>
       </c>
       <c r="DH37">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>36.299999999999997</v>
       </c>
       <c r="DI37">
-        <f ca="1">OFFSET($B$11,0,DG37,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>34.5</v>
       </c>
       <c r="DJ37">
-        <f ca="1">OFFSET($B$15,0,DG37,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.31019283746556459</v>
       </c>
     </row>
     <row r="38" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG38">
-        <f>DG37+1</f>
+        <f t="shared" si="60"/>
         <v>36</v>
       </c>
       <c r="DH38">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>37.6</v>
       </c>
       <c r="DI38">
-        <f ca="1">OFFSET($B$11,0,DG38,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>19.399999999999999</v>
       </c>
       <c r="DJ38">
-        <f ca="1">OFFSET($B$15,0,DG38,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.34228723404255301</v>
       </c>
     </row>
     <row r="39" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG39">
-        <f>DG38+1</f>
+        <f t="shared" si="60"/>
         <v>37</v>
       </c>
       <c r="DH39">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>30.6</v>
       </c>
       <c r="DI39">
-        <f ca="1">OFFSET($B$11,0,DG39,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>22.2</v>
       </c>
       <c r="DJ39">
-        <f ca="1">OFFSET($B$15,0,DG39,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.26732026143790844</v>
       </c>
     </row>
     <row r="40" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG40">
-        <f>DG39+1</f>
+        <f t="shared" si="60"/>
         <v>38</v>
       </c>
       <c r="DH40">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>29.2</v>
       </c>
       <c r="DI40">
-        <f ca="1">OFFSET($B$11,0,DG40,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>31.1</v>
       </c>
       <c r="DJ40">
-        <f ca="1">OFFSET($B$15,0,DG40,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.24657534246575352</v>
       </c>
     </row>
     <row r="41" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG41">
-        <f>DG40+1</f>
+        <f t="shared" si="60"/>
         <v>39</v>
       </c>
       <c r="DH41">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>42.6</v>
       </c>
       <c r="DI41">
-        <f ca="1">OFFSET($B$11,0,DG41,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>25</v>
       </c>
       <c r="DJ41">
-        <f ca="1">OFFSET($B$15,0,DG41,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.25539906103286392</v>
       </c>
     </row>
     <row r="42" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG42">
-        <f>DG41+1</f>
+        <f t="shared" si="60"/>
         <v>40</v>
       </c>
       <c r="DH42">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>27.1</v>
       </c>
       <c r="DI42">
-        <f ca="1">OFFSET($B$11,0,DG42,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>30.7</v>
       </c>
       <c r="DJ42">
-        <f ca="1">OFFSET($B$15,0,DG42,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.26199261992619932</v>
       </c>
     </row>
     <row r="43" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG43">
-        <f>DG42+1</f>
+        <f t="shared" si="60"/>
         <v>41</v>
       </c>
       <c r="DH43">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>31.2</v>
       </c>
       <c r="DI43">
-        <f ca="1">OFFSET($B$11,0,DG43,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>28.2</v>
       </c>
       <c r="DJ43">
-        <f ca="1">OFFSET($B$15,0,DG43,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.27371794871794858</v>
       </c>
     </row>
     <row r="44" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG44">
-        <f>DG43+1</f>
+        <f t="shared" si="60"/>
         <v>42</v>
       </c>
       <c r="DH44">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>72.7</v>
       </c>
       <c r="DI44">
-        <f ca="1">OFFSET($B$11,0,DG44,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>31.2</v>
       </c>
       <c r="DJ44">
-        <f ca="1">OFFSET($B$15,0,DG44,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.32035763411279233</v>
       </c>
     </row>
     <row r="45" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG45">
-        <f t="shared" ref="DG45:DG59" si="62">DG44+1</f>
+        <f t="shared" ref="DG45:DG59" si="68">DG44+1</f>
         <v>43</v>
       </c>
       <c r="DH45">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>26.9</v>
       </c>
       <c r="DI45">
-        <f ca="1">OFFSET($B$11,0,DG45,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>20.2</v>
       </c>
       <c r="DJ45">
-        <f ca="1">OFFSET($B$15,0,DG45,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>8.029739776951654E-2</v>
       </c>
     </row>
     <row r="46" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG46">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>44</v>
       </c>
       <c r="DH46">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>67.099999999999994</v>
       </c>
       <c r="DI46">
-        <f ca="1">OFFSET($B$11,0,DG46,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>37.1</v>
       </c>
       <c r="DJ46">
-        <f ca="1">OFFSET($B$15,0,DG46,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.37198211624441124</v>
       </c>
     </row>
     <row r="47" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG47">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>45</v>
       </c>
       <c r="DH47">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>46.2</v>
       </c>
       <c r="DI47">
-        <f ca="1">OFFSET($B$11,0,DG47,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>25.1</v>
       </c>
       <c r="DJ47">
-        <f ca="1">OFFSET($B$15,0,DG47,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.29632034632034632</v>
       </c>
     </row>
     <row r="48" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG48">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>46</v>
       </c>
       <c r="DH48">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>41.3</v>
       </c>
       <c r="DI48">
-        <f ca="1">OFFSET($B$11,0,DG48,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>31.3</v>
       </c>
       <c r="DJ48">
-        <f ca="1">OFFSET($B$15,0,DG48,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.30726392251815982</v>
       </c>
     </row>
     <row r="49" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG49">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>47</v>
       </c>
       <c r="DH49">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>33.4</v>
       </c>
       <c r="DI49">
-        <f ca="1">OFFSET($B$11,0,DG49,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>35.200000000000003</v>
       </c>
       <c r="DJ49">
-        <f ca="1">OFFSET($B$15,0,DG49,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.41197604790419168</v>
       </c>
     </row>
     <row r="50" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG50">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>48</v>
       </c>
       <c r="DH50">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>71.3</v>
       </c>
       <c r="DI50">
-        <f ca="1">OFFSET($B$11,0,DG50,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>39.1</v>
       </c>
       <c r="DJ50">
-        <f ca="1">OFFSET($B$15,0,DG50,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.40490883590462834</v>
       </c>
     </row>
     <row r="51" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG51">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>49</v>
       </c>
       <c r="DH51">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>69.8</v>
       </c>
       <c r="DI51">
-        <f ca="1">OFFSET($B$11,0,DG51,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>44.7</v>
       </c>
       <c r="DJ51">
-        <f ca="1">OFFSET($B$15,0,DG51,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.45300859598853865</v>
       </c>
     </row>
     <row r="52" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG52">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>50</v>
       </c>
       <c r="DH52">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>40</v>
       </c>
       <c r="DI52">
-        <f ca="1">OFFSET($B$11,0,DG52,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>30.1</v>
       </c>
       <c r="DJ52">
-        <f ca="1">OFFSET($B$15,0,DG52,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.3282500000000001</v>
       </c>
     </row>
     <row r="53" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG53">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>51</v>
       </c>
       <c r="DH53">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>34.9</v>
       </c>
       <c r="DI53">
-        <f ca="1">OFFSET($B$11,0,DG53,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>35.200000000000003</v>
       </c>
       <c r="DJ53">
-        <f ca="1">OFFSET($B$15,0,DG53,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.43982808022922643</v>
       </c>
     </row>
     <row r="54" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG54">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>52</v>
       </c>
       <c r="DH54">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>30.2</v>
       </c>
       <c r="DI54">
-        <f ca="1">OFFSET($B$11,0,DG54,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>40.6</v>
       </c>
       <c r="DJ54">
-        <f ca="1">OFFSET($B$15,0,DG54,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.49966887417218553</v>
       </c>
     </row>
     <row r="55" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG55">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>53</v>
       </c>
       <c r="DH55">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>44.2</v>
       </c>
       <c r="DI55">
-        <f ca="1">OFFSET($B$11,0,DG55,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>32.299999999999997</v>
       </c>
       <c r="DJ55">
-        <f ca="1">OFFSET($B$15,0,DG55,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.36900452488687785</v>
       </c>
     </row>
     <row r="56" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG56">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>54</v>
       </c>
       <c r="DH56">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>69.400000000000006</v>
       </c>
       <c r="DI56">
-        <f ca="1">OFFSET($B$11,0,DG56,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>45.2</v>
       </c>
       <c r="DJ56">
-        <f ca="1">OFFSET($B$15,0,DG56,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.42507204610951016</v>
       </c>
     </row>
     <row r="57" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG57">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>55</v>
       </c>
       <c r="DH57">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>25.8</v>
       </c>
       <c r="DI57">
-        <f ca="1">OFFSET($B$11,0,DG57,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>35.799999999999997</v>
       </c>
       <c r="DJ57">
-        <f ca="1">OFFSET($B$15,0,DG57,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.37248062015503847</v>
       </c>
     </row>
     <row r="58" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG58">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>56</v>
       </c>
       <c r="DH58">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>38.700000000000003</v>
       </c>
       <c r="DI58">
-        <f ca="1">OFFSET($B$11,0,DG58,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>31.5</v>
       </c>
       <c r="DJ58">
-        <f ca="1">OFFSET($B$15,0,DG58,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.18010335917312661</v>
       </c>
     </row>
     <row r="59" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG59">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>57</v>
       </c>
       <c r="DH59">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>38.5</v>
       </c>
       <c r="DI59">
-        <f ca="1">OFFSET($B$11,0,DG59,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>42.8</v>
       </c>
       <c r="DJ59">
-        <f ca="1">OFFSET($B$15,0,DG59,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.50233766233766231</v>
       </c>
     </row>
     <row r="60" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG60">
-        <f t="shared" ref="DG60:DG66" si="63">DG59+1</f>
+        <f t="shared" ref="DG60:DG66" si="69">DG59+1</f>
         <v>58</v>
       </c>
       <c r="DH60">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>45.2</v>
       </c>
       <c r="DI60">
-        <f ca="1">OFFSET($B$11,0,DG60,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>39.200000000000003</v>
       </c>
       <c r="DJ60">
-        <f ca="1">OFFSET($B$15,0,DG60,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.51659292035398219</v>
       </c>
     </row>
     <row r="61" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG61">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>59</v>
       </c>
       <c r="DH61">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>27.4</v>
       </c>
       <c r="DI61">
-        <f ca="1">OFFSET($B$11,0,DG61,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>28.6</v>
       </c>
       <c r="DJ61">
-        <f ca="1">OFFSET($B$15,0,DG61,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.41277372262773715</v>
       </c>
     </row>
     <row r="62" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG62">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>60</v>
       </c>
       <c r="DH62">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>40.799999999999997</v>
       </c>
       <c r="DI62">
-        <f ca="1">OFFSET($B$11,0,DG62,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>48.1</v>
       </c>
       <c r="DJ62">
-        <f ca="1">OFFSET($B$15,0,DG62,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.46764705882352958</v>
       </c>
     </row>
     <row r="63" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG63">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>61</v>
       </c>
       <c r="DH63">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>36</v>
       </c>
       <c r="DI63">
-        <f ca="1">OFFSET($B$11,0,DG63,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>34.5</v>
       </c>
       <c r="DJ63">
-        <f ca="1">OFFSET($B$15,0,DG63,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.46833333333333321</v>
       </c>
     </row>
     <row r="64" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG64">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>62</v>
       </c>
       <c r="DH64">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>35.6</v>
       </c>
       <c r="DI64">
-        <f ca="1">OFFSET($B$11,0,DG64,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>44.4</v>
       </c>
       <c r="DJ64">
-        <f ca="1">OFFSET($B$15,0,DG64,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.49185393258426968</v>
       </c>
     </row>
     <row r="65" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG65">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>63</v>
       </c>
       <c r="DH65">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>33.5</v>
       </c>
       <c r="DI65">
-        <f ca="1">OFFSET($B$11,0,DG65,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>44.3</v>
       </c>
       <c r="DJ65">
-        <f ca="1">OFFSET($B$15,0,DG65,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.46716417910447755</v>
       </c>
     </row>
     <row r="66" spans="111:114" x14ac:dyDescent="0.25">
       <c r="DG66">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>64</v>
       </c>
       <c r="DH66">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="67"/>
         <v>31.8</v>
       </c>
       <c r="DI66">
-        <f ca="1">OFFSET($B$11,0,DG66,1,1)</f>
+        <f t="shared" ca="1" si="65"/>
         <v>33.799999999999997</v>
       </c>
       <c r="DJ66">
-        <f ca="1">OFFSET($B$15,0,DG66,1,1)</f>
+        <f t="shared" ca="1" si="66"/>
         <v>0.36792452830188677</v>
       </c>
     </row>
@@ -16670,32 +17459,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED575034-DF5C-4399-959D-FE713334FBF2}">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
     <col min="20" max="20" width="12.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" customWidth="1"/>
     <col min="24" max="24" width="12.28515625" customWidth="1"/>
     <col min="25" max="25" width="11.42578125" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" customWidth="1"/>
     <col min="31" max="31" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AF1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AG1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AH1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -16745,43 +17547,43 @@
         <v>98</v>
       </c>
       <c r="Q2" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="R2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="T2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="U2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="X2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Y2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Z2" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="AA2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB2" t="s">
         <v>143</v>
       </c>
-      <c r="AB2" t="s">
-        <v>147</v>
-      </c>
       <c r="AC2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -18292,6 +19094,121 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:AC18" si="14">B15-(0.0127*B11-0.034)</f>
+        <v>0.14196527199027142</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="14"/>
+        <v>7.7304153126329156E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="14"/>
+        <v>-6.734846472248357E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="14"/>
+        <v>-0.13947115126050397</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="14"/>
+        <v>-0.14682189108236898</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="14"/>
+        <v>-0.13288375724275714</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="14"/>
+        <v>-2.7464517774342695E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="14"/>
+        <v>-6.1127882122174293E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="14"/>
+        <v>-4.5124705882353011E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="14"/>
+        <v>2.7513333333333445E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="14"/>
+        <v>6.8979152542372968E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="14"/>
+        <v>-2.5792079207920815E-3</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="14"/>
+        <v>7.4821578947368517E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="14"/>
+        <v>-3.0126721991701078E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="14"/>
+        <v>-8.9632626262626247E-2</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="14"/>
+        <v>-0.11633623376623392</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="14"/>
+        <v>-7.7879168900804263E-2</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="14"/>
+        <v>-6.2036059479553818E-3</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="14"/>
+        <v>-8.0907843137254853E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="14"/>
+        <v>-0.48937782608695651</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="14"/>
+        <v>9.7059305019305042E-2</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="14"/>
+        <v>5.1402549800796726E-2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="14"/>
+        <v>-0.3164408753315649</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="14"/>
+        <v>-7.962884955752203E-2</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="14"/>
+        <v>-7.1781138211382156E-2</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="14"/>
+        <v>6.1770484581498142E-3</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="14"/>
+        <v>9.2685140186915815E-2</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="14"/>
+        <v>4.8860000000000015E-2</v>
+      </c>
       <c r="AE18">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -18328,6 +19245,121 @@
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:AC20" si="15">B10-B11</f>
+        <v>3.9100000000000037</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="15"/>
+        <v>9.740000000000002</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="15"/>
+        <v>17.03</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="15"/>
+        <v>24.42</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="15"/>
+        <v>33.120000000000005</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="15"/>
+        <v>38.290000000000006</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="15"/>
+        <v>12.660000000000004</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="15"/>
+        <v>29.479999999999997</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="15"/>
+        <v>23.900000000000006</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="15"/>
+        <v>4.5</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="15"/>
+        <v>15.100000000000001</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="15"/>
+        <v>7.7000000000000028</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="15"/>
+        <v>16.599999999999994</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="15"/>
+        <v>23.499999999999993</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="15"/>
+        <v>25.6</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="15"/>
+        <v>21.5</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="15"/>
+        <v>14.200000000000003</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="15"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="15"/>
+        <v>19.300000000000004</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="15"/>
+        <v>7.8000000000000043</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="15"/>
+        <v>7.8000000000000043</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="15"/>
+        <v>8.3000000000000043</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="15"/>
+        <v>26.1</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="15"/>
+        <v>15.800000000000004</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="15"/>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="15"/>
+        <v>10.699999999999996</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="15"/>
+        <v>9.1999999999999957</v>
+      </c>
       <c r="AE20">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -18346,6 +19378,93 @@
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
       <c r="AE21">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -18364,6 +19483,93 @@
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
       <c r="AE22">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -18382,6 +19588,63 @@
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>194</v>
+      </c>
+      <c r="P23" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>183</v>
+      </c>
+      <c r="R23" t="s">
+        <v>183</v>
+      </c>
+      <c r="S23" t="s">
+        <v>186</v>
+      </c>
+      <c r="T23" t="s">
+        <v>182</v>
+      </c>
+      <c r="U23" t="s">
+        <v>183</v>
+      </c>
+      <c r="W23" t="s">
+        <v>186</v>
+      </c>
+      <c r="X23" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>197</v>
+      </c>
       <c r="AE23">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -18511,4 +19774,490 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D61DF5-CC33-4002-9248-B0BC06FCC9D2}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2">
+        <v>27.2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>31.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>32.74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3">
+        <v>43.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>34.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>32.96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5">
+        <v>29.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>28.42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7">
+        <v>29.2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8">
+        <v>25.8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>29.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9">
+        <v>26.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>27.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10">
+        <v>20.12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>24.49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>22.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13">
+        <v>24.8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14">
+        <v>22.7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15">
+        <v>24.3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17">
+        <v>24.3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18">
+        <v>22.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19">
+        <v>24.3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>20.49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20">
+        <v>22.1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>26.49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22">
+        <v>21.26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23">
+        <v>26.6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24">
+        <v>26.9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25">
+        <v>25.1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>24.67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>23.51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>25.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38">
+        <f>AVERAGE(B2:B25)</f>
+        <v>25.565833333333334</v>
+      </c>
+      <c r="D38">
+        <f>AVERAGE(D2:D36)</f>
+        <v>27.750571428571426</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39">
+        <f>MEDIAN(B2:B25)</f>
+        <v>24.950000000000003</v>
+      </c>
+      <c r="C39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39">
+        <f>MEDIAN(D2:D36)</f>
+        <v>25.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>